--- a/escenarios_montecarlo/escenario_009.xlsx
+++ b/escenarios_montecarlo/escenario_009.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.61404110455658</v>
+        <v>18.71227084270533</v>
       </c>
       <c r="D2" t="n">
-        <v>6.383867484012895</v>
+        <v>10.34493761549678</v>
       </c>
       <c r="E2" t="n">
-        <v>13.52408612020989</v>
+        <v>15.73804816190897</v>
       </c>
       <c r="F2" t="n">
-        <v>8.909643721973509</v>
+        <v>19.15018048425365</v>
       </c>
       <c r="G2" t="n">
-        <v>15.92044016850558</v>
+        <v>31.15814928452859</v>
       </c>
       <c r="H2" t="n">
-        <v>18.75479553128888</v>
+        <v>15.92273072732493</v>
       </c>
       <c r="I2" t="n">
-        <v>27.60399974762759</v>
+        <v>72.10554746099695</v>
       </c>
       <c r="J2" t="n">
-        <v>21.31809956076732</v>
+        <v>40.80051451687099</v>
       </c>
       <c r="K2" t="n">
-        <v>19.96095260758669</v>
+        <v>28.20899401446459</v>
       </c>
       <c r="L2" t="n">
-        <v>128.9273492158064</v>
+        <v>53.45315060035892</v>
       </c>
       <c r="M2" t="n">
-        <v>33.68225130034477</v>
+        <v>48.80246145376108</v>
       </c>
       <c r="N2" t="n">
-        <v>136.7449648705639</v>
+        <v>96.16957567689093</v>
       </c>
       <c r="O2" t="n">
-        <v>12.32946986511157</v>
+        <v>29.48668894619139</v>
       </c>
       <c r="P2" t="n">
-        <v>38.83577454536119</v>
+        <v>107.8558334299562</v>
       </c>
       <c r="Q2" t="n">
-        <v>53.49172814542955</v>
+        <v>27.16557672538641</v>
       </c>
       <c r="R2" t="n">
-        <v>57.21749002801374</v>
+        <v>99.94169009045547</v>
       </c>
       <c r="S2" t="n">
-        <v>57.70770400184286</v>
+        <v>40.61825590430244</v>
       </c>
       <c r="T2" t="n">
-        <v>30.94716890142417</v>
+        <v>129.9077231658563</v>
       </c>
       <c r="U2" t="n">
-        <v>61.97508578701382</v>
+        <v>68.67547455335023</v>
       </c>
       <c r="V2" t="n">
-        <v>53.60825214713786</v>
+        <v>53.52864275400822</v>
       </c>
       <c r="W2" t="n">
-        <v>46.01835796270086</v>
+        <v>151.8426712444063</v>
       </c>
       <c r="X2" t="n">
-        <v>85.74957618691789</v>
+        <v>52.30607616944322</v>
       </c>
       <c r="Y2" t="n">
-        <v>56.46372269055049</v>
+        <v>67.34182852232556</v>
       </c>
       <c r="Z2" t="n">
-        <v>56.37870274452149</v>
+        <v>46.88762735837415</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.44093882326943</v>
+        <v>101.4213961294998</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.1782586981354</v>
+        <v>79.78299352676183</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.8503741411502</v>
+        <v>100.7824680940708</v>
       </c>
       <c r="AD2" t="n">
-        <v>98.80893633734684</v>
+        <v>62.94440431274289</v>
       </c>
       <c r="AE2" t="n">
-        <v>103.5320227448668</v>
+        <v>83.96776990938837</v>
       </c>
       <c r="AF2" t="n">
-        <v>127.733291270201</v>
+        <v>135.8034316040647</v>
       </c>
       <c r="AG2" t="n">
-        <v>88.02947591092513</v>
+        <v>113.0089260476107</v>
       </c>
       <c r="AH2" t="n">
-        <v>115.1480609155101</v>
+        <v>147.8123089884515</v>
       </c>
       <c r="AI2" t="n">
-        <v>50.04570462829514</v>
+        <v>117.9262047105366</v>
       </c>
       <c r="AJ2" t="n">
-        <v>171.2625426933326</v>
+        <v>97.16087976497356</v>
       </c>
       <c r="AK2" t="n">
-        <v>33.37592207254173</v>
+        <v>90.30808486854767</v>
       </c>
       <c r="AL2" t="n">
-        <v>116.1757000356258</v>
+        <v>18.68496423233209</v>
       </c>
       <c r="AM2" t="n">
-        <v>81.16336346166511</v>
+        <v>55.88550033169259</v>
       </c>
       <c r="AN2" t="n">
-        <v>28.35027797646095</v>
+        <v>37.81551642484088</v>
       </c>
       <c r="AO2" t="n">
-        <v>30.50231255546863</v>
+        <v>20.28623689336742</v>
       </c>
       <c r="AP2" t="n">
-        <v>26.46544819008221</v>
+        <v>21.37967285124552</v>
       </c>
       <c r="AQ2" t="n">
-        <v>19.30560120466558</v>
+        <v>26.27705241854913</v>
       </c>
       <c r="AR2" t="n">
-        <v>23.69462019471348</v>
+        <v>32.89708958059531</v>
       </c>
       <c r="AS2" t="n">
-        <v>15.4145064445878</v>
+        <v>16.78055863944393</v>
       </c>
       <c r="AT2" t="n">
-        <v>13.06310799342169</v>
+        <v>24.67300666754283</v>
       </c>
       <c r="AU2" t="n">
-        <v>18.70873616855626</v>
+        <v>37.21193738673266</v>
       </c>
       <c r="AV2" t="n">
-        <v>12.63670031806868</v>
+        <v>30.97332257274922</v>
       </c>
       <c r="AW2" t="n">
-        <v>19.90686864382241</v>
+        <v>14.77430632759382</v>
       </c>
       <c r="AX2" t="n">
-        <v>17.94344293524796</v>
+        <v>11.3764115353504</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4.9967444879387</v>
+        <v>15.42100350111003</v>
       </c>
       <c r="D3" t="n">
-        <v>3.469565217391305</v>
+        <v>0.4125865492912228</v>
       </c>
       <c r="E3" t="n">
-        <v>2.879192954756618</v>
+        <v>0.4728282460130467</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5773894000000001</v>
+        <v>15.74333762132467</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8570659088587375</v>
+        <v>1.577635038179687</v>
       </c>
       <c r="H3" t="n">
-        <v>3.325102260089348</v>
+        <v>0.8017732925995861</v>
       </c>
       <c r="I3" t="n">
-        <v>2.379562193928106</v>
+        <v>9.419068634618304</v>
       </c>
       <c r="J3" t="n">
-        <v>1.686473318896088</v>
+        <v>7.639280514161385</v>
       </c>
       <c r="K3" t="n">
-        <v>1.129037952338923</v>
+        <v>2.506444651170951</v>
       </c>
       <c r="L3" t="n">
-        <v>2.629137831135637</v>
+        <v>5.5440526398537</v>
       </c>
       <c r="M3" t="n">
-        <v>6.714663792768865</v>
+        <v>1.94086470149821</v>
       </c>
       <c r="N3" t="n">
-        <v>2.765336399436495</v>
+        <v>1.272605884233482</v>
       </c>
       <c r="O3" t="n">
-        <v>2.195060476569856</v>
+        <v>2.833915181692983</v>
       </c>
       <c r="P3" t="n">
-        <v>9.638903039189197</v>
+        <v>10.40956149434614</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.402557461961801</v>
+        <v>3.534951258455922</v>
       </c>
       <c r="R3" t="n">
-        <v>2.803591633462394</v>
+        <v>3.056883867343286</v>
       </c>
       <c r="S3" t="n">
-        <v>4.192076698062586</v>
+        <v>3.609347755469815</v>
       </c>
       <c r="T3" t="n">
-        <v>2.475579041246287</v>
+        <v>3.244672576020074</v>
       </c>
       <c r="U3" t="n">
-        <v>3.29313850759409</v>
+        <v>5.183693344922464</v>
       </c>
       <c r="V3" t="n">
-        <v>8.340329245343302</v>
+        <v>3.650378617417661</v>
       </c>
       <c r="W3" t="n">
-        <v>2.782660684586305</v>
+        <v>3.186049829494442</v>
       </c>
       <c r="X3" t="n">
-        <v>3.108129641151612</v>
+        <v>1.844224700887532</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.767790403823343</v>
+        <v>3.863961821492127</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.231685713278905</v>
+        <v>9.138343076026024</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.297544382871551</v>
+        <v>2.84552193649871</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.729423213970989</v>
+        <v>3.573028820645546</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.332890014356149</v>
+        <v>5.544458463172463</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.632988176544026</v>
+        <v>5.570838347798383</v>
       </c>
       <c r="AE3" t="n">
-        <v>3.089648751917565</v>
+        <v>2.779420656656049</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.489355195829577</v>
+        <v>3.413580227524283</v>
       </c>
       <c r="AG3" t="n">
-        <v>6.018653263999271</v>
+        <v>10.86190204588989</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.796224753305972</v>
+        <v>6.435736357247542</v>
       </c>
       <c r="AI3" t="n">
-        <v>5.60086619398554</v>
+        <v>2.650448898482994</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3.008785265804122</v>
+        <v>11.16843254527752</v>
       </c>
       <c r="AK3" t="n">
-        <v>3.60731425656104</v>
+        <v>6.097581767720903</v>
       </c>
       <c r="AL3" t="n">
-        <v>4.11635994320052</v>
+        <v>3.36665396557098</v>
       </c>
       <c r="AM3" t="n">
-        <v>6.103569536389171</v>
+        <v>2.08929447934018</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.051122355418209</v>
+        <v>8.855717670767326</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.647313268697371</v>
+        <v>16.72528676111638</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.404449673099096</v>
+        <v>6.226724252905259</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4.513460546673542</v>
+        <v>6.18682628618612</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.149960713141154</v>
+        <v>1.126569193807446</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.912487540936921</v>
+        <v>1.51487057067166</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.676712711006928</v>
+        <v>8.286603000128872</v>
       </c>
       <c r="AU3" t="n">
-        <v>2.790096610752687</v>
+        <v>0.7522810483256475</v>
       </c>
       <c r="AV3" t="n">
-        <v>4.959223262870896</v>
+        <v>1.618424454845615</v>
       </c>
       <c r="AW3" t="n">
-        <v>2.157912224000967</v>
+        <v>4.313795219495748</v>
       </c>
       <c r="AX3" t="n">
-        <v>2.686924348579075</v>
+        <v>10.54791040690615</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>12.77847140118744</v>
+        <v>10.19324504474767</v>
       </c>
       <c r="D4" t="n">
-        <v>9.671232026732852</v>
+        <v>15.12294709215404</v>
       </c>
       <c r="E4" t="n">
-        <v>40.42005089411241</v>
+        <v>18.12912866941184</v>
       </c>
       <c r="F4" t="n">
-        <v>10.14486990565707</v>
+        <v>19.92328636404748</v>
       </c>
       <c r="G4" t="n">
-        <v>9.574755985778365</v>
+        <v>6.672731390950397</v>
       </c>
       <c r="H4" t="n">
-        <v>24.73856773185828</v>
+        <v>27.53346953882462</v>
       </c>
       <c r="I4" t="n">
-        <v>24.60444383160166</v>
+        <v>24.01653847831169</v>
       </c>
       <c r="J4" t="n">
-        <v>10.71512511477341</v>
+        <v>97.34216987359235</v>
       </c>
       <c r="K4" t="n">
-        <v>8.939705463718456</v>
+        <v>8.535390105075457</v>
       </c>
       <c r="L4" t="n">
-        <v>136.4138989443546</v>
+        <v>55.74959805323363</v>
       </c>
       <c r="M4" t="n">
-        <v>128.975887162898</v>
+        <v>63.82405842761411</v>
       </c>
       <c r="N4" t="n">
-        <v>221.334653173169</v>
+        <v>129.3573477466285</v>
       </c>
       <c r="O4" t="n">
-        <v>71.45414185379366</v>
+        <v>101.829961432507</v>
       </c>
       <c r="P4" t="n">
-        <v>156.3669088741002</v>
+        <v>37.37801109427417</v>
       </c>
       <c r="Q4" t="n">
-        <v>43.97083526055347</v>
+        <v>40.71023936905615</v>
       </c>
       <c r="R4" t="n">
-        <v>96.01811474610402</v>
+        <v>53.42403245726339</v>
       </c>
       <c r="S4" t="n">
-        <v>98.55037020001443</v>
+        <v>279.5930446098452</v>
       </c>
       <c r="T4" t="n">
-        <v>70.12260397731956</v>
+        <v>41.94014046592579</v>
       </c>
       <c r="U4" t="n">
-        <v>43.03897192841945</v>
+        <v>93.21752404180178</v>
       </c>
       <c r="V4" t="n">
-        <v>69.01567785416016</v>
+        <v>74.8942044112803</v>
       </c>
       <c r="W4" t="n">
-        <v>58.84516689803501</v>
+        <v>40.62677721526116</v>
       </c>
       <c r="X4" t="n">
-        <v>51.78783727102319</v>
+        <v>88.33114466804881</v>
       </c>
       <c r="Y4" t="n">
-        <v>101.8673159435432</v>
+        <v>54.36682351421088</v>
       </c>
       <c r="Z4" t="n">
-        <v>40.53064754932345</v>
+        <v>61.02728982716059</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.78001494811745</v>
+        <v>74.24765138280182</v>
       </c>
       <c r="AB4" t="n">
-        <v>54.4518032606301</v>
+        <v>60.9752776884544</v>
       </c>
       <c r="AC4" t="n">
-        <v>56.98286466282951</v>
+        <v>44.58691355657276</v>
       </c>
       <c r="AD4" t="n">
-        <v>104.1512706859194</v>
+        <v>48.03954265526593</v>
       </c>
       <c r="AE4" t="n">
-        <v>84.83434068211167</v>
+        <v>40.68882910147105</v>
       </c>
       <c r="AF4" t="n">
-        <v>72.56519572596693</v>
+        <v>161.9655986974333</v>
       </c>
       <c r="AG4" t="n">
-        <v>70.90495931498943</v>
+        <v>78.60171538959987</v>
       </c>
       <c r="AH4" t="n">
-        <v>38.50112934975177</v>
+        <v>60.0359693952369</v>
       </c>
       <c r="AI4" t="n">
-        <v>23.93021961396864</v>
+        <v>121.7678370710557</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18.37088727809819</v>
+        <v>96.49498586603232</v>
       </c>
       <c r="AK4" t="n">
-        <v>86.48784130321579</v>
+        <v>19.67036263871892</v>
       </c>
       <c r="AL4" t="n">
-        <v>35.91755963815445</v>
+        <v>62.17463368562281</v>
       </c>
       <c r="AM4" t="n">
-        <v>43.74640524034719</v>
+        <v>20.90427923855534</v>
       </c>
       <c r="AN4" t="n">
-        <v>18.83781384564425</v>
+        <v>21.74307483568965</v>
       </c>
       <c r="AO4" t="n">
-        <v>24.30058047886666</v>
+        <v>37.48955050303677</v>
       </c>
       <c r="AP4" t="n">
-        <v>12.89849201483633</v>
+        <v>15.23568608673104</v>
       </c>
       <c r="AQ4" t="n">
-        <v>17.95714417596122</v>
+        <v>23.0324316806984</v>
       </c>
       <c r="AR4" t="n">
-        <v>6.605668778280542</v>
+        <v>10.92557942133805</v>
       </c>
       <c r="AS4" t="n">
-        <v>23.91468858131488</v>
+        <v>27.74321288806874</v>
       </c>
       <c r="AT4" t="n">
-        <v>13.36169159360495</v>
+        <v>13.77170190594289</v>
       </c>
       <c r="AU4" t="n">
-        <v>10.30870922181357</v>
+        <v>24.23313241177823</v>
       </c>
       <c r="AV4" t="n">
-        <v>11.93571463158744</v>
+        <v>10.16395628176215</v>
       </c>
       <c r="AW4" t="n">
-        <v>14.68925113861834</v>
+        <v>6.282466353758949</v>
       </c>
       <c r="AX4" t="n">
-        <v>10.06546478268944</v>
+        <v>7.882241564254889</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>19.43815723682303</v>
+        <v>14.69131422866791</v>
       </c>
       <c r="D5" t="n">
-        <v>16.94376415853528</v>
+        <v>45.28886301546166</v>
       </c>
       <c r="E5" t="n">
-        <v>30.83063403500807</v>
+        <v>57.62958590401912</v>
       </c>
       <c r="F5" t="n">
-        <v>20.38382260999553</v>
+        <v>24.25071677152463</v>
       </c>
       <c r="G5" t="n">
-        <v>17.39598262329654</v>
+        <v>17.72375728749529</v>
       </c>
       <c r="H5" t="n">
-        <v>17.61995951770617</v>
+        <v>28.42744974597875</v>
       </c>
       <c r="I5" t="n">
-        <v>18.09908996731014</v>
+        <v>17.0796648414568</v>
       </c>
       <c r="J5" t="n">
-        <v>21.49682780128951</v>
+        <v>9.439847919575639</v>
       </c>
       <c r="K5" t="n">
-        <v>26.0573205632851</v>
+        <v>127.3461751939587</v>
       </c>
       <c r="L5" t="n">
-        <v>5.018467155324587</v>
+        <v>17.73662374613529</v>
       </c>
       <c r="M5" t="n">
-        <v>63.1762518487357</v>
+        <v>22.33508760364797</v>
       </c>
       <c r="N5" t="n">
-        <v>61.45340082185712</v>
+        <v>28.17527260444574</v>
       </c>
       <c r="O5" t="n">
-        <v>9.130463598225495</v>
+        <v>85.37939826835945</v>
       </c>
       <c r="P5" t="n">
-        <v>194.9303433982035</v>
+        <v>36.10909074067363</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.24605407863558</v>
+        <v>14.62054064587135</v>
       </c>
       <c r="R5" t="n">
-        <v>17.26720541097422</v>
+        <v>7.308857293403586</v>
       </c>
       <c r="S5" t="n">
-        <v>38.65261622793604</v>
+        <v>20.41609577499286</v>
       </c>
       <c r="T5" t="n">
-        <v>36.93398557178844</v>
+        <v>32.61611369960246</v>
       </c>
       <c r="U5" t="n">
-        <v>59.49983778979755</v>
+        <v>82.41190291248505</v>
       </c>
       <c r="V5" t="n">
-        <v>47.42346893203889</v>
+        <v>85.38835182949789</v>
       </c>
       <c r="W5" t="n">
-        <v>58.99688957142858</v>
+        <v>27.39130435786546</v>
       </c>
       <c r="X5" t="n">
-        <v>17.69223538257855</v>
+        <v>17.69357748495195</v>
       </c>
       <c r="Y5" t="n">
-        <v>62.97080662382605</v>
+        <v>16.1961042860313</v>
       </c>
       <c r="Z5" t="n">
-        <v>26.77580186985567</v>
+        <v>10.68799487233859</v>
       </c>
       <c r="AA5" t="n">
-        <v>16.45062895884138</v>
+        <v>11.71022368528406</v>
       </c>
       <c r="AB5" t="n">
-        <v>44.70144991225824</v>
+        <v>147.5077368445598</v>
       </c>
       <c r="AC5" t="n">
-        <v>34.72833756219649</v>
+        <v>22.90737875071817</v>
       </c>
       <c r="AD5" t="n">
-        <v>56.35352115329854</v>
+        <v>21.51804464664221</v>
       </c>
       <c r="AE5" t="n">
-        <v>23.77096063219695</v>
+        <v>26.1685984685833</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.929473897655377</v>
+        <v>35.73924407256129</v>
       </c>
       <c r="AG5" t="n">
-        <v>31.86288461137043</v>
+        <v>76.49461245147552</v>
       </c>
       <c r="AH5" t="n">
-        <v>68.15481695060855</v>
+        <v>13.52262746237563</v>
       </c>
       <c r="AI5" t="n">
-        <v>35.52772069921559</v>
+        <v>22.58556106551699</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.512738711405736</v>
+        <v>43.22153671244611</v>
       </c>
       <c r="AK5" t="n">
-        <v>32.72099033632853</v>
+        <v>11.88128394175974</v>
       </c>
       <c r="AL5" t="n">
-        <v>52.66251469850337</v>
+        <v>5.187553855778731</v>
       </c>
       <c r="AM5" t="n">
-        <v>24.57271769125635</v>
+        <v>4.670018579280082</v>
       </c>
       <c r="AN5" t="n">
-        <v>60.02100286530819</v>
+        <v>41.59601104798456</v>
       </c>
       <c r="AO5" t="n">
-        <v>20.4388792327325</v>
+        <v>18.02843318100485</v>
       </c>
       <c r="AP5" t="n">
-        <v>7.391098144163576</v>
+        <v>61.81824929408975</v>
       </c>
       <c r="AQ5" t="n">
-        <v>25.66705411187705</v>
+        <v>9.064522968954305</v>
       </c>
       <c r="AR5" t="n">
-        <v>27.85525092115696</v>
+        <v>12.04125014472304</v>
       </c>
       <c r="AS5" t="n">
-        <v>32.45595465680297</v>
+        <v>9.472831724632476</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>10.07934465335843</v>
       </c>
       <c r="AU5" t="n">
-        <v>26.88168179659216</v>
+        <v>46.1334569752994</v>
       </c>
       <c r="AV5" t="n">
-        <v>31.34195406832966</v>
+        <v>13.35837048425736</v>
       </c>
       <c r="AW5" t="n">
-        <v>21.06365434682925</v>
+        <v>26.83497828765792</v>
       </c>
       <c r="AX5" t="n">
-        <v>14.00874207558731</v>
+        <v>59.68502461836225</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>3.194161686651666</v>
+        <v>1.871364039061235</v>
       </c>
       <c r="D6" t="n">
-        <v>3.936270661477244</v>
+        <v>3.721594309696783</v>
       </c>
       <c r="E6" t="n">
-        <v>13.1030583524337</v>
+        <v>7.280703044820723</v>
       </c>
       <c r="F6" t="n">
-        <v>6.811136019841864</v>
+        <v>7.088109706050638</v>
       </c>
       <c r="G6" t="n">
-        <v>3.289346242175788</v>
+        <v>2.704621415064321</v>
       </c>
       <c r="H6" t="n">
-        <v>26.37616901822721</v>
+        <v>1.549464894909533</v>
       </c>
       <c r="I6" t="n">
-        <v>2.216427228066161</v>
+        <v>6.615577833352219</v>
       </c>
       <c r="J6" t="n">
-        <v>18.09469472919707</v>
+        <v>13.83331025857547</v>
       </c>
       <c r="K6" t="n">
-        <v>52.53228370063791</v>
+        <v>3.830177838351584</v>
       </c>
       <c r="L6" t="n">
-        <v>17.485288610814</v>
+        <v>11.69633117666759</v>
       </c>
       <c r="M6" t="n">
-        <v>20.88827665600845</v>
+        <v>10.26532668904423</v>
       </c>
       <c r="N6" t="n">
-        <v>36.52927495228123</v>
+        <v>23.0541120972517</v>
       </c>
       <c r="O6" t="n">
-        <v>40.34337803358356</v>
+        <v>16.68153076922049</v>
       </c>
       <c r="P6" t="n">
-        <v>33.33091270026652</v>
+        <v>16.32103919198113</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.68017153533511</v>
+        <v>13.66572194088021</v>
       </c>
       <c r="R6" t="n">
-        <v>13.29189696497705</v>
+        <v>26.54543923341782</v>
       </c>
       <c r="S6" t="n">
-        <v>8.37475744544661</v>
+        <v>23.41035846481364</v>
       </c>
       <c r="T6" t="n">
-        <v>18.12882817981356</v>
+        <v>10.75175863489919</v>
       </c>
       <c r="U6" t="n">
-        <v>15.08775689531316</v>
+        <v>59.58842112288382</v>
       </c>
       <c r="V6" t="n">
-        <v>19.4325687352389</v>
+        <v>59.20555564351363</v>
       </c>
       <c r="W6" t="n">
-        <v>21.50560884384172</v>
+        <v>20.32158229737866</v>
       </c>
       <c r="X6" t="n">
-        <v>45.16944108421136</v>
+        <v>9.532906719762765</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.996182978873486</v>
+        <v>7.0224658466798</v>
       </c>
       <c r="Z6" t="n">
-        <v>11.1954425587592</v>
+        <v>13.59837190442233</v>
       </c>
       <c r="AA6" t="n">
-        <v>32.9747994257744</v>
+        <v>11.87257657554417</v>
       </c>
       <c r="AB6" t="n">
-        <v>16.42912681235688</v>
+        <v>26.54972560169403</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.87303801276477</v>
+        <v>17.27697136103464</v>
       </c>
       <c r="AD6" t="n">
-        <v>41.72764346911832</v>
+        <v>18.84920277553424</v>
       </c>
       <c r="AE6" t="n">
-        <v>16.3551830502874</v>
+        <v>12.22744538558648</v>
       </c>
       <c r="AF6" t="n">
-        <v>15.3649982927118</v>
+        <v>13.04370816894905</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.548923499716222</v>
+        <v>7.710214385598622</v>
       </c>
       <c r="AH6" t="n">
-        <v>22.53326295830131</v>
+        <v>28.41873120431837</v>
       </c>
       <c r="AI6" t="n">
-        <v>6.158437230934863</v>
+        <v>8.025282339182736</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7.76522164289347</v>
+        <v>4.792779731410828</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.855972105085268</v>
+        <v>22.24972693496908</v>
       </c>
       <c r="AL6" t="n">
-        <v>6.053755681854426</v>
+        <v>2.872525357745885</v>
       </c>
       <c r="AM6" t="n">
-        <v>5.643594364415421</v>
+        <v>3.531430845229747</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.411694595330272</v>
+        <v>5.039040235230205</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.6606836687775512</v>
+        <v>4.06950417649338</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.025325447247496</v>
+        <v>16.4327585328326</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.483468523683114</v>
+        <v>4.900936592520797</v>
       </c>
       <c r="AR6" t="n">
-        <v>3.485600267829389</v>
+        <v>2.058581980273847</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.665447918185151</v>
+        <v>3.954369288829135</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.908308265292157</v>
+        <v>1.782013610700633</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.904754479871574</v>
+        <v>2.063243092303761</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.4734966569776792</v>
+        <v>1.265635221349056</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.342719375643513</v>
+        <v>1.502811134339814</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.546202877830986</v>
+        <v>0.6756908748726586</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3.766249454285714</v>
+        <v>9.92609909892686</v>
       </c>
       <c r="D7" t="n">
-        <v>27.42</v>
+        <v>2.220239809103917</v>
       </c>
       <c r="E7" t="n">
-        <v>8.77</v>
+        <v>9.294527705078684</v>
       </c>
       <c r="F7" t="n">
-        <v>2.78</v>
+        <v>10.53783957601448</v>
       </c>
       <c r="G7" t="n">
-        <v>13.73378283976608</v>
+        <v>7.631298901776066</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>10.51596795452144</v>
       </c>
       <c r="I7" t="n">
-        <v>38.08</v>
+        <v>23.71518450271683</v>
       </c>
       <c r="J7" t="n">
-        <v>2.4</v>
+        <v>14.14410118450967</v>
       </c>
       <c r="K7" t="n">
-        <v>31.93</v>
+        <v>34.31057731906243</v>
       </c>
       <c r="L7" t="n">
-        <v>47.33</v>
+        <v>31.3942492496174</v>
       </c>
       <c r="M7" t="n">
-        <v>2.2</v>
+        <v>20.79083151387065</v>
       </c>
       <c r="N7" t="n">
-        <v>36.1</v>
+        <v>20.40765475474945</v>
       </c>
       <c r="O7" t="n">
-        <v>86.68000000000001</v>
+        <v>34.42526838706142</v>
       </c>
       <c r="P7" t="n">
-        <v>54.42</v>
+        <v>50.14170809617769</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.01</v>
+        <v>63.22031891910938</v>
       </c>
       <c r="R7" t="n">
-        <v>87.29000000000001</v>
+        <v>8.805446106990907</v>
       </c>
       <c r="S7" t="n">
-        <v>22.95</v>
+        <v>37.62563780465294</v>
       </c>
       <c r="T7" t="n">
-        <v>17.35</v>
+        <v>31.4360706993557</v>
       </c>
       <c r="U7" t="n">
-        <v>40.1</v>
+        <v>11.92992321723199</v>
       </c>
       <c r="V7" t="n">
-        <v>10.83</v>
+        <v>117.9170799860529</v>
       </c>
       <c r="W7" t="n">
-        <v>51.13</v>
+        <v>28.82057569085771</v>
       </c>
       <c r="X7" t="n">
-        <v>6.700538695756201</v>
+        <v>19.21295589857257</v>
       </c>
       <c r="Y7" t="n">
-        <v>35.47</v>
+        <v>3.563145341826035</v>
       </c>
       <c r="Z7" t="n">
-        <v>5.1</v>
+        <v>30.91372329861419</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.81</v>
+        <v>2.571045455203148</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.280661200000003</v>
+        <v>7.556861774098259</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.55</v>
+        <v>0.7613443829534773</v>
       </c>
       <c r="AD7" t="n">
-        <v>23.82</v>
+        <v>1.444454741522752</v>
       </c>
       <c r="AE7" t="n">
-        <v>8.27</v>
+        <v>2.519980530964441</v>
       </c>
       <c r="AF7" t="n">
-        <v>15.31</v>
+        <v>2.745398682363573</v>
       </c>
       <c r="AG7" t="n">
-        <v>45.35</v>
+        <v>28.77483507056309</v>
       </c>
       <c r="AH7" t="n">
-        <v>33.03</v>
+        <v>51.43365964327612</v>
       </c>
       <c r="AI7" t="n">
-        <v>48.23</v>
+        <v>53.4160538328312</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10.08</v>
+        <v>8.56860260391556</v>
       </c>
       <c r="AK7" t="n">
-        <v>4.71</v>
+        <v>3.381333468378285</v>
       </c>
       <c r="AL7" t="n">
-        <v>8.48</v>
+        <v>2.935453499892839</v>
       </c>
       <c r="AM7" t="n">
-        <v>19.66</v>
+        <v>0.4870187711732016</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.75</v>
+        <v>17.76722867726526</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.43</v>
+        <v>1.607367664030525</v>
       </c>
       <c r="AP7" t="n">
-        <v>34.25</v>
+        <v>9.231781102834086</v>
       </c>
       <c r="AQ7" t="n">
-        <v>5.67</v>
+        <v>1.102385003817068</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.52</v>
+        <v>3.280214950862578</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.59</v>
+        <v>24.33656325749794</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>3.869490181365264</v>
       </c>
       <c r="AU7" t="n">
-        <v>11.99</v>
+        <v>4.590282341314182</v>
       </c>
       <c r="AV7" t="n">
-        <v>14</v>
+        <v>3.614357645950662</v>
       </c>
       <c r="AW7" t="n">
-        <v>28.04</v>
+        <v>0.1967065757869385</v>
       </c>
       <c r="AX7" t="n">
-        <v>1</v>
+        <v>2.549027822760281</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>31.31434680456071</v>
+        <v>18.17914087166584</v>
       </c>
       <c r="D8" t="n">
-        <v>19.99793995938743</v>
+        <v>21.71901300500139</v>
       </c>
       <c r="E8" t="n">
-        <v>18.44532570834931</v>
+        <v>34.80042274469762</v>
       </c>
       <c r="F8" t="n">
-        <v>47.67418576444093</v>
+        <v>48.25746923109955</v>
       </c>
       <c r="G8" t="n">
-        <v>8.77222735031034</v>
+        <v>56.89339063645566</v>
       </c>
       <c r="H8" t="n">
-        <v>84.30559458786711</v>
+        <v>21.72488545226296</v>
       </c>
       <c r="I8" t="n">
-        <v>157.1920102810699</v>
+        <v>44.89766255742712</v>
       </c>
       <c r="J8" t="n">
-        <v>35.41031428128554</v>
+        <v>17.65148462802704</v>
       </c>
       <c r="K8" t="n">
-        <v>93.15448994803347</v>
+        <v>104.1434987686485</v>
       </c>
       <c r="L8" t="n">
-        <v>37.73022521476861</v>
+        <v>42.31535690753118</v>
       </c>
       <c r="M8" t="n">
-        <v>63.16705107279192</v>
+        <v>86.80328344230441</v>
       </c>
       <c r="N8" t="n">
-        <v>32.24263613481022</v>
+        <v>76.01067197077083</v>
       </c>
       <c r="O8" t="n">
-        <v>12.32946986511157</v>
+        <v>60.5880905546598</v>
       </c>
       <c r="P8" t="n">
-        <v>56.53557530778401</v>
+        <v>176.1479820677033</v>
       </c>
       <c r="Q8" t="n">
-        <v>66.88911869657505</v>
+        <v>62.00188819449775</v>
       </c>
       <c r="R8" t="n">
-        <v>41.37080070762141</v>
+        <v>56.53412690228568</v>
       </c>
       <c r="S8" t="n">
-        <v>52.23045142104618</v>
+        <v>80.53752698796625</v>
       </c>
       <c r="T8" t="n">
-        <v>82.88016274171343</v>
+        <v>50.38302009024548</v>
       </c>
       <c r="U8" t="n">
-        <v>53.19100182087713</v>
+        <v>24.26455964248421</v>
       </c>
       <c r="V8" t="n">
-        <v>135.32125</v>
+        <v>59.2824159178652</v>
       </c>
       <c r="W8" t="n">
-        <v>87.04235214726202</v>
+        <v>64.56673313830466</v>
       </c>
       <c r="X8" t="n">
-        <v>35.77198892622459</v>
+        <v>89.1172656714018</v>
       </c>
       <c r="Y8" t="n">
-        <v>53.0563034503031</v>
+        <v>57.2975821788237</v>
       </c>
       <c r="Z8" t="n">
-        <v>97.50048750000001</v>
+        <v>99.58455975912392</v>
       </c>
       <c r="AA8" t="n">
-        <v>56.31251246660708</v>
+        <v>75.33653364199115</v>
       </c>
       <c r="AB8" t="n">
-        <v>82.5326152501373</v>
+        <v>252.5480665786478</v>
       </c>
       <c r="AC8" t="n">
-        <v>128.0324392040481</v>
+        <v>60.27387327749311</v>
       </c>
       <c r="AD8" t="n">
-        <v>71.8472301057521</v>
+        <v>112.8533656991672</v>
       </c>
       <c r="AE8" t="n">
-        <v>149.3908833014175</v>
+        <v>195.690135579151</v>
       </c>
       <c r="AF8" t="n">
-        <v>103.6387653472024</v>
+        <v>78.44319009418227</v>
       </c>
       <c r="AG8" t="n">
-        <v>122.4891687590349</v>
+        <v>144.3456483550339</v>
       </c>
       <c r="AH8" t="n">
-        <v>212.291119525156</v>
+        <v>76.69892954506523</v>
       </c>
       <c r="AI8" t="n">
-        <v>177.5622043654968</v>
+        <v>92.93286810119953</v>
       </c>
       <c r="AJ8" t="n">
-        <v>65.76860808882206</v>
+        <v>138.0674918616183</v>
       </c>
       <c r="AK8" t="n">
-        <v>21.36192845648654</v>
+        <v>36.48574507048267</v>
       </c>
       <c r="AL8" t="n">
-        <v>56.17595191612107</v>
+        <v>42.74361418859062</v>
       </c>
       <c r="AM8" t="n">
-        <v>25.03954777302262</v>
+        <v>157.145969845923</v>
       </c>
       <c r="AN8" t="n">
-        <v>36.97921604925681</v>
+        <v>23.42135678700265</v>
       </c>
       <c r="AO8" t="n">
-        <v>36.10144832867049</v>
+        <v>26.79656955561902</v>
       </c>
       <c r="AP8" t="n">
-        <v>22.65547376369533</v>
+        <v>33.26589917748449</v>
       </c>
       <c r="AQ8" t="n">
-        <v>47.3746900625731</v>
+        <v>30.75185863054345</v>
       </c>
       <c r="AR8" t="n">
-        <v>26.252925257331</v>
+        <v>25.60974468173666</v>
       </c>
       <c r="AS8" t="n">
-        <v>23.09654174316593</v>
+        <v>35.49523067222464</v>
       </c>
       <c r="AT8" t="n">
-        <v>19.30584593318912</v>
+        <v>15.22112280404969</v>
       </c>
       <c r="AU8" t="n">
-        <v>24.44269330288471</v>
+        <v>31.53497284602751</v>
       </c>
       <c r="AV8" t="n">
-        <v>24.98838050999134</v>
+        <v>22.98467238986036</v>
       </c>
       <c r="AW8" t="n">
-        <v>8.135643619621348</v>
+        <v>22.25179931755913</v>
       </c>
       <c r="AX8" t="n">
-        <v>19.3931986939692</v>
+        <v>30.33250549347199</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>7.069677645695534</v>
+        <v>0.6761492763354906</v>
       </c>
       <c r="D9" t="n">
-        <v>1.383518491811104</v>
+        <v>1.007322872325759</v>
       </c>
       <c r="E9" t="n">
-        <v>3.978194421724782</v>
+        <v>5.326369801616898</v>
       </c>
       <c r="F9" t="n">
-        <v>2.484341750621914</v>
+        <v>1.645216647168877</v>
       </c>
       <c r="G9" t="n">
-        <v>1.282425390810043</v>
+        <v>15.041683018707</v>
       </c>
       <c r="H9" t="n">
-        <v>3.22117252190188</v>
+        <v>1.694825143784962</v>
       </c>
       <c r="I9" t="n">
-        <v>4.088069413836394</v>
+        <v>8.150072177448767</v>
       </c>
       <c r="J9" t="n">
-        <v>3.051671940477209</v>
+        <v>0.6632122923369533</v>
       </c>
       <c r="K9" t="n">
-        <v>2.504985201799732</v>
+        <v>8.589533651887352</v>
       </c>
       <c r="L9" t="n">
-        <v>2.128956346937647</v>
+        <v>0.6737754297070978</v>
       </c>
       <c r="M9" t="n">
-        <v>4.85317856669678</v>
+        <v>0.4814830975057675</v>
       </c>
       <c r="N9" t="n">
-        <v>5.942631119132881</v>
+        <v>2.755339026122622</v>
       </c>
       <c r="O9" t="n">
-        <v>2.932476932549579</v>
+        <v>4.19356902347499</v>
       </c>
       <c r="P9" t="n">
-        <v>4.82032864267278</v>
+        <v>1.750318444831613</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.458256829518235</v>
+        <v>5.912233069631224</v>
       </c>
       <c r="R9" t="n">
-        <v>6.80461334218387</v>
+        <v>11.09304927425379</v>
       </c>
       <c r="S9" t="n">
-        <v>3.197500949285185</v>
+        <v>1.991571378143344</v>
       </c>
       <c r="T9" t="n">
-        <v>2.721628898362127</v>
+        <v>1.058558298014676</v>
       </c>
       <c r="U9" t="n">
-        <v>5.046563041672526</v>
+        <v>2.430801592388671</v>
       </c>
       <c r="V9" t="n">
-        <v>3.984313164178086</v>
+        <v>3.129905230709485</v>
       </c>
       <c r="W9" t="n">
-        <v>4.24754642596104</v>
+        <v>2.172950439955823</v>
       </c>
       <c r="X9" t="n">
-        <v>7.424233228439434</v>
+        <v>6.254483092969632</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.304374916876666</v>
+        <v>8.723918869648095</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.89303883115515</v>
+        <v>3.539747947841866</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.203626541746543</v>
+        <v>4.396152882919098</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.565537656984915</v>
+        <v>2.770125026112331</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.485240942628061</v>
+        <v>3.691218941986911</v>
       </c>
       <c r="AD9" t="n">
-        <v>8.546766464219202</v>
+        <v>4.999262952763</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.185643649153258</v>
+        <v>5.85891606439148</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.847197756134921</v>
+        <v>5.129907848256117</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.674548120018022</v>
+        <v>4.59359403398302</v>
       </c>
       <c r="AH9" t="n">
-        <v>5.911071764586663</v>
+        <v>3.696431369152492</v>
       </c>
       <c r="AI9" t="n">
-        <v>6.121044072626188</v>
+        <v>7.917017754543543</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6.421147231291701</v>
+        <v>3.310461062747902</v>
       </c>
       <c r="AK9" t="n">
-        <v>4.219939448514524</v>
+        <v>4.663114782457706</v>
       </c>
       <c r="AL9" t="n">
-        <v>3.990204060876949</v>
+        <v>2.406841785640356</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.617794830021597</v>
+        <v>2.536473215204222</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.617120804243285</v>
+        <v>5.417213585323159</v>
       </c>
       <c r="AO9" t="n">
-        <v>2.069074562083398</v>
+        <v>4.754427486762885</v>
       </c>
       <c r="AP9" t="n">
-        <v>3.397137427869109</v>
+        <v>5.739553095916687</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.994805149625811</v>
+        <v>4.217293069497355</v>
       </c>
       <c r="AR9" t="n">
-        <v>4.031920553289591</v>
+        <v>4.238881559580574</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.431078904991948</v>
+        <v>4.532381278881367</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.676712711006928</v>
+        <v>3.710994793794051</v>
       </c>
       <c r="AU9" t="n">
-        <v>2.790096610752687</v>
+        <v>6.23525301424786</v>
       </c>
       <c r="AV9" t="n">
-        <v>2.83766866763952</v>
+        <v>10.69344950007331</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.362816372026868</v>
+        <v>0.4054854761612746</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.419147378136681</v>
+        <v>2.518731443054679</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>8.964193214746668</v>
+        <v>16.59529134832242</v>
       </c>
       <c r="D10" t="n">
-        <v>15.16540708422687</v>
+        <v>24.67492412548168</v>
       </c>
       <c r="E10" t="n">
-        <v>9.907464768132407</v>
+        <v>3.976474338669296</v>
       </c>
       <c r="F10" t="n">
-        <v>10.76085333333333</v>
+        <v>6.002219149939015</v>
       </c>
       <c r="G10" t="n">
-        <v>18.75649447072151</v>
+        <v>4.960339291464612</v>
       </c>
       <c r="H10" t="n">
-        <v>35.73521680145551</v>
+        <v>19.28014045194444</v>
       </c>
       <c r="I10" t="n">
-        <v>10.83503113144456</v>
+        <v>24.03644875568544</v>
       </c>
       <c r="J10" t="n">
-        <v>8.490874288625193</v>
+        <v>14.18981308376894</v>
       </c>
       <c r="K10" t="n">
-        <v>55.87096372687299</v>
+        <v>42.51389800691415</v>
       </c>
       <c r="L10" t="n">
-        <v>61.04951693614703</v>
+        <v>59.48316562282704</v>
       </c>
       <c r="M10" t="n">
-        <v>128.975887162898</v>
+        <v>37.80309989580235</v>
       </c>
       <c r="N10" t="n">
-        <v>30.68707475304274</v>
+        <v>45.87141294190015</v>
       </c>
       <c r="O10" t="n">
-        <v>37.00012856903768</v>
+        <v>61.65421959504692</v>
       </c>
       <c r="P10" t="n">
-        <v>31.16986827213991</v>
+        <v>26.9177301150614</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.1272520181665</v>
+        <v>25.64779789577676</v>
       </c>
       <c r="R10" t="n">
-        <v>67.57824328574404</v>
+        <v>107.7155218551183</v>
       </c>
       <c r="S10" t="n">
-        <v>71.21475884708482</v>
+        <v>100.0189423951285</v>
       </c>
       <c r="T10" t="n">
-        <v>34.64999029407687</v>
+        <v>49.5638332138013</v>
       </c>
       <c r="U10" t="n">
-        <v>52.82857538604627</v>
+        <v>79.88657169470459</v>
       </c>
       <c r="V10" t="n">
-        <v>23.1853776542137</v>
+        <v>101.1536099046334</v>
       </c>
       <c r="W10" t="n">
-        <v>84.7824286592457</v>
+        <v>61.08859646430492</v>
       </c>
       <c r="X10" t="n">
-        <v>90.49964838836048</v>
+        <v>32.79906650673195</v>
       </c>
       <c r="Y10" t="n">
-        <v>130.2073589593444</v>
+        <v>56.76733013380528</v>
       </c>
       <c r="Z10" t="n">
-        <v>53.72236851608476</v>
+        <v>109.4952865141238</v>
       </c>
       <c r="AA10" t="n">
-        <v>56.80915294082953</v>
+        <v>50.90132191417452</v>
       </c>
       <c r="AB10" t="n">
-        <v>61.560160082027</v>
+        <v>25.45984297245437</v>
       </c>
       <c r="AC10" t="n">
-        <v>95.12700090586802</v>
+        <v>102.6025597985154</v>
       </c>
       <c r="AD10" t="n">
-        <v>55.95044052642795</v>
+        <v>112.9568483717433</v>
       </c>
       <c r="AE10" t="n">
-        <v>64.96789613544907</v>
+        <v>85.33037868799705</v>
       </c>
       <c r="AF10" t="n">
-        <v>103.8175881764604</v>
+        <v>72.76625498628574</v>
       </c>
       <c r="AG10" t="n">
-        <v>31.94507323758311</v>
+        <v>59.92970187387979</v>
       </c>
       <c r="AH10" t="n">
-        <v>44.23154311225176</v>
+        <v>31.22633988793604</v>
       </c>
       <c r="AI10" t="n">
-        <v>44.70734455263351</v>
+        <v>70.10811190701658</v>
       </c>
       <c r="AJ10" t="n">
-        <v>28.05413892839893</v>
+        <v>28.12583489403783</v>
       </c>
       <c r="AK10" t="n">
-        <v>29.24337654755264</v>
+        <v>22.49031199274064</v>
       </c>
       <c r="AL10" t="n">
-        <v>33.28010119424997</v>
+        <v>15.44172569275191</v>
       </c>
       <c r="AM10" t="n">
-        <v>17.44365171146347</v>
+        <v>56.12242448558567</v>
       </c>
       <c r="AN10" t="n">
-        <v>23.81613177197271</v>
+        <v>16.08775807495462</v>
       </c>
       <c r="AO10" t="n">
-        <v>35.61035204567079</v>
+        <v>25.17351231515535</v>
       </c>
       <c r="AP10" t="n">
-        <v>10.29264291734288</v>
+        <v>19.47004136120475</v>
       </c>
       <c r="AQ10" t="n">
-        <v>20.13607324516785</v>
+        <v>16.91553155545319</v>
       </c>
       <c r="AR10" t="n">
-        <v>16.39506172839506</v>
+        <v>18.62439483598386</v>
       </c>
       <c r="AS10" t="n">
-        <v>14.42871583290356</v>
+        <v>20.36720892488454</v>
       </c>
       <c r="AT10" t="n">
-        <v>10.16677966101695</v>
+        <v>24.35195711932409</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.548916667275332</v>
+        <v>14.7578765389675</v>
       </c>
       <c r="AV10" t="n">
-        <v>6.601810920575437</v>
+        <v>10.66181988918638</v>
       </c>
       <c r="AW10" t="n">
-        <v>8.04987178436593</v>
+        <v>17.80595429003208</v>
       </c>
       <c r="AX10" t="n">
-        <v>10.34558242428865</v>
+        <v>5.388978836335768</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>33.71955787850332</v>
+        <v>22.55474937949254</v>
       </c>
       <c r="D11" t="n">
-        <v>7.11315758189171</v>
+        <v>31.08836579466396</v>
       </c>
       <c r="E11" t="n">
-        <v>3.469941597442558</v>
+        <v>23.98995553901163</v>
       </c>
       <c r="F11" t="n">
-        <v>10.90972385411897</v>
+        <v>16.89050147988963</v>
       </c>
       <c r="G11" t="n">
-        <v>17.16957608166113</v>
+        <v>19.87172299591686</v>
       </c>
       <c r="H11" t="n">
-        <v>19.01531071869286</v>
+        <v>32.83053701303224</v>
       </c>
       <c r="I11" t="n">
-        <v>12.6593837155174</v>
+        <v>123.1933763270623</v>
       </c>
       <c r="J11" t="n">
-        <v>21.49682780128951</v>
+        <v>17.51091566725654</v>
       </c>
       <c r="K11" t="n">
-        <v>15.67272250364099</v>
+        <v>11.8805788901132</v>
       </c>
       <c r="L11" t="n">
-        <v>43.07843923011572</v>
+        <v>50.11416791017113</v>
       </c>
       <c r="M11" t="n">
-        <v>138.9580243746034</v>
+        <v>17.98318282208299</v>
       </c>
       <c r="N11" t="n">
-        <v>81.50374742932968</v>
+        <v>27.8135688096287</v>
       </c>
       <c r="O11" t="n">
-        <v>56.23664434922112</v>
+        <v>52.68559282139532</v>
       </c>
       <c r="P11" t="n">
-        <v>94.76224579056915</v>
+        <v>68.70341354224358</v>
       </c>
       <c r="Q11" t="n">
-        <v>32.895911485553</v>
+        <v>79.32353202075035</v>
       </c>
       <c r="R11" t="n">
-        <v>106.5335248942628</v>
+        <v>114.3365907105426</v>
       </c>
       <c r="S11" t="n">
-        <v>38.95035701299817</v>
+        <v>90.09425885322996</v>
       </c>
       <c r="T11" t="n">
-        <v>76.81200906742757</v>
+        <v>84.0800322055636</v>
       </c>
       <c r="U11" t="n">
-        <v>21.06643505783969</v>
+        <v>47.10734046526905</v>
       </c>
       <c r="V11" t="n">
-        <v>12.37338287362667</v>
+        <v>57.64287067346928</v>
       </c>
       <c r="W11" t="n">
-        <v>111.0296327308642</v>
+        <v>19.7043760465669</v>
       </c>
       <c r="X11" t="n">
-        <v>36.44949407927169</v>
+        <v>72.59214374488857</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>24.87730363873566</v>
       </c>
       <c r="Z11" t="n">
-        <v>95.04227586841699</v>
+        <v>19.54688936730581</v>
       </c>
       <c r="AA11" t="n">
-        <v>17.4830695688069</v>
+        <v>70.83700543699177</v>
       </c>
       <c r="AB11" t="n">
-        <v>24.06465659541674</v>
+        <v>24.42542760790978</v>
       </c>
       <c r="AC11" t="n">
-        <v>14.57559432147935</v>
+        <v>21.06697591541012</v>
       </c>
       <c r="AD11" t="n">
-        <v>95.15329294416439</v>
+        <v>13.50294854663194</v>
       </c>
       <c r="AE11" t="n">
-        <v>31.16636881714863</v>
+        <v>24.31119713193142</v>
       </c>
       <c r="AF11" t="n">
-        <v>28.2531997874597</v>
+        <v>35.43477942541598</v>
       </c>
       <c r="AG11" t="n">
-        <v>36.94432051824447</v>
+        <v>11.16687773720453</v>
       </c>
       <c r="AH11" t="n">
-        <v>13.96598956177769</v>
+        <v>93.71756202838823</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>69.65645594908293</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23.14785819728414</v>
+        <v>23.92928338685076</v>
       </c>
       <c r="AK11" t="n">
-        <v>46.25509758725592</v>
+        <v>102.325332043483</v>
       </c>
       <c r="AL11" t="n">
-        <v>26.33238053212618</v>
+        <v>40.77708064611785</v>
       </c>
       <c r="AM11" t="n">
-        <v>7.124886490578378</v>
+        <v>2.788661387674608</v>
       </c>
       <c r="AN11" t="n">
-        <v>34.97607369442044</v>
+        <v>16.0303392768469</v>
       </c>
       <c r="AO11" t="n">
-        <v>30.29934055952982</v>
+        <v>21.94704845275153</v>
       </c>
       <c r="AP11" t="n">
-        <v>26.14358600082975</v>
+        <v>17.16325315015905</v>
       </c>
       <c r="AQ11" t="n">
-        <v>40.50773884640419</v>
+        <v>21.73802299186436</v>
       </c>
       <c r="AR11" t="n">
-        <v>18.78356596371595</v>
+        <v>23.31105145146858</v>
       </c>
       <c r="AS11" t="n">
-        <v>11.47316833555838</v>
+        <v>24.63619427324288</v>
       </c>
       <c r="AT11" t="n">
-        <v>22.93343924216517</v>
+        <v>30.06878235453128</v>
       </c>
       <c r="AU11" t="n">
-        <v>17.21431020762788</v>
+        <v>22.02150114932962</v>
       </c>
       <c r="AV11" t="n">
-        <v>20.05107681968755</v>
+        <v>47.21016454875505</v>
       </c>
       <c r="AW11" t="n">
-        <v>18.21619816781147</v>
+        <v>4.981336251095576</v>
       </c>
       <c r="AX11" t="n">
-        <v>6.249326774068444</v>
+        <v>16.17952696089127</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>2.294478890401245</v>
+        <v>2.521534955681514</v>
       </c>
       <c r="D12" t="n">
-        <v>8.510440049247388</v>
+        <v>1.766662010061304</v>
       </c>
       <c r="E12" t="n">
-        <v>1.916789449867477</v>
+        <v>2.292997869415113</v>
       </c>
       <c r="F12" t="n">
-        <v>6.170226334739912</v>
+        <v>7.595127137686204</v>
       </c>
       <c r="G12" t="n">
-        <v>4.615655004123607</v>
+        <v>0.7443238967144733</v>
       </c>
       <c r="H12" t="n">
-        <v>4.816098725692564</v>
+        <v>0.8799071153110286</v>
       </c>
       <c r="I12" t="n">
-        <v>11.705648857713</v>
+        <v>9.526489880966549</v>
       </c>
       <c r="J12" t="n">
-        <v>73.63813021884421</v>
+        <v>19.83746285675105</v>
       </c>
       <c r="K12" t="n">
-        <v>6.19580040068688</v>
+        <v>17.25451010246644</v>
       </c>
       <c r="L12" t="n">
-        <v>87.41237396662922</v>
+        <v>48.48057672820117</v>
       </c>
       <c r="M12" t="n">
-        <v>28.14753123320241</v>
+        <v>25.74397183712446</v>
       </c>
       <c r="N12" t="n">
-        <v>14.162148</v>
+        <v>44.51979281100915</v>
       </c>
       <c r="O12" t="n">
-        <v>28.55587390115306</v>
+        <v>45.15749903825166</v>
       </c>
       <c r="P12" t="n">
-        <v>38.15286598804837</v>
+        <v>12.3331205649631</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.48229164442419</v>
+        <v>29.2252871047832</v>
       </c>
       <c r="R12" t="n">
-        <v>15.89861641168726</v>
+        <v>19.78400995982961</v>
       </c>
       <c r="S12" t="n">
-        <v>11.1848296611784</v>
+        <v>11.61421604043917</v>
       </c>
       <c r="T12" t="n">
-        <v>25.15</v>
+        <v>37.39944168527073</v>
       </c>
       <c r="U12" t="n">
-        <v>11.40932880552927</v>
+        <v>71.42227275808881</v>
       </c>
       <c r="V12" t="n">
-        <v>17.48259874558246</v>
+        <v>26.85574658414224</v>
       </c>
       <c r="W12" t="n">
-        <v>51.36428571428572</v>
+        <v>22.08691373045361</v>
       </c>
       <c r="X12" t="n">
-        <v>20.5949458755735</v>
+        <v>21.57973990154847</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.05080651841219</v>
+        <v>12.42674329863215</v>
       </c>
       <c r="Z12" t="n">
-        <v>32.67773435115949</v>
+        <v>15.89891251698934</v>
       </c>
       <c r="AA12" t="n">
-        <v>25.41121855574195</v>
+        <v>10.45973269599901</v>
       </c>
       <c r="AB12" t="n">
-        <v>88.60983050308118</v>
+        <v>17.62529713930571</v>
       </c>
       <c r="AC12" t="n">
-        <v>20.738725</v>
+        <v>18.12354627037391</v>
       </c>
       <c r="AD12" t="n">
-        <v>16.88354775822607</v>
+        <v>20.5582771964002</v>
       </c>
       <c r="AE12" t="n">
-        <v>17.89961567992946</v>
+        <v>13.30347261289285</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.880549223256384</v>
+        <v>29.00962557147448</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.82668649555539</v>
+        <v>25.73104431159081</v>
       </c>
       <c r="AH12" t="n">
-        <v>10.26502066011358</v>
+        <v>17.41137728491577</v>
       </c>
       <c r="AI12" t="n">
-        <v>8.489474688575626</v>
+        <v>11.06312982056626</v>
       </c>
       <c r="AJ12" t="n">
-        <v>18.47328255964707</v>
+        <v>3.701887428558134</v>
       </c>
       <c r="AK12" t="n">
-        <v>4.761822167487287</v>
+        <v>17.23595896868303</v>
       </c>
       <c r="AL12" t="n">
-        <v>2.387088877539254</v>
+        <v>2.091133173266291</v>
       </c>
       <c r="AM12" t="n">
-        <v>6.865427960901715</v>
+        <v>3.960873847195647</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.759043852053522</v>
+        <v>3.050266023264336</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.59782326157023</v>
+        <v>1.012055175269612</v>
       </c>
       <c r="AP12" t="n">
-        <v>7.039388074886456</v>
+        <v>2.08277787403556</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.1</v>
+        <v>2.485672962401308</v>
       </c>
       <c r="AR12" t="n">
-        <v>11.85660972961754</v>
+        <v>5.84746653911145</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.724410664330593</v>
+        <v>2.096293737462232</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.391339447627787</v>
+        <v>2.4332201543687</v>
       </c>
       <c r="AU12" t="n">
-        <v>4.431905664506354</v>
+        <v>0.4304278921736519</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.4734966569776792</v>
+        <v>0.4387815596055145</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.8083466218028429</v>
+        <v>0.1729333007337931</v>
       </c>
       <c r="AX12" t="n">
-        <v>1.469731321432719</v>
+        <v>0.7182909630803418</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>6.21</v>
+        <v>2.641493478266114</v>
       </c>
       <c r="D13" t="n">
-        <v>13.69</v>
+        <v>17.63558270633755</v>
       </c>
       <c r="E13" t="n">
-        <v>3.55</v>
+        <v>19.86377461533851</v>
       </c>
       <c r="F13" t="n">
-        <v>76.56</v>
+        <v>14.09902919107563</v>
       </c>
       <c r="G13" t="n">
-        <v>26.35</v>
+        <v>2.010474437757717</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>58.49691296669745</v>
       </c>
       <c r="I13" t="n">
-        <v>65.59</v>
+        <v>9.558616030090112</v>
       </c>
       <c r="J13" t="n">
-        <v>22.42</v>
+        <v>2.377840286807146</v>
       </c>
       <c r="K13" t="n">
-        <v>32.07</v>
+        <v>26.8764105085862</v>
       </c>
       <c r="L13" t="n">
-        <v>9.029588299999995</v>
+        <v>80.99584832807648</v>
       </c>
       <c r="M13" t="n">
-        <v>50.3</v>
+        <v>30.92246359069645</v>
       </c>
       <c r="N13" t="n">
-        <v>47.37</v>
+        <v>3.0302835826118</v>
       </c>
       <c r="O13" t="n">
-        <v>42.87</v>
+        <v>86.56818480235785</v>
       </c>
       <c r="P13" t="n">
-        <v>42.87</v>
+        <v>6.397944654809958</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.87</v>
+        <v>11.94243614735545</v>
       </c>
       <c r="R13" t="n">
-        <v>81.89</v>
+        <v>105.2135157245206</v>
       </c>
       <c r="S13" t="n">
-        <v>7.738136715274744</v>
+        <v>7.985612059404529</v>
       </c>
       <c r="T13" t="n">
-        <v>25.42</v>
+        <v>28.437459893376</v>
       </c>
       <c r="U13" t="n">
-        <v>32.13</v>
+        <v>15.5611245154618</v>
       </c>
       <c r="V13" t="n">
-        <v>40.97</v>
+        <v>8.237073505171912</v>
       </c>
       <c r="W13" t="n">
-        <v>35.47</v>
+        <v>13.93920470531489</v>
       </c>
       <c r="X13" t="n">
-        <v>35.47</v>
+        <v>15.92701874221177</v>
       </c>
       <c r="Y13" t="n">
-        <v>1</v>
+        <v>8.646807188137753</v>
       </c>
       <c r="Z13" t="n">
-        <v>39.22</v>
+        <v>24.14298472290992</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.68</v>
+        <v>4.375566715936051</v>
       </c>
       <c r="AB13" t="n">
-        <v>2.74</v>
+        <v>6.115843567225554</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.74</v>
+        <v>11.46091946914015</v>
       </c>
       <c r="AD13" t="n">
-        <v>5.2</v>
+        <v>9.453935867210339</v>
       </c>
       <c r="AE13" t="n">
-        <v>2.65899310985645</v>
+        <v>20.16747099919336</v>
       </c>
       <c r="AF13" t="n">
-        <v>33.03</v>
+        <v>26.5831732757466</v>
       </c>
       <c r="AG13" t="n">
-        <v>4.73</v>
+        <v>5.283531505483205</v>
       </c>
       <c r="AH13" t="n">
-        <v>3.813403155500001</v>
+        <v>1.734400743303206</v>
       </c>
       <c r="AI13" t="n">
-        <v>2.9762817101295</v>
+        <v>0.7504721342190617</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.1</v>
+        <v>0.5865080727983645</v>
       </c>
       <c r="AK13" t="n">
-        <v>3.19</v>
+        <v>0.9802907181602828</v>
       </c>
       <c r="AL13" t="n">
-        <v>9.94</v>
+        <v>0.6453241210894956</v>
       </c>
       <c r="AM13" t="n">
-        <v>16.83</v>
+        <v>5.040368751993745</v>
       </c>
       <c r="AN13" t="n">
-        <v>8.720000000000001</v>
+        <v>0.6116626588432403</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.109189189189189</v>
+        <v>4.174460171608547</v>
       </c>
       <c r="AP13" t="n">
-        <v>1</v>
+        <v>1.096703249896646</v>
       </c>
       <c r="AQ13" t="n">
-        <v>14.22</v>
+        <v>1.287945138320188</v>
       </c>
       <c r="AR13" t="n">
-        <v>6.61</v>
+        <v>10.53574950572564</v>
       </c>
       <c r="AS13" t="n">
-        <v>10.71</v>
+        <v>7.131468870034333</v>
       </c>
       <c r="AT13" t="n">
-        <v>6.03</v>
+        <v>7.917988195962637</v>
       </c>
       <c r="AU13" t="n">
-        <v>3.68</v>
+        <v>1.027343115866583</v>
       </c>
       <c r="AV13" t="n">
-        <v>1.93</v>
+        <v>8.267420097840537</v>
       </c>
       <c r="AW13" t="n">
-        <v>6.28</v>
+        <v>8.238411756650908</v>
       </c>
       <c r="AX13" t="n">
-        <v>1</v>
+        <v>2.842073130718741</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>9.990813524671047</v>
+        <v>25.356834194264</v>
       </c>
       <c r="D14" t="n">
-        <v>17.59055078137465</v>
+        <v>17.45736124900597</v>
       </c>
       <c r="E14" t="n">
-        <v>119.3942041882154</v>
+        <v>29.92813583800228</v>
       </c>
       <c r="F14" t="n">
-        <v>19.31302276737841</v>
+        <v>26.29334551906062</v>
       </c>
       <c r="G14" t="n">
-        <v>28.62806443888741</v>
+        <v>20.21622588413767</v>
       </c>
       <c r="H14" t="n">
-        <v>18.18488537040291</v>
+        <v>12.87045561519435</v>
       </c>
       <c r="I14" t="n">
-        <v>17.79239309998971</v>
+        <v>39.69465909943285</v>
       </c>
       <c r="J14" t="n">
-        <v>17.53063217788216</v>
+        <v>7.659266931327437</v>
       </c>
       <c r="K14" t="n">
-        <v>80.53729444344096</v>
+        <v>42.5866773130846</v>
       </c>
       <c r="L14" t="n">
-        <v>38.38284298708842</v>
+        <v>30.84989813408308</v>
       </c>
       <c r="M14" t="n">
-        <v>51.44302349860845</v>
+        <v>80.25848742354498</v>
       </c>
       <c r="N14" t="n">
-        <v>270.7777233770967</v>
+        <v>51.02928281169443</v>
       </c>
       <c r="O14" t="n">
-        <v>46.98838476913189</v>
+        <v>106.3281220252371</v>
       </c>
       <c r="P14" t="n">
-        <v>90.75910737771449</v>
+        <v>48.25504835271622</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38366556650574</v>
+        <v>31.68095125882783</v>
       </c>
       <c r="R14" t="n">
-        <v>42.40795137499747</v>
+        <v>32.36064934558711</v>
       </c>
       <c r="S14" t="n">
-        <v>32.41285640326029</v>
+        <v>82.24931221161866</v>
       </c>
       <c r="T14" t="n">
-        <v>53.8354280719986</v>
+        <v>211.7754646883881</v>
       </c>
       <c r="U14" t="n">
-        <v>31.18007169452973</v>
+        <v>87.64275928552691</v>
       </c>
       <c r="V14" t="n">
-        <v>77.95097910163005</v>
+        <v>102.7360791590148</v>
       </c>
       <c r="W14" t="n">
-        <v>49.40707353185734</v>
+        <v>72.93649050777893</v>
       </c>
       <c r="X14" t="n">
-        <v>42.80821155330595</v>
+        <v>36.96134458729936</v>
       </c>
       <c r="Y14" t="n">
-        <v>40.43204013224678</v>
+        <v>102.2283552825245</v>
       </c>
       <c r="Z14" t="n">
-        <v>85.6584149131385</v>
+        <v>53.08828867050084</v>
       </c>
       <c r="AA14" t="n">
-        <v>58.59980401374591</v>
+        <v>175.2190704079446</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.3578136001761</v>
+        <v>65.22486717181846</v>
       </c>
       <c r="AC14" t="n">
-        <v>116.2918089872967</v>
+        <v>116.825246656445</v>
       </c>
       <c r="AD14" t="n">
-        <v>90.59232748577209</v>
+        <v>46.96454945106856</v>
       </c>
       <c r="AE14" t="n">
-        <v>79.52909343708438</v>
+        <v>108.5881025004321</v>
       </c>
       <c r="AF14" t="n">
-        <v>32.65282007260839</v>
+        <v>76.27519637907942</v>
       </c>
       <c r="AG14" t="n">
-        <v>86.36673306298745</v>
+        <v>110.5051869411369</v>
       </c>
       <c r="AH14" t="n">
-        <v>59.97230603148638</v>
+        <v>57.31466301928041</v>
       </c>
       <c r="AI14" t="n">
-        <v>116.3584659050854</v>
+        <v>52.57196995643417</v>
       </c>
       <c r="AJ14" t="n">
-        <v>52.96804366809911</v>
+        <v>56.58008465659967</v>
       </c>
       <c r="AK14" t="n">
-        <v>35.09270039066865</v>
+        <v>64.13633933928432</v>
       </c>
       <c r="AL14" t="n">
-        <v>36.42124346584898</v>
+        <v>32.05584356311206</v>
       </c>
       <c r="AM14" t="n">
-        <v>59.79295667718966</v>
+        <v>22.46687373043854</v>
       </c>
       <c r="AN14" t="n">
-        <v>48.96500171903978</v>
+        <v>26.27190213208062</v>
       </c>
       <c r="AO14" t="n">
-        <v>22.45956773993862</v>
+        <v>27.76907063628587</v>
       </c>
       <c r="AP14" t="n">
-        <v>25.32314219842482</v>
+        <v>35.84280036930989</v>
       </c>
       <c r="AQ14" t="n">
-        <v>29.217143050851</v>
+        <v>22.82888040692709</v>
       </c>
       <c r="AR14" t="n">
-        <v>21.77810652063188</v>
+        <v>31.52091339875761</v>
       </c>
       <c r="AS14" t="n">
-        <v>31.9198463534938</v>
+        <v>26.77440678625767</v>
       </c>
       <c r="AT14" t="n">
-        <v>77.63060479880605</v>
+        <v>20.58592582736521</v>
       </c>
       <c r="AU14" t="n">
-        <v>26.53620514144054</v>
+        <v>11.16023560757382</v>
       </c>
       <c r="AV14" t="n">
-        <v>23.68311133282289</v>
+        <v>20.61201977506128</v>
       </c>
       <c r="AW14" t="n">
-        <v>22.16309810675807</v>
+        <v>29.29571403029073</v>
       </c>
       <c r="AX14" t="n">
-        <v>16.81319688169222</v>
+        <v>27.15284682545476</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>5.952200828679649</v>
+        <v>0.5857908256465314</v>
       </c>
       <c r="D15" t="n">
-        <v>3.861035282771741</v>
+        <v>20.09805249734275</v>
       </c>
       <c r="E15" t="n">
-        <v>4.401087749552299</v>
+        <v>0.3340513886429199</v>
       </c>
       <c r="F15" t="n">
-        <v>4.799355039668725</v>
+        <v>1.11205147144406</v>
       </c>
       <c r="G15" t="n">
-        <v>4.387381393482813</v>
+        <v>1.09102950897861</v>
       </c>
       <c r="H15" t="n">
-        <v>1.220449262664433</v>
+        <v>0.3597727738288903</v>
       </c>
       <c r="I15" t="n">
-        <v>2.25288390952287</v>
+        <v>5.46622781917267</v>
       </c>
       <c r="J15" t="n">
-        <v>6.415679409890662</v>
+        <v>0.1146492702485979</v>
       </c>
       <c r="K15" t="n">
-        <v>7.160796051074986</v>
+        <v>1.348770545717587</v>
       </c>
       <c r="L15" t="n">
-        <v>4.997815923519107</v>
+        <v>1.499038783229615</v>
       </c>
       <c r="M15" t="n">
-        <v>0.05070022541258466</v>
+        <v>6.055177946482464</v>
       </c>
       <c r="N15" t="n">
-        <v>4.658787236951459</v>
+        <v>0.9899142373615719</v>
       </c>
       <c r="O15" t="n">
-        <v>2.345614074255989</v>
+        <v>2.255520854227718</v>
       </c>
       <c r="P15" t="n">
-        <v>5.141222430962817</v>
+        <v>0.7636463700864058</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.378534051358768</v>
+        <v>5.098821952327524</v>
       </c>
       <c r="R15" t="n">
-        <v>2.285419992272739</v>
+        <v>5.632368683368299</v>
       </c>
       <c r="S15" t="n">
-        <v>3.451174164597331</v>
+        <v>4.256518013502743</v>
       </c>
       <c r="T15" t="n">
-        <v>3.909303741393903</v>
+        <v>7.926504667477236</v>
       </c>
       <c r="U15" t="n">
-        <v>2.921302989108843</v>
+        <v>5.425036718662471</v>
       </c>
       <c r="V15" t="n">
-        <v>3.69865265359998</v>
+        <v>2.751587445255405</v>
       </c>
       <c r="W15" t="n">
-        <v>4.955773145264675</v>
+        <v>1.78285127759257</v>
       </c>
       <c r="X15" t="n">
-        <v>0.6997323264450647</v>
+        <v>11.20535363215457</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.141531693661269</v>
+        <v>2.173863231679388</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.700146936182041</v>
+        <v>11.66916085341932</v>
       </c>
       <c r="AA15" t="n">
-        <v>4.133211135563637</v>
+        <v>3.677853968519693</v>
       </c>
       <c r="AB15" t="n">
-        <v>4.042956242980989</v>
+        <v>5.633836836025778</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.237842447957147</v>
+        <v>5.291895737712307</v>
       </c>
       <c r="AD15" t="n">
-        <v>3.405380357231203</v>
+        <v>10.47872839121117</v>
       </c>
       <c r="AE15" t="n">
-        <v>6.260922734487838</v>
+        <v>5.147829008153322</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.026049155659589</v>
+        <v>8.226584969984136</v>
       </c>
       <c r="AG15" t="n">
-        <v>6.473345852534198</v>
+        <v>4.924663791365726</v>
       </c>
       <c r="AH15" t="n">
-        <v>3.657257285792469</v>
+        <v>4.900596112190423</v>
       </c>
       <c r="AI15" t="n">
-        <v>4.089566610007958</v>
+        <v>7.931880229672745</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3.671269731490906</v>
+        <v>5.502701144872996</v>
       </c>
       <c r="AK15" t="n">
-        <v>5.681340542021342</v>
+        <v>5.441679171334903</v>
       </c>
       <c r="AL15" t="n">
-        <v>2.085256563245041</v>
+        <v>3.317822706110648</v>
       </c>
       <c r="AM15" t="n">
-        <v>4.776832861500198</v>
+        <v>6.722452188215783</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.057852706039793</v>
+        <v>3.081473978001087</v>
       </c>
       <c r="AO15" t="n">
-        <v>5.708220635492826</v>
+        <v>4.946495662665942</v>
       </c>
       <c r="AP15" t="n">
-        <v>4.279013690977038</v>
+        <v>4.077938807683411</v>
       </c>
       <c r="AQ15" t="n">
-        <v>4.8984984091243</v>
+        <v>2.091753816259537</v>
       </c>
       <c r="AR15" t="n">
-        <v>4.952211850408464</v>
+        <v>6.193278134279764</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.532919413287298</v>
+        <v>6.536307703239514</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.296406335736482</v>
+        <v>2.306379103053029</v>
       </c>
       <c r="AU15" t="n">
-        <v>2.238849790074607</v>
+        <v>1.839002964607308</v>
       </c>
       <c r="AV15" t="n">
-        <v>4.610132130587577</v>
+        <v>13.88489847588182</v>
       </c>
       <c r="AW15" t="n">
-        <v>10.5591836088758</v>
+        <v>1.91089510000452</v>
       </c>
       <c r="AX15" t="n">
-        <v>2.174505488799614</v>
+        <v>0.1722228039956671</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>10.97197929462796</v>
+        <v>5.50852364394617</v>
       </c>
       <c r="D16" t="n">
-        <v>8.691988742635022</v>
+        <v>16.54838367469597</v>
       </c>
       <c r="E16" t="n">
-        <v>11.52187756005757</v>
+        <v>12.21340046662981</v>
       </c>
       <c r="F16" t="n">
-        <v>75.15101542782826</v>
+        <v>18.77044579632955</v>
       </c>
       <c r="G16" t="n">
-        <v>15.74428420737594</v>
+        <v>19.83030791602264</v>
       </c>
       <c r="H16" t="n">
-        <v>151.7580652686662</v>
+        <v>15.69714997741057</v>
       </c>
       <c r="I16" t="n">
-        <v>35.44055541116379</v>
+        <v>28.55337283490338</v>
       </c>
       <c r="J16" t="n">
-        <v>4.207158623206526</v>
+        <v>31.90850691660043</v>
       </c>
       <c r="K16" t="n">
-        <v>98.55821252320368</v>
+        <v>53.24771602171</v>
       </c>
       <c r="L16" t="n">
-        <v>74.09335544910522</v>
+        <v>23.58390177570845</v>
       </c>
       <c r="M16" t="n">
-        <v>71.7290770798834</v>
+        <v>40.28543640920283</v>
       </c>
       <c r="N16" t="n">
-        <v>33.2375504610434</v>
+        <v>26.3997745738002</v>
       </c>
       <c r="O16" t="n">
-        <v>127.8943950096057</v>
+        <v>93.69014898682403</v>
       </c>
       <c r="P16" t="n">
-        <v>91.35700523693535</v>
+        <v>33.75474918877423</v>
       </c>
       <c r="Q16" t="n">
-        <v>154.1450335640916</v>
+        <v>64.69607010329509</v>
       </c>
       <c r="R16" t="n">
-        <v>50.05469208358146</v>
+        <v>89.22321057253764</v>
       </c>
       <c r="S16" t="n">
-        <v>52.14820640048329</v>
+        <v>74.15320282146763</v>
       </c>
       <c r="T16" t="n">
-        <v>38.13898301082941</v>
+        <v>22.06907359134231</v>
       </c>
       <c r="U16" t="n">
-        <v>47.28717234666685</v>
+        <v>78.58943573624978</v>
       </c>
       <c r="V16" t="n">
-        <v>98.38448589152361</v>
+        <v>63.80051432228868</v>
       </c>
       <c r="W16" t="n">
-        <v>84.7824286592457</v>
+        <v>64.15163752385679</v>
       </c>
       <c r="X16" t="n">
-        <v>45.69721055052233</v>
+        <v>122.0072726638675</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.88748442599686</v>
+        <v>60.11333755746275</v>
       </c>
       <c r="Z16" t="n">
-        <v>63.38809613870798</v>
+        <v>81.01366095265588</v>
       </c>
       <c r="AA16" t="n">
-        <v>59.88600722128431</v>
+        <v>81.61619566974309</v>
       </c>
       <c r="AB16" t="n">
-        <v>101.5364337685792</v>
+        <v>54.55117969053313</v>
       </c>
       <c r="AC16" t="n">
-        <v>26.24437200263298</v>
+        <v>64.25833383967833</v>
       </c>
       <c r="AD16" t="n">
-        <v>83.84857134090939</v>
+        <v>54.46722721435933</v>
       </c>
       <c r="AE16" t="n">
-        <v>96.40713997800165</v>
+        <v>81.23759259875116</v>
       </c>
       <c r="AF16" t="n">
-        <v>96.67385331650358</v>
+        <v>82.23480943621668</v>
       </c>
       <c r="AG16" t="n">
-        <v>82.31994723011337</v>
+        <v>67.7138219961947</v>
       </c>
       <c r="AH16" t="n">
-        <v>53.00572767252479</v>
+        <v>78.15051638163116</v>
       </c>
       <c r="AI16" t="n">
-        <v>82.18146477827403</v>
+        <v>69.88547294100128</v>
       </c>
       <c r="AJ16" t="n">
-        <v>22.85718267023953</v>
+        <v>34.51781951385008</v>
       </c>
       <c r="AK16" t="n">
-        <v>86.48784130321579</v>
+        <v>34.97125222288817</v>
       </c>
       <c r="AL16" t="n">
-        <v>82.12697636511818</v>
+        <v>35.44854732959172</v>
       </c>
       <c r="AM16" t="n">
-        <v>54.53657581563161</v>
+        <v>20.63264783535005</v>
       </c>
       <c r="AN16" t="n">
-        <v>17.64150189272128</v>
+        <v>26.90662979285149</v>
       </c>
       <c r="AO16" t="n">
-        <v>30.63161400050921</v>
+        <v>26.2368392703067</v>
       </c>
       <c r="AP16" t="n">
-        <v>15.4206906710311</v>
+        <v>22.11762913420649</v>
       </c>
       <c r="AQ16" t="n">
-        <v>14.29582335729626</v>
+        <v>9.047060001169976</v>
       </c>
       <c r="AR16" t="n">
-        <v>9.038048018406673</v>
+        <v>11.17740614898266</v>
       </c>
       <c r="AS16" t="n">
-        <v>11.66973733220588</v>
+        <v>23.73582170005327</v>
       </c>
       <c r="AT16" t="n">
-        <v>6.726036250652009</v>
+        <v>12.86728762600593</v>
       </c>
       <c r="AU16" t="n">
-        <v>10.6270086254892</v>
+        <v>15.16794510794739</v>
       </c>
       <c r="AV16" t="n">
-        <v>8.430535891063446</v>
+        <v>15.6191251823526</v>
       </c>
       <c r="AW16" t="n">
-        <v>11.51502114369668</v>
+        <v>7.723675990464203</v>
       </c>
       <c r="AX16" t="n">
-        <v>26.68689706507869</v>
+        <v>5.645968851349882</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>27.59696348652982</v>
+        <v>5.649031036050663</v>
       </c>
       <c r="D17" t="n">
-        <v>22.57106780357692</v>
+        <v>9.756441262519857</v>
       </c>
       <c r="E17" t="n">
-        <v>4.77356899203355</v>
+        <v>27.00485386457113</v>
       </c>
       <c r="F17" t="n">
-        <v>22.0297044370524</v>
+        <v>5.610130743352546</v>
       </c>
       <c r="G17" t="n">
-        <v>3.409168724541313</v>
+        <v>2.179491115443823</v>
       </c>
       <c r="H17" t="n">
-        <v>5.856260640729696</v>
+        <v>10.86731832422405</v>
       </c>
       <c r="I17" t="n">
-        <v>27.17710379592569</v>
+        <v>9.806396013207227</v>
       </c>
       <c r="J17" t="n">
-        <v>30.45907638552143</v>
+        <v>6.842921396844019</v>
       </c>
       <c r="K17" t="n">
-        <v>251.4772296046651</v>
+        <v>72.44954568956709</v>
       </c>
       <c r="L17" t="n">
-        <v>130.1875954203446</v>
+        <v>39.42230978874552</v>
       </c>
       <c r="M17" t="n">
-        <v>126.7681718332455</v>
+        <v>137.2741336542656</v>
       </c>
       <c r="N17" t="n">
-        <v>77.09366828129512</v>
+        <v>34.11470456268582</v>
       </c>
       <c r="O17" t="n">
-        <v>18.18769407552113</v>
+        <v>39.80071102995541</v>
       </c>
       <c r="P17" t="n">
-        <v>26.84257773810269</v>
+        <v>64.34782762099186</v>
       </c>
       <c r="Q17" t="n">
-        <v>61.252650844117</v>
+        <v>88.04505412233453</v>
       </c>
       <c r="R17" t="n">
-        <v>198.2431116109733</v>
+        <v>90.42662019388861</v>
       </c>
       <c r="S17" t="n">
-        <v>45.54442530221696</v>
+        <v>136.5137465868795</v>
       </c>
       <c r="T17" t="n">
-        <v>82.92106351888935</v>
+        <v>6.734442969898537</v>
       </c>
       <c r="U17" t="n">
-        <v>47.66701368294945</v>
+        <v>64.64139064497252</v>
       </c>
       <c r="V17" t="n">
-        <v>112.0064811468264</v>
+        <v>14.89126844857246</v>
       </c>
       <c r="W17" t="n">
-        <v>25.40920165852861</v>
+        <v>61.93947798938051</v>
       </c>
       <c r="X17" t="n">
-        <v>69.63977496353831</v>
+        <v>75.66360680235444</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>43.59855897947345</v>
       </c>
       <c r="Z17" t="n">
-        <v>48.41997193992771</v>
+        <v>89.85144334414218</v>
       </c>
       <c r="AA17" t="n">
-        <v>47.43540979353997</v>
+        <v>10.27611974582462</v>
       </c>
       <c r="AB17" t="n">
-        <v>17.17648612475866</v>
+        <v>29.78187512223636</v>
       </c>
       <c r="AC17" t="n">
-        <v>36.35698977861867</v>
+        <v>9.400711953498199</v>
       </c>
       <c r="AD17" t="n">
-        <v>34.61467500751221</v>
+        <v>14.68159661814149</v>
       </c>
       <c r="AE17" t="n">
-        <v>60.00225959463196</v>
+        <v>18.11325150298161</v>
       </c>
       <c r="AF17" t="n">
-        <v>13.18705234500246</v>
+        <v>19.36274633778954</v>
       </c>
       <c r="AG17" t="n">
-        <v>18.54350939744013</v>
+        <v>15.49164710668089</v>
       </c>
       <c r="AH17" t="n">
-        <v>21.00991911887192</v>
+        <v>41.6218349663621</v>
       </c>
       <c r="AI17" t="n">
-        <v>11.59246226075556</v>
+        <v>132.2248947965286</v>
       </c>
       <c r="AJ17" t="n">
-        <v>28.78262521628544</v>
+        <v>4.833802456403363</v>
       </c>
       <c r="AK17" t="n">
-        <v>23.30133720322988</v>
+        <v>56.99000333213776</v>
       </c>
       <c r="AL17" t="n">
-        <v>53.87048313656506</v>
+        <v>48.15853741234542</v>
       </c>
       <c r="AM17" t="n">
-        <v>24.42159214361886</v>
+        <v>62.72444563258872</v>
       </c>
       <c r="AN17" t="n">
-        <v>26.03021799998853</v>
+        <v>17.57692051552776</v>
       </c>
       <c r="AO17" t="n">
-        <v>21.44021436363214</v>
+        <v>15.36049898359914</v>
       </c>
       <c r="AP17" t="n">
-        <v>20.68736407300337</v>
+        <v>19.17448509504696</v>
       </c>
       <c r="AQ17" t="n">
-        <v>34.65571358285521</v>
+        <v>3.21514927451544</v>
       </c>
       <c r="AR17" t="n">
-        <v>28.54380231860171</v>
+        <v>13.91030598133124</v>
       </c>
       <c r="AS17" t="n">
-        <v>25.29019755209829</v>
+        <v>24.90842062938403</v>
       </c>
       <c r="AT17" t="n">
-        <v>22.57742083880087</v>
+        <v>7.5789441464481</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>40.91453802303307</v>
       </c>
       <c r="AV17" t="n">
-        <v>26.92041241377471</v>
+        <v>13.05962067856781</v>
       </c>
       <c r="AW17" t="n">
-        <v>11.86691144301979</v>
+        <v>8.984488423584166</v>
       </c>
       <c r="AX17" t="n">
-        <v>28.01949124658043</v>
+        <v>27.05040247814058</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>1.865004036669605</v>
+        <v>2.319960774308235</v>
       </c>
       <c r="D18" t="n">
-        <v>4.726792092920956</v>
+        <v>1.372806911055709</v>
       </c>
       <c r="E18" t="n">
-        <v>3.262416640210022</v>
+        <v>1.383994907871909</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9621129498292617</v>
+        <v>7.936365590790777</v>
       </c>
       <c r="G18" t="n">
-        <v>31.54012997054902</v>
+        <v>10.67253528012038</v>
       </c>
       <c r="H18" t="n">
-        <v>2.774703198556439</v>
+        <v>7.113149649550431</v>
       </c>
       <c r="I18" t="n">
-        <v>11.705648857713</v>
+        <v>103.4068476154519</v>
       </c>
       <c r="J18" t="n">
-        <v>51.6096963942043</v>
+        <v>3.828680861032897</v>
       </c>
       <c r="K18" t="n">
-        <v>16.05314436323822</v>
+        <v>14.84932260742717</v>
       </c>
       <c r="L18" t="n">
-        <v>18.23721484531161</v>
+        <v>27.76596135263956</v>
       </c>
       <c r="M18" t="n">
-        <v>15.65361368585207</v>
+        <v>13.08042081250749</v>
       </c>
       <c r="N18" t="n">
-        <v>46.98914754206576</v>
+        <v>24.36950640393867</v>
       </c>
       <c r="O18" t="n">
-        <v>13.90343040439625</v>
+        <v>40.51424000916109</v>
       </c>
       <c r="P18" t="n">
-        <v>16.16923135571307</v>
+        <v>44.4073120092713</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.53517971453317</v>
+        <v>11.127128606344</v>
       </c>
       <c r="R18" t="n">
-        <v>8.485083894466539</v>
+        <v>23.85478325051638</v>
       </c>
       <c r="S18" t="n">
-        <v>27.25004096299372</v>
+        <v>11.57288765536093</v>
       </c>
       <c r="T18" t="n">
-        <v>10.18780960813988</v>
+        <v>16.58511591653649</v>
       </c>
       <c r="U18" t="n">
-        <v>17.82696823120779</v>
+        <v>13.92797570601496</v>
       </c>
       <c r="V18" t="n">
-        <v>30.88176178877798</v>
+        <v>23.17323483569989</v>
       </c>
       <c r="W18" t="n">
-        <v>24.71525735456186</v>
+        <v>11.40469740214238</v>
       </c>
       <c r="X18" t="n">
-        <v>18.33960233002077</v>
+        <v>39.11382919192884</v>
       </c>
       <c r="Y18" t="n">
-        <v>25.38907409538388</v>
+        <v>48.90018366965264</v>
       </c>
       <c r="Z18" t="n">
-        <v>26.87437543763428</v>
+        <v>23.0722487277635</v>
       </c>
       <c r="AA18" t="n">
-        <v>15.02698455783377</v>
+        <v>11.55750495613209</v>
       </c>
       <c r="AB18" t="n">
-        <v>36.94344207817277</v>
+        <v>20.91909218210234</v>
       </c>
       <c r="AC18" t="n">
-        <v>10.6069550528222</v>
+        <v>23.62606135076582</v>
       </c>
       <c r="AD18" t="n">
-        <v>37.95723750089798</v>
+        <v>15.84179677882437</v>
       </c>
       <c r="AE18" t="n">
-        <v>38.37872274301418</v>
+        <v>15.72839405156817</v>
       </c>
       <c r="AF18" t="n">
-        <v>13.75513394896308</v>
+        <v>11.6832642973528</v>
       </c>
       <c r="AG18" t="n">
-        <v>19.65847143964344</v>
+        <v>31.78657029606006</v>
       </c>
       <c r="AH18" t="n">
-        <v>10.62559171739422</v>
+        <v>11.43437855471135</v>
       </c>
       <c r="AI18" t="n">
-        <v>7.689027537146248</v>
+        <v>13.24536506831144</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7.945171032982646</v>
+        <v>11.55561953118286</v>
       </c>
       <c r="AK18" t="n">
-        <v>2.330166635031782</v>
+        <v>2.190326634380244</v>
       </c>
       <c r="AL18" t="n">
-        <v>2.025633037260802</v>
+        <v>6.132952911009521</v>
       </c>
       <c r="AM18" t="n">
-        <v>2.34</v>
+        <v>5.651960086777098</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.33625</v>
+        <v>1.214126200431902</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.6332969373814465</v>
+        <v>3.247250918914857</v>
       </c>
       <c r="AP18" t="n">
-        <v>3.236354673086717</v>
+        <v>4.741857126239077</v>
       </c>
       <c r="AQ18" t="n">
-        <v>5.28584884713251</v>
+        <v>5.145487329217191</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.684624087735866</v>
+        <v>7.66258438510186</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.017045350115196</v>
+        <v>1.098398167802874</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.985442655565639</v>
+        <v>1.472740723610511</v>
       </c>
       <c r="AU18" t="n">
-        <v>1.409177142857143</v>
+        <v>1.246665829652882</v>
       </c>
       <c r="AV18" t="n">
-        <v>4.426696571251783</v>
+        <v>1.422484027327276</v>
       </c>
       <c r="AW18" t="n">
-        <v>1.539786920994732</v>
+        <v>59.11087241812802</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.7919207169120467</v>
+        <v>2.140967688676943</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>14.88</v>
+        <v>0.7749496878882989</v>
       </c>
       <c r="D19" t="n">
-        <v>13.17</v>
+        <v>1.62800282526913</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>5.937287836745078</v>
       </c>
       <c r="F19" t="n">
-        <v>8.77</v>
+        <v>23.17572691655762</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>2.827027906010986</v>
       </c>
       <c r="H19" t="n">
-        <v>24.23</v>
+        <v>5.929807724735955</v>
       </c>
       <c r="I19" t="n">
-        <v>15.73</v>
+        <v>4.667481678489934</v>
       </c>
       <c r="J19" t="n">
-        <v>28.32</v>
+        <v>3.389227546069606</v>
       </c>
       <c r="K19" t="n">
-        <v>12.53</v>
+        <v>384.7357361912466</v>
       </c>
       <c r="L19" t="n">
-        <v>57.6</v>
+        <v>26.87279579539576</v>
       </c>
       <c r="M19" t="n">
-        <v>2.585714285714285</v>
+        <v>134.7616811579821</v>
       </c>
       <c r="N19" t="n">
-        <v>32.47</v>
+        <v>33.16397178762916</v>
       </c>
       <c r="O19" t="n">
-        <v>105.42</v>
+        <v>97.27803543632285</v>
       </c>
       <c r="P19" t="n">
-        <v>27.74</v>
+        <v>10.75548446312281</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.16</v>
+        <v>134.1410679587796</v>
       </c>
       <c r="R19" t="n">
-        <v>24.35</v>
+        <v>20.43191841457007</v>
       </c>
       <c r="S19" t="n">
-        <v>37.39</v>
+        <v>185.7500912839612</v>
       </c>
       <c r="T19" t="n">
-        <v>22.95</v>
+        <v>4.370200804423353</v>
       </c>
       <c r="U19" t="n">
-        <v>9.66</v>
+        <v>1.974093494790544</v>
       </c>
       <c r="V19" t="n">
-        <v>40.1</v>
+        <v>25.26193796082156</v>
       </c>
       <c r="W19" t="n">
-        <v>37.13</v>
+        <v>48.76828072437818</v>
       </c>
       <c r="X19" t="n">
-        <v>3.67</v>
+        <v>13.62578117558177</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.5</v>
+        <v>9.691359577266283</v>
       </c>
       <c r="Z19" t="n">
-        <v>24.6</v>
+        <v>17.45441927745224</v>
       </c>
       <c r="AA19" t="n">
-        <v>35.87</v>
+        <v>8.717286476507249</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.94</v>
+        <v>31.08318473180415</v>
       </c>
       <c r="AC19" t="n">
-        <v>20.61</v>
+        <v>19.82485719484526</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>6.142309249893942</v>
       </c>
       <c r="AE19" t="n">
-        <v>13.94</v>
+        <v>8.627978702816966</v>
       </c>
       <c r="AF19" t="n">
-        <v>21.64</v>
+        <v>13.30182334248185</v>
       </c>
       <c r="AG19" t="n">
-        <v>6.77</v>
+        <v>4.408089928803852</v>
       </c>
       <c r="AH19" t="n">
-        <v>1</v>
+        <v>17.62874524841409</v>
       </c>
       <c r="AI19" t="n">
-        <v>11.22</v>
+        <v>4.883195445730442</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15.26</v>
+        <v>26.83777454660371</v>
       </c>
       <c r="AK19" t="n">
-        <v>4.36</v>
+        <v>4.268707150074045</v>
       </c>
       <c r="AL19" t="n">
-        <v>3.6</v>
+        <v>8.195021541896361</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.568308431213654</v>
+        <v>4.692373151433674</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.22</v>
+        <v>4.373667650658313</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.5050020016236233</v>
+        <v>2.837809462731573</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.82</v>
+        <v>4.35072352529996</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.52</v>
+        <v>4.549548809332027</v>
       </c>
       <c r="AR19" t="n">
-        <v>3.794101942857143</v>
+        <v>7.060532458736932</v>
       </c>
       <c r="AS19" t="n">
-        <v>10.34</v>
+        <v>3.144152288919277</v>
       </c>
       <c r="AT19" t="n">
-        <v>5.94</v>
+        <v>9.448541131276768</v>
       </c>
       <c r="AU19" t="n">
-        <v>19.64</v>
+        <v>18.19114102260859</v>
       </c>
       <c r="AV19" t="n">
-        <v>3.77759680876609</v>
+        <v>26.94838055780998</v>
       </c>
       <c r="AW19" t="n">
-        <v>8.470000000000001</v>
+        <v>2.170890339095749</v>
       </c>
       <c r="AX19" t="n">
-        <v>4.65</v>
+        <v>3.094437974241697</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>11.63966753163452</v>
+        <v>21.9415387352099</v>
       </c>
       <c r="D20" t="n">
-        <v>17.68024172775895</v>
+        <v>41.04991108487535</v>
       </c>
       <c r="E20" t="n">
-        <v>14.35615897030069</v>
+        <v>14.5344521869839</v>
       </c>
       <c r="F20" t="n">
-        <v>20.16611058749572</v>
+        <v>35.86315379616236</v>
       </c>
       <c r="G20" t="n">
-        <v>27.51998754462917</v>
+        <v>27.18142244628964</v>
       </c>
       <c r="H20" t="n">
-        <v>24.10667848602454</v>
+        <v>71.68351482221789</v>
       </c>
       <c r="I20" t="n">
-        <v>18.32618057544768</v>
+        <v>125.2569317572182</v>
       </c>
       <c r="J20" t="n">
-        <v>11.66148952049373</v>
+        <v>15.83870473646272</v>
       </c>
       <c r="K20" t="n">
-        <v>20.17217747971551</v>
+        <v>38.94857540815368</v>
       </c>
       <c r="L20" t="n">
-        <v>50.37304588262172</v>
+        <v>118.2782077912439</v>
       </c>
       <c r="M20" t="n">
-        <v>68.23602641240196</v>
+        <v>34.00713035979211</v>
       </c>
       <c r="N20" t="n">
-        <v>54.0214539407945</v>
+        <v>51.85642708862405</v>
       </c>
       <c r="O20" t="n">
-        <v>17.26636599726283</v>
+        <v>105.3228436777318</v>
       </c>
       <c r="P20" t="n">
-        <v>54.15966662904486</v>
+        <v>86.80809488796277</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.49172814542955</v>
+        <v>204.1008378695887</v>
       </c>
       <c r="R20" t="n">
-        <v>74.99569487630208</v>
+        <v>42.70651688607549</v>
       </c>
       <c r="S20" t="n">
-        <v>52.71260901254747</v>
+        <v>56.84766882100436</v>
       </c>
       <c r="T20" t="n">
-        <v>30.94716890142417</v>
+        <v>77.07858688688036</v>
       </c>
       <c r="U20" t="n">
-        <v>61.97508578701382</v>
+        <v>167.8417285475526</v>
       </c>
       <c r="V20" t="n">
-        <v>23.44825952318683</v>
+        <v>204.8549221895246</v>
       </c>
       <c r="W20" t="n">
-        <v>66.12378477626663</v>
+        <v>69.14127563993124</v>
       </c>
       <c r="X20" t="n">
-        <v>37.90842475482109</v>
+        <v>55.49566273120247</v>
       </c>
       <c r="Y20" t="n">
-        <v>28.93646799812009</v>
+        <v>45.75738117310455</v>
       </c>
       <c r="Z20" t="n">
-        <v>43.17788366121341</v>
+        <v>82.26811060283899</v>
       </c>
       <c r="AA20" t="n">
-        <v>81.72251988780374</v>
+        <v>137.2657622240335</v>
       </c>
       <c r="AB20" t="n">
-        <v>82.87795876145397</v>
+        <v>90.64665711230754</v>
       </c>
       <c r="AC20" t="n">
-        <v>111.6479818656281</v>
+        <v>75.66968326831471</v>
       </c>
       <c r="AD20" t="n">
-        <v>69.77895937514158</v>
+        <v>48.09498581994995</v>
       </c>
       <c r="AE20" t="n">
-        <v>157.8265597803841</v>
+        <v>182.8679882674359</v>
       </c>
       <c r="AF20" t="n">
-        <v>75.34158371661167</v>
+        <v>49.94339720497086</v>
       </c>
       <c r="AG20" t="n">
-        <v>234.671157366456</v>
+        <v>261.2438732068086</v>
       </c>
       <c r="AH20" t="n">
-        <v>90.55401408899206</v>
+        <v>128.9308084607944</v>
       </c>
       <c r="AI20" t="n">
-        <v>94.87367550894734</v>
+        <v>133.0217723498521</v>
       </c>
       <c r="AJ20" t="n">
-        <v>59.08150496726823</v>
+        <v>129.0871245719477</v>
       </c>
       <c r="AK20" t="n">
-        <v>33.37592207254173</v>
+        <v>26.85085940080218</v>
       </c>
       <c r="AL20" t="n">
-        <v>39.54220356642587</v>
+        <v>71.4236465811381</v>
       </c>
       <c r="AM20" t="n">
-        <v>16.58614107311241</v>
+        <v>23.25334954335762</v>
       </c>
       <c r="AN20" t="n">
-        <v>20.58275535798138</v>
+        <v>46.57324607007371</v>
       </c>
       <c r="AO20" t="n">
-        <v>29.33866877926552</v>
+        <v>45.69170747027695</v>
       </c>
       <c r="AP20" t="n">
-        <v>26.18169146338615</v>
+        <v>44.35209424634541</v>
       </c>
       <c r="AQ20" t="n">
-        <v>19.30560120466558</v>
+        <v>22.76958092621832</v>
       </c>
       <c r="AR20" t="n">
-        <v>26.92310148966179</v>
+        <v>8.426440843664013</v>
       </c>
       <c r="AS20" t="n">
-        <v>21.45694295601637</v>
+        <v>23.72859953635744</v>
       </c>
       <c r="AT20" t="n">
-        <v>37.12385470932094</v>
+        <v>17.29077469112052</v>
       </c>
       <c r="AU20" t="n">
-        <v>18.88090747132541</v>
+        <v>29.08393435083726</v>
       </c>
       <c r="AV20" t="n">
-        <v>21.43894291004523</v>
+        <v>22.32021704170371</v>
       </c>
       <c r="AW20" t="n">
-        <v>14.03716451552038</v>
+        <v>15.97079729400269</v>
       </c>
       <c r="AX20" t="n">
-        <v>11.17355255822896</v>
+        <v>23.41903338813986</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>2.35092496631704</v>
+        <v>8.039993991280689</v>
       </c>
       <c r="D21" t="n">
-        <v>3.308447653429604</v>
+        <v>3.59147560960632</v>
       </c>
       <c r="E21" t="n">
-        <v>4.809828728043565</v>
+        <v>0.1582248292775469</v>
       </c>
       <c r="F21" t="n">
-        <v>4.347482540033368</v>
+        <v>22.78710192046026</v>
       </c>
       <c r="G21" t="n">
-        <v>2.807858807898236</v>
+        <v>0.7424029202105747</v>
       </c>
       <c r="H21" t="n">
-        <v>1.686578560939794</v>
+        <v>2.619601903027405</v>
       </c>
       <c r="I21" t="n">
-        <v>2.980552467288121</v>
+        <v>4.451007032399305</v>
       </c>
       <c r="J21" t="n">
-        <v>14.19445033052978</v>
+        <v>16.73158968062301</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6769734272404707</v>
+        <v>1.385208326431175</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01467948156209232</v>
+        <v>4.222278505682816</v>
       </c>
       <c r="M21" t="n">
-        <v>9.647521559961364</v>
+        <v>1.893446648619016</v>
       </c>
       <c r="N21" t="n">
-        <v>2.055537976318288</v>
+        <v>22.04831732115356</v>
       </c>
       <c r="O21" t="n">
-        <v>2.939520503047314</v>
+        <v>4.515501119264386</v>
       </c>
       <c r="P21" t="n">
-        <v>0.9596620093143544</v>
+        <v>1.551000329840492</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.647547862786634</v>
+        <v>2.601997705021771</v>
       </c>
       <c r="R21" t="n">
-        <v>2.660131929734127</v>
+        <v>11.13939012757917</v>
       </c>
       <c r="S21" t="n">
-        <v>4.927456147248055</v>
+        <v>3.6154474913722</v>
       </c>
       <c r="T21" t="n">
-        <v>7.047095515770787</v>
+        <v>3.573031110831081</v>
       </c>
       <c r="U21" t="n">
-        <v>2.921302989108843</v>
+        <v>6.500780011839346</v>
       </c>
       <c r="V21" t="n">
-        <v>5.292463708852996</v>
+        <v>2.593886150288129</v>
       </c>
       <c r="W21" t="n">
-        <v>3.796886165306078</v>
+        <v>3.391514107952545</v>
       </c>
       <c r="X21" t="n">
-        <v>6.213144005406225</v>
+        <v>6.787332323176181</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.033863333355149</v>
+        <v>5.918467229819729</v>
       </c>
       <c r="Z21" t="n">
-        <v>5.508014663663522</v>
+        <v>9.320606194766667</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.774691943641814</v>
+        <v>3.310103993708622</v>
       </c>
       <c r="AB21" t="n">
-        <v>6.595890835254846</v>
+        <v>6.796919939430436</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.777159373599195</v>
+        <v>6.463039600841668</v>
       </c>
       <c r="AD21" t="n">
-        <v>9.231835837004327</v>
+        <v>7.518966883341266</v>
       </c>
       <c r="AE21" t="n">
-        <v>8.665332664130949</v>
+        <v>5.130298063824054</v>
       </c>
       <c r="AF21" t="n">
-        <v>8.69658921905204</v>
+        <v>4.163596264642024</v>
       </c>
       <c r="AG21" t="n">
-        <v>2.765129775938104</v>
+        <v>4.95236757394499</v>
       </c>
       <c r="AH21" t="n">
-        <v>4.910802223165216</v>
+        <v>6.074937491526148</v>
       </c>
       <c r="AI21" t="n">
-        <v>4.34694049796036</v>
+        <v>3.726287597194538</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3.962559824452486</v>
+        <v>5.975723176299495</v>
       </c>
       <c r="AK21" t="n">
-        <v>2.947085050860919</v>
+        <v>2.887201499547649</v>
       </c>
       <c r="AL21" t="n">
-        <v>5.675158159384069</v>
+        <v>4.693122673262855</v>
       </c>
       <c r="AM21" t="n">
-        <v>3.979258643867905</v>
+        <v>5.921012137608317</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.057906687030159</v>
+        <v>4.21674769526229</v>
       </c>
       <c r="AO21" t="n">
-        <v>4.611861340119505</v>
+        <v>5.488261700685503</v>
       </c>
       <c r="AP21" t="n">
-        <v>3.066272037060867</v>
+        <v>2.869132628619417</v>
       </c>
       <c r="AQ21" t="n">
-        <v>3.262357239231966</v>
+        <v>1.56634911300224</v>
       </c>
       <c r="AR21" t="n">
-        <v>3.184386235233693</v>
+        <v>5.046791293380737</v>
       </c>
       <c r="AS21" t="n">
-        <v>3.126726366838566</v>
+        <v>2.268534074508596</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.328376707592358</v>
+        <v>5.842284312866579</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.02640414446455495</v>
+        <v>2.011839787155473</v>
       </c>
       <c r="AV21" t="n">
-        <v>1.797516891978597</v>
+        <v>15.86558486395695</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.566299581996756</v>
+        <v>35.41617667102229</v>
       </c>
       <c r="AX21" t="n">
-        <v>2.128747866055973</v>
+        <v>4.474511905277618</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>20.64905164682586</v>
+        <v>6.13251053703949</v>
       </c>
       <c r="D22" t="n">
-        <v>30.18995444854723</v>
+        <v>5.966465543534167</v>
       </c>
       <c r="E22" t="n">
-        <v>10.02843518828415</v>
+        <v>10.21208832422106</v>
       </c>
       <c r="F22" t="n">
-        <v>8.715393191447655</v>
+        <v>20.82340005467913</v>
       </c>
       <c r="G22" t="n">
-        <v>99.85811905151421</v>
+        <v>12.78459550823685</v>
       </c>
       <c r="H22" t="n">
-        <v>7.916766235274157</v>
+        <v>6.191332896974793</v>
       </c>
       <c r="I22" t="n">
-        <v>32.76268009368593</v>
+        <v>32.39934627676156</v>
       </c>
       <c r="J22" t="n">
-        <v>10.72121890067502</v>
+        <v>162.6670632445642</v>
       </c>
       <c r="K22" t="n">
-        <v>146.4807927607629</v>
+        <v>10.20864079999068</v>
       </c>
       <c r="L22" t="n">
-        <v>10.63727463076021</v>
+        <v>71.35807288047872</v>
       </c>
       <c r="M22" t="n">
-        <v>131.997659969509</v>
+        <v>68.86647703599053</v>
       </c>
       <c r="N22" t="n">
-        <v>53.24629979696877</v>
+        <v>85.99750572186484</v>
       </c>
       <c r="O22" t="n">
-        <v>125.3720237375178</v>
+        <v>31.84659096365649</v>
       </c>
       <c r="P22" t="n">
-        <v>30.28286629556599</v>
+        <v>41.20654905156218</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.55173987408978</v>
+        <v>60.47555306694765</v>
       </c>
       <c r="R22" t="n">
-        <v>64.79906873875385</v>
+        <v>84.59113146407852</v>
       </c>
       <c r="S22" t="n">
-        <v>92.57992684188255</v>
+        <v>28.91586516439014</v>
       </c>
       <c r="T22" t="n">
-        <v>59.19419153464175</v>
+        <v>28.03011697403718</v>
       </c>
       <c r="U22" t="n">
-        <v>54.48669130276375</v>
+        <v>55.73214583935435</v>
       </c>
       <c r="V22" t="n">
-        <v>31.15724932771885</v>
+        <v>125.9787633833253</v>
       </c>
       <c r="W22" t="n">
-        <v>56.5562057374085</v>
+        <v>59.27486502955978</v>
       </c>
       <c r="X22" t="n">
-        <v>56.08447263589131</v>
+        <v>18.3538145729101</v>
       </c>
       <c r="Y22" t="n">
-        <v>33.60659033763318</v>
+        <v>73.1894011860455</v>
       </c>
       <c r="Z22" t="n">
-        <v>101.8718607733089</v>
+        <v>43.67554464467771</v>
       </c>
       <c r="AA22" t="n">
-        <v>77.44805807079247</v>
+        <v>58.36735620593226</v>
       </c>
       <c r="AB22" t="n">
-        <v>55.22545993939014</v>
+        <v>89.66195522865321</v>
       </c>
       <c r="AC22" t="n">
-        <v>52.55700183375316</v>
+        <v>45.65003778958169</v>
       </c>
       <c r="AD22" t="n">
-        <v>99.49901237558419</v>
+        <v>81.28974391703795</v>
       </c>
       <c r="AE22" t="n">
-        <v>62.56699891356736</v>
+        <v>110.8547926856678</v>
       </c>
       <c r="AF22" t="n">
-        <v>45.47800892317156</v>
+        <v>37.35373551462735</v>
       </c>
       <c r="AG22" t="n">
-        <v>32.95893135435993</v>
+        <v>43.13366449781979</v>
       </c>
       <c r="AH22" t="n">
-        <v>114.8295495165793</v>
+        <v>24.04123066475589</v>
       </c>
       <c r="AI22" t="n">
-        <v>129.1256253221356</v>
+        <v>31.4107951246387</v>
       </c>
       <c r="AJ22" t="n">
-        <v>62.76868508888795</v>
+        <v>90.17185867548025</v>
       </c>
       <c r="AK22" t="n">
-        <v>20.66111304253973</v>
+        <v>12.35188657897052</v>
       </c>
       <c r="AL22" t="n">
-        <v>10.88203846658</v>
+        <v>24.3333982360601</v>
       </c>
       <c r="AM22" t="n">
-        <v>22.24853262669758</v>
+        <v>39.40788789394817</v>
       </c>
       <c r="AN22" t="n">
-        <v>13.47382381649079</v>
+        <v>18.91015150261379</v>
       </c>
       <c r="AO22" t="n">
-        <v>28.96697785168938</v>
+        <v>16.80242600721941</v>
       </c>
       <c r="AP22" t="n">
-        <v>17.01831365769011</v>
+        <v>16.69378789873272</v>
       </c>
       <c r="AQ22" t="n">
-        <v>11.90497444213758</v>
+        <v>6.737257285185438</v>
       </c>
       <c r="AR22" t="n">
-        <v>14.79839318882749</v>
+        <v>16.41889896469521</v>
       </c>
       <c r="AS22" t="n">
-        <v>15.00146874807882</v>
+        <v>14.25056418835358</v>
       </c>
       <c r="AT22" t="n">
-        <v>14.08644393507979</v>
+        <v>7.438145775087605</v>
       </c>
       <c r="AU22" t="n">
-        <v>6.757808607174758</v>
+        <v>22.4940105883578</v>
       </c>
       <c r="AV22" t="n">
-        <v>13.32694484705164</v>
+        <v>8.921637728107992</v>
       </c>
       <c r="AW22" t="n">
-        <v>7.762486900699678</v>
+        <v>8.401390498709215</v>
       </c>
       <c r="AX22" t="n">
-        <v>16.319286637374</v>
+        <v>10.04758564757054</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>22.44892898591376</v>
+        <v>5.913529790617534</v>
       </c>
       <c r="D23" t="n">
-        <v>18.49250031354117</v>
+        <v>13.73586346772255</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>13.86269597533681</v>
       </c>
       <c r="F23" t="n">
-        <v>13.00947964461271</v>
+        <v>13.54575969212716</v>
       </c>
       <c r="G23" t="n">
-        <v>36.63553913068191</v>
+        <v>14.97391820038526</v>
       </c>
       <c r="H23" t="n">
-        <v>50.0828288053673</v>
+        <v>29.95608350732932</v>
       </c>
       <c r="I23" t="n">
-        <v>20.5591417242694</v>
+        <v>114.8098077468612</v>
       </c>
       <c r="J23" t="n">
-        <v>20.3558358872765</v>
+        <v>72.985642290909</v>
       </c>
       <c r="K23" t="n">
-        <v>148.1105330914592</v>
+        <v>31.63321732504187</v>
       </c>
       <c r="L23" t="n">
-        <v>59.04197424023734</v>
+        <v>6.817983043464423</v>
       </c>
       <c r="M23" t="n">
-        <v>18.44215299678819</v>
+        <v>38.89382159919753</v>
       </c>
       <c r="N23" t="n">
-        <v>28.67975350815317</v>
+        <v>16.23003269467016</v>
       </c>
       <c r="O23" t="n">
-        <v>196.346719969172</v>
+        <v>45.26732842274829</v>
       </c>
       <c r="P23" t="n">
-        <v>194.9303433982035</v>
+        <v>10.80069889006377</v>
       </c>
       <c r="Q23" t="n">
-        <v>20.06100782297175</v>
+        <v>29.64401806881148</v>
       </c>
       <c r="R23" t="n">
-        <v>75.89076145375176</v>
+        <v>133.9186431634063</v>
       </c>
       <c r="S23" t="n">
-        <v>65.80443980854758</v>
+        <v>16.88159576504924</v>
       </c>
       <c r="T23" t="n">
-        <v>76.81200906742757</v>
+        <v>177.3277760667173</v>
       </c>
       <c r="U23" t="n">
-        <v>44.14751035330609</v>
+        <v>12.89822074836211</v>
       </c>
       <c r="V23" t="n">
-        <v>55.8671519575596</v>
+        <v>49.1310618904678</v>
       </c>
       <c r="W23" t="n">
-        <v>80.55250764945495</v>
+        <v>80.70378465974967</v>
       </c>
       <c r="X23" t="n">
-        <v>18.67574939973165</v>
+        <v>31.06118185115499</v>
       </c>
       <c r="Y23" t="n">
-        <v>25.14291531039797</v>
+        <v>106.13229422534</v>
       </c>
       <c r="Z23" t="n">
-        <v>25.34077836735726</v>
+        <v>20.38898211176399</v>
       </c>
       <c r="AA23" t="n">
-        <v>38.76571705001382</v>
+        <v>12.18012634059777</v>
       </c>
       <c r="AB23" t="n">
-        <v>37.48084598240622</v>
+        <v>64.77072396879534</v>
       </c>
       <c r="AC23" t="n">
-        <v>14.57559432147935</v>
+        <v>36.00968865270978</v>
       </c>
       <c r="AD23" t="n">
-        <v>10.96643475773722</v>
+        <v>51.50119742708354</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>63.29085646565746</v>
       </c>
       <c r="AF23" t="n">
-        <v>31.1685552174798</v>
+        <v>8.893259463413262</v>
       </c>
       <c r="AG23" t="n">
-        <v>27.80124737451106</v>
+        <v>7.305716013649403</v>
       </c>
       <c r="AH23" t="n">
-        <v>54.9017545178025</v>
+        <v>16.3674253260188</v>
       </c>
       <c r="AI23" t="n">
-        <v>22.08593904350622</v>
+        <v>54.58427557665362</v>
       </c>
       <c r="AJ23" t="n">
-        <v>36.0780379230434</v>
+        <v>13.41579109137571</v>
       </c>
       <c r="AK23" t="n">
-        <v>34.45980698553127</v>
+        <v>31.47213353129005</v>
       </c>
       <c r="AL23" t="n">
-        <v>46.81550137814236</v>
+        <v>3.946055475082412</v>
       </c>
       <c r="AM23" t="n">
-        <v>23.92633970118326</v>
+        <v>6.924175539186465</v>
       </c>
       <c r="AN23" t="n">
-        <v>26.17494543106271</v>
+        <v>17.29545429023499</v>
       </c>
       <c r="AO23" t="n">
-        <v>23.78133948303576</v>
+        <v>25.1774100036763</v>
       </c>
       <c r="AP23" t="n">
-        <v>22.12471783612937</v>
+        <v>24.3225386047584</v>
       </c>
       <c r="AQ23" t="n">
-        <v>23.16990957355863</v>
+        <v>16.51939123155756</v>
       </c>
       <c r="AR23" t="n">
-        <v>22.37232297781815</v>
+        <v>10.92277422356821</v>
       </c>
       <c r="AS23" t="n">
-        <v>26.06984111333598</v>
+        <v>10.87645812695535</v>
       </c>
       <c r="AT23" t="n">
-        <v>35.06578980481877</v>
+        <v>15.75529728359565</v>
       </c>
       <c r="AU23" t="n">
-        <v>14.76684976784284</v>
+        <v>30.18052531575298</v>
       </c>
       <c r="AV23" t="n">
-        <v>24.9673348325385</v>
+        <v>3.624200143055035</v>
       </c>
       <c r="AW23" t="n">
-        <v>33.83106230265686</v>
+        <v>6.77395933780678</v>
       </c>
       <c r="AX23" t="n">
-        <v>0</v>
+        <v>26.56690655735966</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>4.228428854547253</v>
+        <v>3.090560389678416</v>
       </c>
       <c r="D24" t="n">
-        <v>1.144248845915462</v>
+        <v>10.40387871550749</v>
       </c>
       <c r="E24" t="n">
-        <v>15.3838500230841</v>
+        <v>6.924098525681305</v>
       </c>
       <c r="F24" t="n">
-        <v>17.52771411175343</v>
+        <v>3.70480223537767</v>
       </c>
       <c r="G24" t="n">
-        <v>5.476882409583929</v>
+        <v>6.764287717759461</v>
       </c>
       <c r="H24" t="n">
-        <v>10.01263146510971</v>
+        <v>35.16961881103839</v>
       </c>
       <c r="I24" t="n">
-        <v>9.811871385349345</v>
+        <v>22.06777892479789</v>
       </c>
       <c r="J24" t="n">
-        <v>10.71889239899278</v>
+        <v>32.88486287892282</v>
       </c>
       <c r="K24" t="n">
-        <v>9.722677648529574</v>
+        <v>16.03703094490853</v>
       </c>
       <c r="L24" t="n">
-        <v>29.07913165591398</v>
+        <v>8.938497316841744</v>
       </c>
       <c r="M24" t="n">
-        <v>21.4816214567613</v>
+        <v>12.23672338495049</v>
       </c>
       <c r="N24" t="n">
-        <v>33.01609486048964</v>
+        <v>25.56430850751022</v>
       </c>
       <c r="O24" t="n">
-        <v>16.74646447791347</v>
+        <v>102.7891703424156</v>
       </c>
       <c r="P24" t="n">
-        <v>43.90748961005195</v>
+        <v>13.11985347713523</v>
       </c>
       <c r="Q24" t="n">
-        <v>49.96620513605223</v>
+        <v>39.26167905603688</v>
       </c>
       <c r="R24" t="n">
-        <v>41.25625</v>
+        <v>17.48350317398327</v>
       </c>
       <c r="S24" t="n">
-        <v>24.69650541713177</v>
+        <v>17.1528496669392</v>
       </c>
       <c r="T24" t="n">
-        <v>11.67380747072479</v>
+        <v>17.78143484718882</v>
       </c>
       <c r="U24" t="n">
-        <v>10.68775616077597</v>
+        <v>38.7263531154903</v>
       </c>
       <c r="V24" t="n">
-        <v>9.839862158295047</v>
+        <v>4.58154897541495</v>
       </c>
       <c r="W24" t="n">
-        <v>46.49677125886982</v>
+        <v>14.31503725672565</v>
       </c>
       <c r="X24" t="n">
-        <v>22.1456334003654</v>
+        <v>24.71323385094374</v>
       </c>
       <c r="Y24" t="n">
-        <v>32.90821411813814</v>
+        <v>13.81769420292013</v>
       </c>
       <c r="Z24" t="n">
-        <v>23.8549593610171</v>
+        <v>18.98982315815201</v>
       </c>
       <c r="AA24" t="n">
-        <v>18.53590336171488</v>
+        <v>13.30648967046244</v>
       </c>
       <c r="AB24" t="n">
-        <v>27.42918104793616</v>
+        <v>18.0426081602116</v>
       </c>
       <c r="AC24" t="n">
-        <v>41.18427985947997</v>
+        <v>10.93274520297051</v>
       </c>
       <c r="AD24" t="n">
-        <v>17.8578336</v>
+        <v>17.53184169779904</v>
       </c>
       <c r="AE24" t="n">
-        <v>11.68538887605983</v>
+        <v>8.562783977132931</v>
       </c>
       <c r="AF24" t="n">
-        <v>15.3649982927118</v>
+        <v>14.76505406775774</v>
       </c>
       <c r="AG24" t="n">
-        <v>8.014000885078049</v>
+        <v>11.97523878621229</v>
       </c>
       <c r="AH24" t="n">
-        <v>11.35141072608382</v>
+        <v>25.25548363335403</v>
       </c>
       <c r="AI24" t="n">
-        <v>7.689027537146248</v>
+        <v>9.80497034942448</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6.528515274602595</v>
+        <v>4.119713232013091</v>
       </c>
       <c r="AK24" t="n">
-        <v>4.005897142737795</v>
+        <v>3.117549546731666</v>
       </c>
       <c r="AL24" t="n">
-        <v>3.649636897132955</v>
+        <v>9.801546442286323</v>
       </c>
       <c r="AM24" t="n">
-        <v>6.499421063986204</v>
+        <v>4.345081272193864</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.465197564805402</v>
+        <v>9.79862775952688</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.56126220540675</v>
+        <v>3.476697910761955</v>
       </c>
       <c r="AP24" t="n">
-        <v>3.42809169665891</v>
+        <v>4.006323699665131</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.484112085714286</v>
+        <v>11.00115382370851</v>
       </c>
       <c r="AR24" t="n">
-        <v>4.51654685534579</v>
+        <v>1.284437874483104</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.369628301717304</v>
+        <v>3.557030854230491</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.227142857142858</v>
+        <v>0.9791199565228453</v>
       </c>
       <c r="AU24" t="n">
-        <v>4.431905664506354</v>
+        <v>2.092460042329525</v>
       </c>
       <c r="AV24" t="n">
-        <v>1.007880818765392</v>
+        <v>0.9486689599030289</v>
       </c>
       <c r="AW24" t="n">
-        <v>1.471051053456483</v>
+        <v>2.327983145642928</v>
       </c>
       <c r="AX24" t="n">
-        <v>2.231293584703046</v>
+        <v>3.009867081446217</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.55</v>
+        <v>7.250894343377607</v>
       </c>
       <c r="D25" t="n">
-        <v>24.53098178860841</v>
+        <v>14.3060087309357</v>
       </c>
       <c r="E25" t="n">
-        <v>7.87</v>
+        <v>40.71715570983891</v>
       </c>
       <c r="F25" t="n">
-        <v>10.4</v>
+        <v>14.14012107216753</v>
       </c>
       <c r="G25" t="n">
-        <v>61.16</v>
+        <v>213.7773737146791</v>
       </c>
       <c r="H25" t="n">
-        <v>22.42</v>
+        <v>26.98859776167783</v>
       </c>
       <c r="I25" t="n">
-        <v>7.9</v>
+        <v>5.487259006486904</v>
       </c>
       <c r="J25" t="n">
-        <v>42.68725062123286</v>
+        <v>16.58163687095036</v>
       </c>
       <c r="K25" t="n">
-        <v>24.4464253926733</v>
+        <v>32.12230863065366</v>
       </c>
       <c r="L25" t="n">
-        <v>39.16</v>
+        <v>57.31767429944203</v>
       </c>
       <c r="M25" t="n">
-        <v>5.2</v>
+        <v>35.2428267119278</v>
       </c>
       <c r="N25" t="n">
-        <v>12.47</v>
+        <v>115.5577796105766</v>
       </c>
       <c r="O25" t="n">
-        <v>30.52</v>
+        <v>119.7912333516013</v>
       </c>
       <c r="P25" t="n">
-        <v>67.03</v>
+        <v>69.31443876007209</v>
       </c>
       <c r="Q25" t="n">
-        <v>32.65</v>
+        <v>60.84741744726615</v>
       </c>
       <c r="R25" t="n">
-        <v>32.23</v>
+        <v>14.76141241877743</v>
       </c>
       <c r="S25" t="n">
-        <v>30.29</v>
+        <v>142.9001791115954</v>
       </c>
       <c r="T25" t="n">
-        <v>40.1</v>
+        <v>22.90884572646491</v>
       </c>
       <c r="U25" t="n">
-        <v>81.77</v>
+        <v>7.096624472160058</v>
       </c>
       <c r="V25" t="n">
-        <v>24.33</v>
+        <v>62.82166333897566</v>
       </c>
       <c r="W25" t="n">
-        <v>50.9</v>
+        <v>3.885679608905203</v>
       </c>
       <c r="X25" t="n">
-        <v>24.03</v>
+        <v>26.01631772215525</v>
       </c>
       <c r="Y25" t="n">
-        <v>89.51000000000001</v>
+        <v>10.7815525542524</v>
       </c>
       <c r="Z25" t="n">
-        <v>24.03</v>
+        <v>8.807979721822235</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.74</v>
+        <v>2.6883431935869</v>
       </c>
       <c r="AB25" t="n">
-        <v>1</v>
+        <v>0.7110172123540618</v>
       </c>
       <c r="AC25" t="n">
-        <v>23.82</v>
+        <v>2.171187407859282</v>
       </c>
       <c r="AD25" t="n">
-        <v>5.2</v>
+        <v>6.563025353244635</v>
       </c>
       <c r="AE25" t="n">
-        <v>15.69</v>
+        <v>2.045737448211995</v>
       </c>
       <c r="AF25" t="n">
-        <v>45.35</v>
+        <v>5.771913129470125</v>
       </c>
       <c r="AG25" t="n">
-        <v>2.37</v>
+        <v>4.627380426492273</v>
       </c>
       <c r="AH25" t="n">
-        <v>2.25</v>
+        <v>14.14915654659506</v>
       </c>
       <c r="AI25" t="n">
-        <v>2.9762817101295</v>
+        <v>2.908346410116111</v>
       </c>
       <c r="AJ25" t="n">
-        <v>3.19</v>
+        <v>10.15618783135194</v>
       </c>
       <c r="AK25" t="n">
-        <v>2.23</v>
+        <v>6.48528836043169</v>
       </c>
       <c r="AL25" t="n">
-        <v>40.27</v>
+        <v>0.4298673499170876</v>
       </c>
       <c r="AM25" t="n">
-        <v>2.41</v>
+        <v>7.871674804026799</v>
       </c>
       <c r="AN25" t="n">
-        <v>20.69</v>
+        <v>60.25247493260979</v>
       </c>
       <c r="AO25" t="n">
-        <v>16.39</v>
+        <v>1.03707269240454</v>
       </c>
       <c r="AP25" t="n">
-        <v>3.790752481463907</v>
+        <v>2.572818374357955</v>
       </c>
       <c r="AQ25" t="n">
-        <v>7.71</v>
+        <v>2.99663355646345</v>
       </c>
       <c r="AR25" t="n">
-        <v>6.69</v>
+        <v>13.67042344509951</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.86</v>
+        <v>5.556026696722816</v>
       </c>
       <c r="AT25" t="n">
-        <v>6.02</v>
+        <v>3.497299168298018</v>
       </c>
       <c r="AU25" t="n">
-        <v>3.47</v>
+        <v>9.959287804462321</v>
       </c>
       <c r="AV25" t="n">
-        <v>11.25</v>
+        <v>6.872321690624112</v>
       </c>
       <c r="AW25" t="n">
-        <v>7.86</v>
+        <v>5.14250350457532</v>
       </c>
       <c r="AX25" t="n">
-        <v>8.470000000000001</v>
+        <v>12.12438983995036</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>18.70372677346052</v>
+        <v>23.69852432379929</v>
       </c>
       <c r="D26" t="n">
-        <v>18.07560350599142</v>
+        <v>22.03163831738077</v>
       </c>
       <c r="E26" t="n">
-        <v>11.53040899469787</v>
+        <v>18.60197097188303</v>
       </c>
       <c r="F26" t="n">
-        <v>19.71279929696292</v>
+        <v>17.3982541966215</v>
       </c>
       <c r="G26" t="n">
-        <v>22.84214541586565</v>
+        <v>10.84226600291156</v>
       </c>
       <c r="H26" t="n">
-        <v>22.01487024507726</v>
+        <v>15.11265911386204</v>
       </c>
       <c r="I26" t="n">
-        <v>19.3265894672187</v>
+        <v>6.500172844826428</v>
       </c>
       <c r="J26" t="n">
-        <v>32.72845391976863</v>
+        <v>49.94687891083289</v>
       </c>
       <c r="K26" t="n">
-        <v>15.93807682898287</v>
+        <v>39.08863052139341</v>
       </c>
       <c r="L26" t="n">
-        <v>57.94513626193801</v>
+        <v>36.41595106451479</v>
       </c>
       <c r="M26" t="n">
-        <v>36.23968290899361</v>
+        <v>109.3196592492738</v>
       </c>
       <c r="N26" t="n">
-        <v>39.5617033074962</v>
+        <v>59.29378869982624</v>
       </c>
       <c r="O26" t="n">
-        <v>29.15813552107725</v>
+        <v>49.29509987453478</v>
       </c>
       <c r="P26" t="n">
-        <v>45.87763609334299</v>
+        <v>15.52133990557592</v>
       </c>
       <c r="Q26" t="n">
-        <v>49.43161381315907</v>
+        <v>84.52938382301539</v>
       </c>
       <c r="R26" t="n">
-        <v>69.36428896223863</v>
+        <v>66.49640990138536</v>
       </c>
       <c r="S26" t="n">
-        <v>54.9921767727198</v>
+        <v>21.82777164720763</v>
       </c>
       <c r="T26" t="n">
-        <v>83.11583871060324</v>
+        <v>50.45035366340116</v>
       </c>
       <c r="U26" t="n">
-        <v>52.422959302472</v>
+        <v>23.55928220178083</v>
       </c>
       <c r="V26" t="n">
-        <v>44.73321876729217</v>
+        <v>77.9510567469796</v>
       </c>
       <c r="W26" t="n">
-        <v>51.93452865274224</v>
+        <v>101.8107538058836</v>
       </c>
       <c r="X26" t="n">
-        <v>187.4739703801934</v>
+        <v>47.70413775044084</v>
       </c>
       <c r="Y26" t="n">
-        <v>75.18843408508079</v>
+        <v>32.54068153619819</v>
       </c>
       <c r="Z26" t="n">
-        <v>57.22650793613081</v>
+        <v>65.89806149296801</v>
       </c>
       <c r="AA26" t="n">
-        <v>87.91075120145636</v>
+        <v>73.56485271950818</v>
       </c>
       <c r="AB26" t="n">
-        <v>68.07786635112882</v>
+        <v>92.93255525853124</v>
       </c>
       <c r="AC26" t="n">
-        <v>63.60245604671518</v>
+        <v>154.2834111753153</v>
       </c>
       <c r="AD26" t="n">
-        <v>96.70064852854516</v>
+        <v>79.82280577721738</v>
       </c>
       <c r="AE26" t="n">
-        <v>163.8897353782963</v>
+        <v>95.10073100103281</v>
       </c>
       <c r="AF26" t="n">
-        <v>140.3750823040305</v>
+        <v>121.4843150040434</v>
       </c>
       <c r="AG26" t="n">
-        <v>135.9643532706996</v>
+        <v>108.4824762034634</v>
       </c>
       <c r="AH26" t="n">
-        <v>186.5972231360792</v>
+        <v>86.23075027290592</v>
       </c>
       <c r="AI26" t="n">
-        <v>81.78522350702666</v>
+        <v>50.56798044778529</v>
       </c>
       <c r="AJ26" t="n">
-        <v>55.96253294028818</v>
+        <v>86.00906343960571</v>
       </c>
       <c r="AK26" t="n">
-        <v>66.18435026996387</v>
+        <v>143.22742463772</v>
       </c>
       <c r="AL26" t="n">
-        <v>136.935481796217</v>
+        <v>133.1736168909622</v>
       </c>
       <c r="AM26" t="n">
-        <v>23.71655260239974</v>
+        <v>27.92084869921977</v>
       </c>
       <c r="AN26" t="n">
-        <v>80.57968516866077</v>
+        <v>21.43633669095131</v>
       </c>
       <c r="AO26" t="n">
-        <v>15.33642067593312</v>
+        <v>22.15467659453922</v>
       </c>
       <c r="AP26" t="n">
-        <v>22.6893687899385</v>
+        <v>32.01854447902498</v>
       </c>
       <c r="AQ26" t="n">
-        <v>22.36205726482657</v>
+        <v>13.39924928490436</v>
       </c>
       <c r="AR26" t="n">
-        <v>19.60549194788217</v>
+        <v>23.29015480258085</v>
       </c>
       <c r="AS26" t="n">
-        <v>18.69246566649561</v>
+        <v>19.20095403066201</v>
       </c>
       <c r="AT26" t="n">
-        <v>21.85790536985551</v>
+        <v>48.76190811134456</v>
       </c>
       <c r="AU26" t="n">
-        <v>13.06634568327597</v>
+        <v>22.08681124426568</v>
       </c>
       <c r="AV26" t="n">
-        <v>28.7764379743521</v>
+        <v>11.36275782501414</v>
       </c>
       <c r="AW26" t="n">
-        <v>11.05764865449098</v>
+        <v>19.17759807652842</v>
       </c>
       <c r="AX26" t="n">
-        <v>20.86138538449975</v>
+        <v>21.64865973703755</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>3.042106217860954</v>
+        <v>7.354303421566379</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8828675302601182</v>
+        <v>5.958124268389996</v>
       </c>
       <c r="E27" t="n">
-        <v>2.937394247038917</v>
+        <v>5.849009446303837</v>
       </c>
       <c r="F27" t="n">
-        <v>1.73123454013942</v>
+        <v>1.780344572284121</v>
       </c>
       <c r="G27" t="n">
-        <v>5.103368727318945</v>
+        <v>4.880208369860894</v>
       </c>
       <c r="H27" t="n">
-        <v>2.663775103280789</v>
+        <v>2.243959917757341</v>
       </c>
       <c r="I27" t="n">
-        <v>7.466413309049428</v>
+        <v>2.416555393617454</v>
       </c>
       <c r="J27" t="n">
-        <v>2.630435912976096</v>
+        <v>8.372896432074677</v>
       </c>
       <c r="K27" t="n">
-        <v>2.756532675377541</v>
+        <v>1.201689163654594</v>
       </c>
       <c r="L27" t="n">
-        <v>1.100340020401224</v>
+        <v>0.9766520966822722</v>
       </c>
       <c r="M27" t="n">
-        <v>1.339888977002379</v>
+        <v>1.308207614780393</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0489599646446148</v>
+        <v>0.4872468520967214</v>
       </c>
       <c r="O27" t="n">
-        <v>15.1759992</v>
+        <v>2.217442570704233</v>
       </c>
       <c r="P27" t="n">
-        <v>3.323076000106671</v>
+        <v>4.821133737010912</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.2879871</v>
+        <v>2.838549498961744</v>
       </c>
       <c r="R27" t="n">
-        <v>4.832515377144707</v>
+        <v>6.133030471012019</v>
       </c>
       <c r="S27" t="n">
-        <v>3.661232912925748</v>
+        <v>3.542468873675359</v>
       </c>
       <c r="T27" t="n">
-        <v>2.912553414089976</v>
+        <v>1.560039781035103</v>
       </c>
       <c r="U27" t="n">
-        <v>2.41208588776917</v>
+        <v>7.028976645010954</v>
       </c>
       <c r="V27" t="n">
-        <v>4.615440934089766</v>
+        <v>3.983826439494403</v>
       </c>
       <c r="W27" t="n">
-        <v>4.341656539608345</v>
+        <v>2.770644275218536</v>
       </c>
       <c r="X27" t="n">
-        <v>6.708844099536564</v>
+        <v>2.393840594642072</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.71151670215017</v>
+        <v>1.888964291574113</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.443948290480076</v>
+        <v>4.093246549576009</v>
       </c>
       <c r="AA27" t="n">
-        <v>3.382855816236586</v>
+        <v>1.820466538280962</v>
       </c>
       <c r="AB27" t="n">
-        <v>2.663389143239251</v>
+        <v>6.107567358894321</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.583140472048645</v>
+        <v>4.041939351522176</v>
       </c>
       <c r="AD27" t="n">
-        <v>9.690398616524723</v>
+        <v>6.808719076282334</v>
       </c>
       <c r="AE27" t="n">
-        <v>9.176715942347201</v>
+        <v>2.952747458846225</v>
       </c>
       <c r="AF27" t="n">
-        <v>4.693562432365149</v>
+        <v>4.492935026534703</v>
       </c>
       <c r="AG27" t="n">
-        <v>6.354085613101995</v>
+        <v>2.975271785560304</v>
       </c>
       <c r="AH27" t="n">
-        <v>8.821883536350663</v>
+        <v>11.97125060386715</v>
       </c>
       <c r="AI27" t="n">
-        <v>6.881521775193626</v>
+        <v>6.930427895114571</v>
       </c>
       <c r="AJ27" t="n">
-        <v>5.097171327849587</v>
+        <v>6.379104721399898</v>
       </c>
       <c r="AK27" t="n">
-        <v>8.400779452268617</v>
+        <v>4.658343902833789</v>
       </c>
       <c r="AL27" t="n">
-        <v>5.756778580535487</v>
+        <v>5.054032935238671</v>
       </c>
       <c r="AM27" t="n">
-        <v>2.16376074450775</v>
+        <v>7.394233543076324</v>
       </c>
       <c r="AN27" t="n">
-        <v>5.814316110828402</v>
+        <v>10.52782163849682</v>
       </c>
       <c r="AO27" t="n">
-        <v>5.684638116897418</v>
+        <v>3.739556741059503</v>
       </c>
       <c r="AP27" t="n">
-        <v>6.777762805603824</v>
+        <v>1.529828354252207</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.130200174218598</v>
+        <v>5.871242118932837</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.742333660116429</v>
+        <v>2.619614881132751</v>
       </c>
       <c r="AS27" t="n">
-        <v>3.642161204605846</v>
+        <v>4.320793419367154</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.770340655885263</v>
+        <v>1.850472323818323</v>
       </c>
       <c r="AU27" t="n">
-        <v>5.8450716312824</v>
+        <v>1.474015054624956</v>
       </c>
       <c r="AV27" t="n">
-        <v>7.029491902583755</v>
+        <v>7.804201175171781</v>
       </c>
       <c r="AW27" t="n">
-        <v>3.734036262875348</v>
+        <v>1.40296601365077</v>
       </c>
       <c r="AX27" t="n">
-        <v>3.902247313887028</v>
+        <v>8.26983229964284</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>9.73109225967065</v>
+        <v>11.22602683008584</v>
       </c>
       <c r="D28" t="n">
-        <v>53.40567534323689</v>
+        <v>13.05554611108257</v>
       </c>
       <c r="E28" t="n">
-        <v>32.23750001509325</v>
+        <v>8.397725310514513</v>
       </c>
       <c r="F28" t="n">
-        <v>15.68798932351503</v>
+        <v>30.49755158673382</v>
       </c>
       <c r="G28" t="n">
-        <v>7.382901373795365</v>
+        <v>152.1811803528823</v>
       </c>
       <c r="H28" t="n">
-        <v>69.73338888304991</v>
+        <v>30.24105372458026</v>
       </c>
       <c r="I28" t="n">
-        <v>12.467368275</v>
+        <v>4.590317514277809</v>
       </c>
       <c r="J28" t="n">
-        <v>10.32477856345367</v>
+        <v>286.078750353963</v>
       </c>
       <c r="K28" t="n">
-        <v>78.40084914045276</v>
+        <v>87.03743597066115</v>
       </c>
       <c r="L28" t="n">
-        <v>126.7778632635256</v>
+        <v>101.6628140847515</v>
       </c>
       <c r="M28" t="n">
-        <v>39.0445373765038</v>
+        <v>59.86030071567293</v>
       </c>
       <c r="N28" t="n">
-        <v>11.9723079733309</v>
+        <v>45.96518914438661</v>
       </c>
       <c r="O28" t="n">
-        <v>20.43023353834243</v>
+        <v>67.31376344783584</v>
       </c>
       <c r="P28" t="n">
-        <v>86.99142676346014</v>
+        <v>127.2009185788698</v>
       </c>
       <c r="Q28" t="n">
-        <v>43.97083526055347</v>
+        <v>42.88418922994502</v>
       </c>
       <c r="R28" t="n">
-        <v>134.4759525773826</v>
+        <v>28.44355837726788</v>
       </c>
       <c r="S28" t="n">
-        <v>58.13600608577885</v>
+        <v>94.38435983264397</v>
       </c>
       <c r="T28" t="n">
-        <v>55.34035798616907</v>
+        <v>69.94395780822944</v>
       </c>
       <c r="U28" t="n">
-        <v>50.51511076562466</v>
+        <v>47.29149491944032</v>
       </c>
       <c r="V28" t="n">
-        <v>44.58478991136457</v>
+        <v>56.35248891072261</v>
       </c>
       <c r="W28" t="n">
-        <v>55.20072908680581</v>
+        <v>105.136751305801</v>
       </c>
       <c r="X28" t="n">
-        <v>80.69636123328519</v>
+        <v>160.3357552694607</v>
       </c>
       <c r="Y28" t="n">
-        <v>73.87667250851909</v>
+        <v>61.72238872330186</v>
       </c>
       <c r="Z28" t="n">
-        <v>48.88785832316964</v>
+        <v>86.97108543478166</v>
       </c>
       <c r="AA28" t="n">
-        <v>50.71386489269258</v>
+        <v>57.06138437679837</v>
       </c>
       <c r="AB28" t="n">
-        <v>51.40362530273639</v>
+        <v>66.76935978441927</v>
       </c>
       <c r="AC28" t="n">
-        <v>50.52959544670754</v>
+        <v>162.5068487736146</v>
       </c>
       <c r="AD28" t="n">
-        <v>102.7430947439737</v>
+        <v>51.35800900006219</v>
       </c>
       <c r="AE28" t="n">
-        <v>47.27999356619065</v>
+        <v>67.5271629402621</v>
       </c>
       <c r="AF28" t="n">
-        <v>97.89720900122727</v>
+        <v>50.6805250096672</v>
       </c>
       <c r="AG28" t="n">
-        <v>62.90217877650885</v>
+        <v>65.74394089213995</v>
       </c>
       <c r="AH28" t="n">
-        <v>97.1074637041603</v>
+        <v>62.05381159030155</v>
       </c>
       <c r="AI28" t="n">
-        <v>48.18061365997735</v>
+        <v>121.982975939676</v>
       </c>
       <c r="AJ28" t="n">
-        <v>83.19675572881582</v>
+        <v>121.7993114774884</v>
       </c>
       <c r="AK28" t="n">
-        <v>25.81207753479028</v>
+        <v>38.02014199813873</v>
       </c>
       <c r="AL28" t="n">
-        <v>55.02538275235271</v>
+        <v>79.12368340682106</v>
       </c>
       <c r="AM28" t="n">
-        <v>22.74720229125172</v>
+        <v>30.82952881891858</v>
       </c>
       <c r="AN28" t="n">
-        <v>29.55214676337121</v>
+        <v>16.85410950693947</v>
       </c>
       <c r="AO28" t="n">
-        <v>11.70064217574019</v>
+        <v>18.35747965940036</v>
       </c>
       <c r="AP28" t="n">
-        <v>22.80626543699674</v>
+        <v>12.13240959752818</v>
       </c>
       <c r="AQ28" t="n">
-        <v>23.2141369833156</v>
+        <v>18.92541222049474</v>
       </c>
       <c r="AR28" t="n">
-        <v>10.29447596886352</v>
+        <v>13.22312473958071</v>
       </c>
       <c r="AS28" t="n">
-        <v>15.92010626873593</v>
+        <v>19.38679718051774</v>
       </c>
       <c r="AT28" t="n">
-        <v>29.98406283884867</v>
+        <v>5.800583453682295</v>
       </c>
       <c r="AU28" t="n">
-        <v>6.748829002751448</v>
+        <v>6.072892717022254</v>
       </c>
       <c r="AV28" t="n">
-        <v>6.278911734629199</v>
+        <v>7.315034815824382</v>
       </c>
       <c r="AW28" t="n">
-        <v>10.43869257415097</v>
+        <v>14.18535829358752</v>
       </c>
       <c r="AX28" t="n">
-        <v>9.781372130632629</v>
+        <v>12.38874878560373</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>77.59372814760067</v>
       </c>
       <c r="D29" t="n">
-        <v>11.79410747220541</v>
+        <v>16.63836957564196</v>
       </c>
       <c r="E29" t="n">
-        <v>23.78529047033295</v>
+        <v>34.89970127916236</v>
       </c>
       <c r="F29" t="n">
-        <v>5.705626538691155</v>
+        <v>3.502401014545582</v>
       </c>
       <c r="G29" t="n">
-        <v>15.04230132518797</v>
+        <v>6.476441400759525</v>
       </c>
       <c r="H29" t="n">
-        <v>17.08775997587013</v>
+        <v>31.29447791142388</v>
       </c>
       <c r="I29" t="n">
-        <v>67.76529581509176</v>
+        <v>17.16628721457205</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>3.635523920694805</v>
       </c>
       <c r="K29" t="n">
-        <v>55.89248741712071</v>
+        <v>40.67977171797099</v>
       </c>
       <c r="L29" t="n">
-        <v>19.1268005707291</v>
+        <v>11.76727918296801</v>
       </c>
       <c r="M29" t="n">
-        <v>37.03707980201791</v>
+        <v>17.55731266742938</v>
       </c>
       <c r="N29" t="n">
-        <v>43.83721746318161</v>
+        <v>20.77010650128116</v>
       </c>
       <c r="O29" t="n">
-        <v>62.2015918964489</v>
+        <v>43.49157163494947</v>
       </c>
       <c r="P29" t="n">
-        <v>26.51610913154654</v>
+        <v>38.67720219677727</v>
       </c>
       <c r="Q29" t="n">
-        <v>17.24068912664757</v>
+        <v>43.78969999312498</v>
       </c>
       <c r="R29" t="n">
-        <v>32.48285959290001</v>
+        <v>180.7720202814103</v>
       </c>
       <c r="S29" t="n">
-        <v>25.82140328788407</v>
+        <v>42.79220185776445</v>
       </c>
       <c r="T29" t="n">
-        <v>19.31080798101619</v>
+        <v>39.63485996522713</v>
       </c>
       <c r="U29" t="n">
-        <v>35.44733049723758</v>
+        <v>39.11291523867781</v>
       </c>
       <c r="V29" t="n">
-        <v>58.68057595449501</v>
+        <v>26.4648964190795</v>
       </c>
       <c r="W29" t="n">
-        <v>62.28300528513677</v>
+        <v>138.3722503835404</v>
       </c>
       <c r="X29" t="n">
-        <v>24.2015150181146</v>
+        <v>25.12010684837413</v>
       </c>
       <c r="Y29" t="n">
-        <v>51.98852933362262</v>
+        <v>87.25754184741993</v>
       </c>
       <c r="Z29" t="n">
-        <v>31.74380971940028</v>
+        <v>33.36097163635873</v>
       </c>
       <c r="AA29" t="n">
-        <v>52.07335249714481</v>
+        <v>66.42109467876449</v>
       </c>
       <c r="AB29" t="n">
-        <v>56.28976533436583</v>
+        <v>39.15270295073618</v>
       </c>
       <c r="AC29" t="n">
-        <v>38.54816168119458</v>
+        <v>28.25786716501602</v>
       </c>
       <c r="AD29" t="n">
-        <v>23.79557527385717</v>
+        <v>64.01695206016193</v>
       </c>
       <c r="AE29" t="n">
-        <v>28.08168248814686</v>
+        <v>33.60894889405257</v>
       </c>
       <c r="AF29" t="n">
-        <v>48.2244926996385</v>
+        <v>10.36893424349232</v>
       </c>
       <c r="AG29" t="n">
-        <v>63.67921469194049</v>
+        <v>6.711790850375826</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>58.16517115283447</v>
       </c>
       <c r="AI29" t="n">
-        <v>35.52772069921559</v>
+        <v>27.16256055660307</v>
       </c>
       <c r="AJ29" t="n">
-        <v>40.65317730776368</v>
+        <v>10.37947545729785</v>
       </c>
       <c r="AK29" t="n">
-        <v>23.30133720322988</v>
+        <v>43.50413858203406</v>
       </c>
       <c r="AL29" t="n">
-        <v>39.19266418719857</v>
+        <v>41.98349015284703</v>
       </c>
       <c r="AM29" t="n">
-        <v>7.752495142857141</v>
+        <v>9.115247057671127</v>
       </c>
       <c r="AN29" t="n">
-        <v>47.83744081056309</v>
+        <v>25.92562268351459</v>
       </c>
       <c r="AO29" t="n">
-        <v>23.19022485981955</v>
+        <v>24.63106061784795</v>
       </c>
       <c r="AP29" t="n">
-        <v>24.17576667672956</v>
+        <v>36.57529759685664</v>
       </c>
       <c r="AQ29" t="n">
-        <v>29.35620553040192</v>
+        <v>44.18336792057899</v>
       </c>
       <c r="AR29" t="n">
-        <v>34.24607240539278</v>
+        <v>41.6901592410189</v>
       </c>
       <c r="AS29" t="n">
-        <v>28.00311860438944</v>
+        <v>22.3352974761516</v>
       </c>
       <c r="AT29" t="n">
-        <v>27.09623895910601</v>
+        <v>16.81596144027038</v>
       </c>
       <c r="AU29" t="n">
-        <v>20.22283257645751</v>
+        <v>30.03433563489764</v>
       </c>
       <c r="AV29" t="n">
-        <v>42.66721673296525</v>
+        <v>14.90152511605102</v>
       </c>
       <c r="AW29" t="n">
-        <v>9.115399556543949</v>
+        <v>35.23747592533766</v>
       </c>
       <c r="AX29" t="n">
-        <v>23.84273509052588</v>
+        <v>54.95546542734714</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>5.54501525232086</v>
+        <v>16.48403013267026</v>
       </c>
       <c r="D30" t="n">
-        <v>1.54875</v>
+        <v>1.759920769391092</v>
       </c>
       <c r="E30" t="n">
-        <v>7.696189752049589</v>
+        <v>2.391592414430031</v>
       </c>
       <c r="F30" t="n">
-        <v>9.846565222739583</v>
+        <v>9.04614713759206</v>
       </c>
       <c r="G30" t="n">
-        <v>4.400329530976913</v>
+        <v>3.519077924030388</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9289682089602026</v>
+        <v>5.879677966716567</v>
       </c>
       <c r="I30" t="n">
-        <v>4.024635308548104</v>
+        <v>3.561487145699012</v>
       </c>
       <c r="J30" t="n">
-        <v>150.4566647645215</v>
+        <v>5.078760613484348</v>
       </c>
       <c r="K30" t="n">
-        <v>28.64910603818418</v>
+        <v>7.773279142733624</v>
       </c>
       <c r="L30" t="n">
-        <v>7.057444977071356</v>
+        <v>3.992486668578984</v>
       </c>
       <c r="M30" t="n">
-        <v>8.787156003110578</v>
+        <v>13.56930361569612</v>
       </c>
       <c r="N30" t="n">
-        <v>46.98914754206576</v>
+        <v>20.51285654862803</v>
       </c>
       <c r="O30" t="n">
-        <v>60.40735617237288</v>
+        <v>36.87166102890319</v>
       </c>
       <c r="P30" t="n">
-        <v>72.70191244700162</v>
+        <v>40.23102542378348</v>
       </c>
       <c r="Q30" t="n">
-        <v>10.72969401655185</v>
+        <v>9.876748446732705</v>
       </c>
       <c r="R30" t="n">
-        <v>17.3777977134353</v>
+        <v>17.2292903242869</v>
       </c>
       <c r="S30" t="n">
-        <v>24.45630086480566</v>
+        <v>16.75309933137591</v>
       </c>
       <c r="T30" t="n">
-        <v>26.6595392</v>
+        <v>8.731721384135041</v>
       </c>
       <c r="U30" t="n">
-        <v>130.79375</v>
+        <v>19.78338270827406</v>
       </c>
       <c r="V30" t="n">
-        <v>130.8273717366166</v>
+        <v>12.58883790584066</v>
       </c>
       <c r="W30" t="n">
-        <v>21.50560884384172</v>
+        <v>26.07253949219304</v>
       </c>
       <c r="X30" t="n">
-        <v>14.05905793701158</v>
+        <v>24.05682461237164</v>
       </c>
       <c r="Y30" t="n">
-        <v>11.84813972006666</v>
+        <v>33.56972794566606</v>
       </c>
       <c r="Z30" t="n">
-        <v>7.232208514090219</v>
+        <v>21.66512279336343</v>
       </c>
       <c r="AA30" t="n">
-        <v>14.96245552416541</v>
+        <v>15.01476605841944</v>
       </c>
       <c r="AB30" t="n">
-        <v>7.350825796398624</v>
+        <v>10.49192879510339</v>
       </c>
       <c r="AC30" t="n">
-        <v>26.69820290792095</v>
+        <v>7.258752451224421</v>
       </c>
       <c r="AD30" t="n">
-        <v>7.268211287729664</v>
+        <v>26.57080022288359</v>
       </c>
       <c r="AE30" t="n">
-        <v>12.12177809978394</v>
+        <v>14.11670248591031</v>
       </c>
       <c r="AF30" t="n">
-        <v>14.2815976300338</v>
+        <v>20.6969872121671</v>
       </c>
       <c r="AG30" t="n">
-        <v>28.5103752459651</v>
+        <v>9.068853258034117</v>
       </c>
       <c r="AH30" t="n">
-        <v>10.38672998244127</v>
+        <v>23.7284334503249</v>
       </c>
       <c r="AI30" t="n">
-        <v>7.204080870006096</v>
+        <v>4.499023378379881</v>
       </c>
       <c r="AJ30" t="n">
-        <v>4.340912317567507</v>
+        <v>9.605972481303086</v>
       </c>
       <c r="AK30" t="n">
-        <v>24.94872998752921</v>
+        <v>4.281605815344554</v>
       </c>
       <c r="AL30" t="n">
-        <v>2.025633037260802</v>
+        <v>11.53706247212938</v>
       </c>
       <c r="AM30" t="n">
-        <v>3.278537142857143</v>
+        <v>7.313555168673495</v>
       </c>
       <c r="AN30" t="n">
-        <v>2.333258246036128</v>
+        <v>2.515459206973704</v>
       </c>
       <c r="AO30" t="n">
-        <v>3.62433853485756</v>
+        <v>3.581071198913773</v>
       </c>
       <c r="AP30" t="n">
-        <v>3.897095449906911</v>
+        <v>2.027437229707369</v>
       </c>
       <c r="AQ30" t="n">
-        <v>2.628571428571428</v>
+        <v>3.099037145768645</v>
       </c>
       <c r="AR30" t="n">
-        <v>1.51</v>
+        <v>1.799319197558025</v>
       </c>
       <c r="AS30" t="n">
-        <v>3.202067345099104</v>
+        <v>3.942162333840695</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.9513469142857142</v>
+        <v>1.56784801949261</v>
       </c>
       <c r="AU30" t="n">
-        <v>0.5565907764703365</v>
+        <v>6.412173472914305</v>
       </c>
       <c r="AV30" t="n">
-        <v>2.726312986872981</v>
+        <v>3.377407744083008</v>
       </c>
       <c r="AW30" t="n">
-        <v>0.4201748974172512</v>
+        <v>2.217870014773717</v>
       </c>
       <c r="AX30" t="n">
-        <v>2.347691148086386</v>
+        <v>4.027161603326716</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>14.18</v>
+        <v>4.843854730900414</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4143856447688563</v>
+        <v>1.918114233896754</v>
       </c>
       <c r="E31" t="n">
-        <v>20.72</v>
+        <v>50.55683456932073</v>
       </c>
       <c r="F31" t="n">
-        <v>21.38</v>
+        <v>12.76159805459093</v>
       </c>
       <c r="G31" t="n">
-        <v>7.9</v>
+        <v>20.14453684623393</v>
       </c>
       <c r="H31" t="n">
-        <v>3.994200949999999</v>
+        <v>15.18147243237275</v>
       </c>
       <c r="I31" t="n">
-        <v>7.9</v>
+        <v>5.73684738430187</v>
       </c>
       <c r="J31" t="n">
-        <v>29.74</v>
+        <v>12.25741261992374</v>
       </c>
       <c r="K31" t="n">
-        <v>39.7</v>
+        <v>19.00182115912475</v>
       </c>
       <c r="L31" t="n">
-        <v>32.47</v>
+        <v>42.55642942247277</v>
       </c>
       <c r="M31" t="n">
-        <v>79.8</v>
+        <v>10.44784786058472</v>
       </c>
       <c r="N31" t="n">
-        <v>25.68</v>
+        <v>6.889160721494835</v>
       </c>
       <c r="O31" t="n">
-        <v>115.55</v>
+        <v>3.713850447989352</v>
       </c>
       <c r="P31" t="n">
-        <v>30.52</v>
+        <v>35.14990705361053</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.81</v>
+        <v>74.4909774481809</v>
       </c>
       <c r="R31" t="n">
-        <v>21.52</v>
+        <v>57.65722148492631</v>
       </c>
       <c r="S31" t="n">
-        <v>53.45</v>
+        <v>38.52627748877507</v>
       </c>
       <c r="T31" t="n">
-        <v>3.794304937500001</v>
+        <v>22.6080466859191</v>
       </c>
       <c r="U31" t="n">
-        <v>7.315029256225505</v>
+        <v>53.07082362290227</v>
       </c>
       <c r="V31" t="n">
-        <v>22.06</v>
+        <v>12.54993912124455</v>
       </c>
       <c r="W31" t="n">
-        <v>35.47</v>
+        <v>4.661172336173208</v>
       </c>
       <c r="X31" t="n">
-        <v>4.43</v>
+        <v>5.570261272526668</v>
       </c>
       <c r="Y31" t="n">
-        <v>39.22</v>
+        <v>52.53008106236484</v>
       </c>
       <c r="Z31" t="n">
-        <v>71.51000000000001</v>
+        <v>5.686825050805361</v>
       </c>
       <c r="AA31" t="n">
-        <v>5.32</v>
+        <v>10.91389988884131</v>
       </c>
       <c r="AB31" t="n">
-        <v>15.3</v>
+        <v>6.203008208395034</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.04</v>
+        <v>2.48254329248164</v>
       </c>
       <c r="AD31" t="n">
-        <v>2.81</v>
+        <v>5.96683159743553</v>
       </c>
       <c r="AE31" t="n">
-        <v>33.03</v>
+        <v>3.300178398267854</v>
       </c>
       <c r="AF31" t="n">
-        <v>1</v>
+        <v>35.8936581636283</v>
       </c>
       <c r="AG31" t="n">
-        <v>13.94</v>
+        <v>2.553193264440167</v>
       </c>
       <c r="AH31" t="n">
-        <v>7.86</v>
+        <v>4.130575292948133</v>
       </c>
       <c r="AI31" t="n">
-        <v>1.12</v>
+        <v>18.22415220431012</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15.68</v>
+        <v>1.430437949851013</v>
       </c>
       <c r="AK31" t="n">
-        <v>10.56</v>
+        <v>3.448218405933181</v>
       </c>
       <c r="AL31" t="n">
-        <v>3.19</v>
+        <v>5.498566589612762</v>
       </c>
       <c r="AM31" t="n">
-        <v>3.06</v>
+        <v>14.05690994486869</v>
       </c>
       <c r="AN31" t="n">
-        <v>2.42</v>
+        <v>5.47593814958503</v>
       </c>
       <c r="AO31" t="n">
-        <v>2.559932014833127</v>
+        <v>13.92533230057953</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.86</v>
+        <v>0.8152906281114467</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.1</v>
+        <v>1.774738086307851</v>
       </c>
       <c r="AR31" t="n">
-        <v>10.34</v>
+        <v>3.878386943504427</v>
       </c>
       <c r="AS31" t="n">
-        <v>17.07</v>
+        <v>1.495908850072414</v>
       </c>
       <c r="AT31" t="n">
-        <v>11.84</v>
+        <v>74.44099387067544</v>
       </c>
       <c r="AU31" t="n">
-        <v>8.039999999999999</v>
+        <v>6.857654548175692</v>
       </c>
       <c r="AV31" t="n">
-        <v>3.792705618000001</v>
+        <v>1.371548423996221</v>
       </c>
       <c r="AW31" t="n">
-        <v>3.47</v>
+        <v>2.578543014400406</v>
       </c>
       <c r="AX31" t="n">
-        <v>58.95</v>
+        <v>10.01980383021349</v>
       </c>
     </row>
   </sheetData>

--- a/escenarios_montecarlo/escenario_009.xlsx
+++ b/escenarios_montecarlo/escenario_009.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>18.71227084270533</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>10.34493761549678</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>15.73804816190897</v>
+        <v>27.49397137961915</v>
       </c>
       <c r="F2" t="n">
-        <v>19.15018048425365</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.15814928452859</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>15.92273072732493</v>
+        <v>16.76674027080344</v>
       </c>
       <c r="I2" t="n">
-        <v>72.10554746099695</v>
+        <v>91.6885504895516</v>
       </c>
       <c r="J2" t="n">
-        <v>40.80051451687099</v>
+        <v>34.39959618712697</v>
       </c>
       <c r="K2" t="n">
-        <v>28.20899401446459</v>
+        <v>31.17028194461437</v>
       </c>
       <c r="L2" t="n">
-        <v>53.45315060035892</v>
+        <v>125.4129932649689</v>
       </c>
       <c r="M2" t="n">
-        <v>48.80246145376108</v>
+        <v>106.6019983861063</v>
       </c>
       <c r="N2" t="n">
-        <v>96.16957567689093</v>
+        <v>26.44590298018497</v>
       </c>
       <c r="O2" t="n">
-        <v>29.48668894619139</v>
+        <v>98.30085793965803</v>
       </c>
       <c r="P2" t="n">
-        <v>107.8558334299562</v>
+        <v>59.73642791305336</v>
       </c>
       <c r="Q2" t="n">
-        <v>27.16557672538641</v>
+        <v>106.050369478903</v>
       </c>
       <c r="R2" t="n">
-        <v>99.94169009045547</v>
+        <v>80.72874344614493</v>
       </c>
       <c r="S2" t="n">
-        <v>40.61825590430244</v>
+        <v>131.1446863492389</v>
       </c>
       <c r="T2" t="n">
-        <v>129.9077231658563</v>
+        <v>53.4162081940303</v>
       </c>
       <c r="U2" t="n">
-        <v>68.67547455335023</v>
+        <v>37.94982198175167</v>
       </c>
       <c r="V2" t="n">
-        <v>53.52864275400822</v>
+        <v>57.30095042111371</v>
       </c>
       <c r="W2" t="n">
-        <v>151.8426712444063</v>
+        <v>51.74713181248325</v>
       </c>
       <c r="X2" t="n">
-        <v>52.30607616944322</v>
+        <v>41.7975328740724</v>
       </c>
       <c r="Y2" t="n">
-        <v>67.34182852232556</v>
+        <v>41.1986437756478</v>
       </c>
       <c r="Z2" t="n">
-        <v>46.88762735837415</v>
+        <v>101.9806198161473</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.4213961294998</v>
+        <v>54.3818047355695</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.78299352676183</v>
+        <v>71.04727446961502</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.7824680940708</v>
+        <v>97.90476703634677</v>
       </c>
       <c r="AD2" t="n">
-        <v>62.94440431274289</v>
+        <v>141.445315412079</v>
       </c>
       <c r="AE2" t="n">
-        <v>83.96776990938837</v>
+        <v>78.97511218441417</v>
       </c>
       <c r="AF2" t="n">
-        <v>135.8034316040647</v>
+        <v>168.5091760178302</v>
       </c>
       <c r="AG2" t="n">
-        <v>113.0089260476107</v>
+        <v>52.36059674511694</v>
       </c>
       <c r="AH2" t="n">
-        <v>147.8123089884515</v>
+        <v>80.83837017492162</v>
       </c>
       <c r="AI2" t="n">
-        <v>117.9262047105366</v>
+        <v>90.41156316544597</v>
       </c>
       <c r="AJ2" t="n">
-        <v>97.16087976497356</v>
+        <v>104.009227846254</v>
       </c>
       <c r="AK2" t="n">
-        <v>90.30808486854767</v>
+        <v>98.90253929198748</v>
       </c>
       <c r="AL2" t="n">
-        <v>18.68496423233209</v>
+        <v>30.49775933267114</v>
       </c>
       <c r="AM2" t="n">
-        <v>55.88550033169259</v>
+        <v>125.5362043116316</v>
       </c>
       <c r="AN2" t="n">
-        <v>37.81551642484088</v>
+        <v>24.86967611749333</v>
       </c>
       <c r="AO2" t="n">
-        <v>20.28623689336742</v>
+        <v>37.30162791248443</v>
       </c>
       <c r="AP2" t="n">
-        <v>21.37967285124552</v>
+        <v>37.11701355622924</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26.27705241854913</v>
+        <v>47.46364782762154</v>
       </c>
       <c r="AR2" t="n">
-        <v>32.89708958059531</v>
+        <v>22.4369847061388</v>
       </c>
       <c r="AS2" t="n">
-        <v>16.78055863944393</v>
+        <v>33.11315816790127</v>
       </c>
       <c r="AT2" t="n">
-        <v>24.67300666754283</v>
+        <v>8.3441386825045</v>
       </c>
       <c r="AU2" t="n">
-        <v>37.21193738673266</v>
+        <v>23.22590751427891</v>
       </c>
       <c r="AV2" t="n">
-        <v>30.97332257274922</v>
+        <v>13.69204883398715</v>
       </c>
       <c r="AW2" t="n">
-        <v>14.77430632759382</v>
+        <v>19.91379337437978</v>
       </c>
       <c r="AX2" t="n">
-        <v>11.3764115353504</v>
+        <v>12.14816053937325</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>15.42100350111003</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4125865492912228</v>
+        <v>4.285827152485094</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4728282460130467</v>
+        <v>1.406434814041506</v>
       </c>
       <c r="F3" t="n">
-        <v>15.74333762132467</v>
+        <v>4.696678789632974</v>
       </c>
       <c r="G3" t="n">
-        <v>1.577635038179687</v>
+        <v>3.023579329630448</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8017732925995861</v>
+        <v>1.164066244072741</v>
       </c>
       <c r="I3" t="n">
-        <v>9.419068634618304</v>
+        <v>4.29363436323699</v>
       </c>
       <c r="J3" t="n">
-        <v>7.639280514161385</v>
+        <v>0.6392597762958008</v>
       </c>
       <c r="K3" t="n">
-        <v>2.506444651170951</v>
+        <v>4.984515844777558</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5440526398537</v>
+        <v>1.052177459338372</v>
       </c>
       <c r="M3" t="n">
-        <v>1.94086470149821</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.272605884233482</v>
+        <v>6.508950754870424</v>
       </c>
       <c r="O3" t="n">
-        <v>2.833915181692983</v>
+        <v>5.570469780519707</v>
       </c>
       <c r="P3" t="n">
-        <v>10.40956149434614</v>
+        <v>12.0827343664187</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.534951258455922</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.056883867343286</v>
+        <v>8.122148624482184</v>
       </c>
       <c r="S3" t="n">
-        <v>3.609347755469815</v>
+        <v>8.791807033702963</v>
       </c>
       <c r="T3" t="n">
-        <v>3.244672576020074</v>
+        <v>2.251134828319658</v>
       </c>
       <c r="U3" t="n">
-        <v>5.183693344922464</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>3.650378617417661</v>
+        <v>1.187423342715251</v>
       </c>
       <c r="W3" t="n">
-        <v>3.186049829494442</v>
+        <v>5.006193971208624</v>
       </c>
       <c r="X3" t="n">
-        <v>1.844224700887532</v>
+        <v>2.237446056672012</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.863961821492127</v>
+        <v>6.63657283643513</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.138343076026024</v>
+        <v>5.790849964067996</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.84552193649871</v>
+        <v>3.20280350660244</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.573028820645546</v>
+        <v>2.962652318488546</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.544458463172463</v>
+        <v>7.077817256105353</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.570838347798383</v>
+        <v>4.912059243163589</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.779420656656049</v>
+        <v>4.548785397031041</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.413580227524283</v>
+        <v>10.96451558431525</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.86190204588989</v>
+        <v>7.508310886055989</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.435736357247542</v>
+        <v>7.116118861301977</v>
       </c>
       <c r="AI3" t="n">
-        <v>2.650448898482994</v>
+        <v>6.312430435948817</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11.16843254527752</v>
+        <v>2.953316227718498</v>
       </c>
       <c r="AK3" t="n">
-        <v>6.097581767720903</v>
+        <v>3.416852695537584</v>
       </c>
       <c r="AL3" t="n">
-        <v>3.36665396557098</v>
+        <v>3.887840765421293</v>
       </c>
       <c r="AM3" t="n">
-        <v>2.08929447934018</v>
+        <v>5.402554735209568</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.855717670767326</v>
+        <v>5.30816691483379</v>
       </c>
       <c r="AO3" t="n">
-        <v>16.72528676111638</v>
+        <v>5.935366252575743</v>
       </c>
       <c r="AP3" t="n">
-        <v>6.226724252905259</v>
+        <v>5.144283705494409</v>
       </c>
       <c r="AQ3" t="n">
-        <v>6.18682628618612</v>
+        <v>2.010636305681024</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.126569193807446</v>
+        <v>4.205062957979983</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.51487057067166</v>
+        <v>0.5069574260394542</v>
       </c>
       <c r="AT3" t="n">
-        <v>8.286603000128872</v>
+        <v>2.435227070749754</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.7522810483256475</v>
+        <v>1.928656793336428</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.618424454845615</v>
+        <v>1.99426358844388</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.313795219495748</v>
+        <v>2.929352751863299</v>
       </c>
       <c r="AX3" t="n">
-        <v>10.54791040690615</v>
+        <v>2.531999956389644</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>10.19324504474767</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>15.12294709215404</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.12912866941184</v>
+        <v>6.524789940307808</v>
       </c>
       <c r="F4" t="n">
-        <v>19.92328636404748</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.672731390950397</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.53346953882462</v>
+        <v>13.34699377731291</v>
       </c>
       <c r="I4" t="n">
-        <v>24.01653847831169</v>
+        <v>20.58681644002468</v>
       </c>
       <c r="J4" t="n">
-        <v>97.34216987359235</v>
+        <v>64.17584384797112</v>
       </c>
       <c r="K4" t="n">
-        <v>8.535390105075457</v>
+        <v>56.54351742117289</v>
       </c>
       <c r="L4" t="n">
-        <v>55.74959805323363</v>
+        <v>93.16484225717065</v>
       </c>
       <c r="M4" t="n">
-        <v>63.82405842761411</v>
+        <v>108.1068751917164</v>
       </c>
       <c r="N4" t="n">
-        <v>129.3573477466285</v>
+        <v>54.91112388033841</v>
       </c>
       <c r="O4" t="n">
-        <v>101.829961432507</v>
+        <v>92.29206332036736</v>
       </c>
       <c r="P4" t="n">
-        <v>37.37801109427417</v>
+        <v>26.36095502396896</v>
       </c>
       <c r="Q4" t="n">
-        <v>40.71023936905615</v>
+        <v>162.6066812497938</v>
       </c>
       <c r="R4" t="n">
-        <v>53.42403245726339</v>
+        <v>38.13148645170705</v>
       </c>
       <c r="S4" t="n">
-        <v>279.5930446098452</v>
+        <v>54.48082403882204</v>
       </c>
       <c r="T4" t="n">
-        <v>41.94014046592579</v>
+        <v>107.3413931293542</v>
       </c>
       <c r="U4" t="n">
-        <v>93.21752404180178</v>
+        <v>48.6437485130117</v>
       </c>
       <c r="V4" t="n">
-        <v>74.8942044112803</v>
+        <v>39.43504234070527</v>
       </c>
       <c r="W4" t="n">
-        <v>40.62677721526116</v>
+        <v>57.19384835017549</v>
       </c>
       <c r="X4" t="n">
-        <v>88.33114466804881</v>
+        <v>72.48568071980034</v>
       </c>
       <c r="Y4" t="n">
-        <v>54.36682351421088</v>
+        <v>57.97707738053499</v>
       </c>
       <c r="Z4" t="n">
-        <v>61.02728982716059</v>
+        <v>118.2419764367346</v>
       </c>
       <c r="AA4" t="n">
-        <v>74.24765138280182</v>
+        <v>37.69580569263132</v>
       </c>
       <c r="AB4" t="n">
-        <v>60.9752776884544</v>
+        <v>29.27571377235905</v>
       </c>
       <c r="AC4" t="n">
-        <v>44.58691355657276</v>
+        <v>24.29323761439944</v>
       </c>
       <c r="AD4" t="n">
-        <v>48.03954265526593</v>
+        <v>71.25942853311511</v>
       </c>
       <c r="AE4" t="n">
-        <v>40.68882910147105</v>
+        <v>63.82087882837572</v>
       </c>
       <c r="AF4" t="n">
-        <v>161.9655986974333</v>
+        <v>54.39792940996526</v>
       </c>
       <c r="AG4" t="n">
-        <v>78.60171538959987</v>
+        <v>59.03070112054581</v>
       </c>
       <c r="AH4" t="n">
-        <v>60.0359693952369</v>
+        <v>71.62368308865518</v>
       </c>
       <c r="AI4" t="n">
-        <v>121.7678370710557</v>
+        <v>136.624763282073</v>
       </c>
       <c r="AJ4" t="n">
-        <v>96.49498586603232</v>
+        <v>102.9699559626496</v>
       </c>
       <c r="AK4" t="n">
-        <v>19.67036263871892</v>
+        <v>31.37678486044837</v>
       </c>
       <c r="AL4" t="n">
-        <v>62.17463368562281</v>
+        <v>14.75734042421224</v>
       </c>
       <c r="AM4" t="n">
-        <v>20.90427923855534</v>
+        <v>21.0138348717301</v>
       </c>
       <c r="AN4" t="n">
-        <v>21.74307483568965</v>
+        <v>29.73921958697944</v>
       </c>
       <c r="AO4" t="n">
-        <v>37.48955050303677</v>
+        <v>27.94541997712617</v>
       </c>
       <c r="AP4" t="n">
-        <v>15.23568608673104</v>
+        <v>16.47830854254456</v>
       </c>
       <c r="AQ4" t="n">
-        <v>23.0324316806984</v>
+        <v>21.16004474876829</v>
       </c>
       <c r="AR4" t="n">
-        <v>10.92557942133805</v>
+        <v>14.10427573552481</v>
       </c>
       <c r="AS4" t="n">
-        <v>27.74321288806874</v>
+        <v>25.80563562644933</v>
       </c>
       <c r="AT4" t="n">
-        <v>13.77170190594289</v>
+        <v>12.9065303524812</v>
       </c>
       <c r="AU4" t="n">
-        <v>24.23313241177823</v>
+        <v>8.551138686607111</v>
       </c>
       <c r="AV4" t="n">
-        <v>10.16395628176215</v>
+        <v>7.758397166395248</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.282466353758949</v>
+        <v>7.519424708009326</v>
       </c>
       <c r="AX4" t="n">
-        <v>7.882241564254889</v>
+        <v>10.67170791155641</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>14.69131422866791</v>
+        <v>13.52005716889169</v>
       </c>
       <c r="D5" t="n">
-        <v>45.28886301546166</v>
+        <v>21.93205841600917</v>
       </c>
       <c r="E5" t="n">
-        <v>57.62958590401912</v>
+        <v>26.63629573371168</v>
       </c>
       <c r="F5" t="n">
-        <v>24.25071677152463</v>
+        <v>49.64197935674959</v>
       </c>
       <c r="G5" t="n">
-        <v>17.72375728749529</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>28.42744974597875</v>
+        <v>11.4504664157893</v>
       </c>
       <c r="I5" t="n">
-        <v>17.0796648414568</v>
+        <v>32.40904622609791</v>
       </c>
       <c r="J5" t="n">
-        <v>9.439847919575639</v>
+        <v>16.0062544227693</v>
       </c>
       <c r="K5" t="n">
-        <v>127.3461751939587</v>
+        <v>15.12127435961902</v>
       </c>
       <c r="L5" t="n">
-        <v>17.73662374613529</v>
+        <v>9.459278062702236</v>
       </c>
       <c r="M5" t="n">
-        <v>22.33508760364797</v>
+        <v>98.65932610271774</v>
       </c>
       <c r="N5" t="n">
-        <v>28.17527260444574</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>85.37939826835945</v>
+        <v>13.27227114750514</v>
       </c>
       <c r="P5" t="n">
-        <v>36.10909074067363</v>
+        <v>113.1021701017733</v>
       </c>
       <c r="Q5" t="n">
-        <v>14.62054064587135</v>
+        <v>37.51636240809769</v>
       </c>
       <c r="R5" t="n">
-        <v>7.308857293403586</v>
+        <v>212.9777638614619</v>
       </c>
       <c r="S5" t="n">
-        <v>20.41609577499286</v>
+        <v>16.44837175592129</v>
       </c>
       <c r="T5" t="n">
-        <v>32.61611369960246</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>82.41190291248505</v>
+        <v>261.5743437973387</v>
       </c>
       <c r="V5" t="n">
-        <v>85.38835182949789</v>
+        <v>22.97458069911351</v>
       </c>
       <c r="W5" t="n">
-        <v>27.39130435786546</v>
+        <v>20.72940423255137</v>
       </c>
       <c r="X5" t="n">
-        <v>17.69357748495195</v>
+        <v>71.33100440197559</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.1961042860313</v>
+        <v>79.14698872591931</v>
       </c>
       <c r="Z5" t="n">
-        <v>10.68799487233859</v>
+        <v>26.93629722445286</v>
       </c>
       <c r="AA5" t="n">
-        <v>11.71022368528406</v>
+        <v>32.06233986656265</v>
       </c>
       <c r="AB5" t="n">
-        <v>147.5077368445598</v>
+        <v>89.59056007839531</v>
       </c>
       <c r="AC5" t="n">
-        <v>22.90737875071817</v>
+        <v>47.04880492477939</v>
       </c>
       <c r="AD5" t="n">
-        <v>21.51804464664221</v>
+        <v>47.63885207456654</v>
       </c>
       <c r="AE5" t="n">
-        <v>26.1685984685833</v>
+        <v>22.16365354679125</v>
       </c>
       <c r="AF5" t="n">
-        <v>35.73924407256129</v>
+        <v>18.29835548830762</v>
       </c>
       <c r="AG5" t="n">
-        <v>76.49461245147552</v>
+        <v>143.009867331651</v>
       </c>
       <c r="AH5" t="n">
-        <v>13.52262746237563</v>
+        <v>62.08039255498913</v>
       </c>
       <c r="AI5" t="n">
-        <v>22.58556106551699</v>
+        <v>33.03505762835924</v>
       </c>
       <c r="AJ5" t="n">
-        <v>43.22153671244611</v>
+        <v>23.08423331286974</v>
       </c>
       <c r="AK5" t="n">
-        <v>11.88128394175974</v>
+        <v>47.09613294326265</v>
       </c>
       <c r="AL5" t="n">
-        <v>5.187553855778731</v>
+        <v>6.705599256270336</v>
       </c>
       <c r="AM5" t="n">
-        <v>4.670018579280082</v>
+        <v>25.31068955172488</v>
       </c>
       <c r="AN5" t="n">
-        <v>41.59601104798456</v>
+        <v>25.46273733998805</v>
       </c>
       <c r="AO5" t="n">
-        <v>18.02843318100485</v>
+        <v>15.30352824709007</v>
       </c>
       <c r="AP5" t="n">
-        <v>61.81824929408975</v>
+        <v>19.27885378715423</v>
       </c>
       <c r="AQ5" t="n">
-        <v>9.064522968954305</v>
+        <v>22.64799607399545</v>
       </c>
       <c r="AR5" t="n">
-        <v>12.04125014472304</v>
+        <v>23.90782791321388</v>
       </c>
       <c r="AS5" t="n">
-        <v>9.472831724632476</v>
+        <v>27.6349759058353</v>
       </c>
       <c r="AT5" t="n">
-        <v>10.07934465335843</v>
+        <v>24.53655923856081</v>
       </c>
       <c r="AU5" t="n">
-        <v>46.1334569752994</v>
+        <v>25.86964588577715</v>
       </c>
       <c r="AV5" t="n">
-        <v>13.35837048425736</v>
+        <v>13.5638001207484</v>
       </c>
       <c r="AW5" t="n">
-        <v>26.83497828765792</v>
+        <v>22.31668669567351</v>
       </c>
       <c r="AX5" t="n">
-        <v>59.68502461836225</v>
+        <v>28.72223209789492</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.871364039061235</v>
+        <v>2.412443450156254</v>
       </c>
       <c r="D6" t="n">
-        <v>3.721594309696783</v>
+        <v>2.194608980645615</v>
       </c>
       <c r="E6" t="n">
-        <v>7.280703044820723</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>7.088109706050638</v>
+        <v>0.07049381844237335</v>
       </c>
       <c r="G6" t="n">
-        <v>2.704621415064321</v>
+        <v>0.9403333106695557</v>
       </c>
       <c r="H6" t="n">
-        <v>1.549464894909533</v>
+        <v>7.982515406696626</v>
       </c>
       <c r="I6" t="n">
-        <v>6.615577833352219</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>13.83331025857547</v>
+        <v>86.30844506759132</v>
       </c>
       <c r="K6" t="n">
-        <v>3.830177838351584</v>
+        <v>8.90500254250429</v>
       </c>
       <c r="L6" t="n">
-        <v>11.69633117666759</v>
+        <v>55.97848570222914</v>
       </c>
       <c r="M6" t="n">
-        <v>10.26532668904423</v>
+        <v>14.03173273161397</v>
       </c>
       <c r="N6" t="n">
-        <v>23.0541120972517</v>
+        <v>39.32594387176168</v>
       </c>
       <c r="O6" t="n">
-        <v>16.68153076922049</v>
+        <v>30.14333713749321</v>
       </c>
       <c r="P6" t="n">
-        <v>16.32103919198113</v>
+        <v>25.11882871792109</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.66572194088021</v>
+        <v>29.08903345064969</v>
       </c>
       <c r="R6" t="n">
-        <v>26.54543923341782</v>
+        <v>20.00623829180789</v>
       </c>
       <c r="S6" t="n">
-        <v>23.41035846481364</v>
+        <v>24.98010481007277</v>
       </c>
       <c r="T6" t="n">
-        <v>10.75175863489919</v>
+        <v>65.30554820372335</v>
       </c>
       <c r="U6" t="n">
-        <v>59.58842112288382</v>
+        <v>20.8401306209757</v>
       </c>
       <c r="V6" t="n">
-        <v>59.20555564351363</v>
+        <v>18.02193917846113</v>
       </c>
       <c r="W6" t="n">
-        <v>20.32158229737866</v>
+        <v>28.88511620403565</v>
       </c>
       <c r="X6" t="n">
-        <v>9.532906719762765</v>
+        <v>16.49887612911293</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.0224658466798</v>
+        <v>26.34600780923065</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.59837190442233</v>
+        <v>14.19364352612048</v>
       </c>
       <c r="AA6" t="n">
-        <v>11.87257657554417</v>
+        <v>27.17661910233858</v>
       </c>
       <c r="AB6" t="n">
-        <v>26.54972560169403</v>
+        <v>14.0317569567146</v>
       </c>
       <c r="AC6" t="n">
-        <v>17.27697136103464</v>
+        <v>22.89539228861497</v>
       </c>
       <c r="AD6" t="n">
-        <v>18.84920277553424</v>
+        <v>16.54393527357751</v>
       </c>
       <c r="AE6" t="n">
-        <v>12.22744538558648</v>
+        <v>13.53041914325568</v>
       </c>
       <c r="AF6" t="n">
-        <v>13.04370816894905</v>
+        <v>9.387264885175789</v>
       </c>
       <c r="AG6" t="n">
-        <v>7.710214385598622</v>
+        <v>7.696738459159084</v>
       </c>
       <c r="AH6" t="n">
-        <v>28.41873120431837</v>
+        <v>9.861997701153012</v>
       </c>
       <c r="AI6" t="n">
-        <v>8.025282339182736</v>
+        <v>7.73735266433392</v>
       </c>
       <c r="AJ6" t="n">
-        <v>4.792779731410828</v>
+        <v>5.235191038760997</v>
       </c>
       <c r="AK6" t="n">
-        <v>22.24972693496908</v>
+        <v>4.58385251473379</v>
       </c>
       <c r="AL6" t="n">
-        <v>2.872525357745885</v>
+        <v>2.663568756275542</v>
       </c>
       <c r="AM6" t="n">
-        <v>3.531430845229747</v>
+        <v>10.64328329963627</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.039040235230205</v>
+        <v>2.420825385768917</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.06950417649338</v>
+        <v>2.585301035295751</v>
       </c>
       <c r="AP6" t="n">
-        <v>16.4327585328326</v>
+        <v>3.301762133262871</v>
       </c>
       <c r="AQ6" t="n">
-        <v>4.900936592520797</v>
+        <v>4.706287481719495</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.058581980273847</v>
+        <v>1.684948337534647</v>
       </c>
       <c r="AS6" t="n">
-        <v>3.954369288829135</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.782013610700633</v>
+        <v>2.829554822777834</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.063243092303761</v>
+        <v>0.04488698366493804</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.265635221349056</v>
+        <v>4.286153327098084</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.502811134339814</v>
+        <v>4.734464287940296</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.6756908748726586</v>
+        <v>2.963094783756637</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>9.92609909892686</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.220239809103917</v>
+        <v>6.267462579501858</v>
       </c>
       <c r="E7" t="n">
-        <v>9.294527705078684</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>10.53783957601448</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>7.631298901776066</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>10.51596795452144</v>
+        <v>42.32064693760162</v>
       </c>
       <c r="I7" t="n">
-        <v>23.71518450271683</v>
+        <v>10.8017933010467</v>
       </c>
       <c r="J7" t="n">
-        <v>14.14410118450967</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>34.31057731906243</v>
+        <v>58.54909396917237</v>
       </c>
       <c r="L7" t="n">
-        <v>31.3942492496174</v>
+        <v>13.08970324802543</v>
       </c>
       <c r="M7" t="n">
-        <v>20.79083151387065</v>
+        <v>26.53313070604371</v>
       </c>
       <c r="N7" t="n">
-        <v>20.40765475474945</v>
+        <v>23.90382130014041</v>
       </c>
       <c r="O7" t="n">
-        <v>34.42526838706142</v>
+        <v>75.02932027543437</v>
       </c>
       <c r="P7" t="n">
-        <v>50.14170809617769</v>
+        <v>40.75199206398108</v>
       </c>
       <c r="Q7" t="n">
-        <v>63.22031891910938</v>
+        <v>19.0047067245059</v>
       </c>
       <c r="R7" t="n">
-        <v>8.805446106990907</v>
+        <v>100.5694053992819</v>
       </c>
       <c r="S7" t="n">
-        <v>37.62563780465294</v>
+        <v>78.37259109595045</v>
       </c>
       <c r="T7" t="n">
-        <v>31.4360706993557</v>
+        <v>36.7310544841551</v>
       </c>
       <c r="U7" t="n">
-        <v>11.92992321723199</v>
+        <v>22.2636115304836</v>
       </c>
       <c r="V7" t="n">
-        <v>117.9170799860529</v>
+        <v>8.737132527162506</v>
       </c>
       <c r="W7" t="n">
-        <v>28.82057569085771</v>
+        <v>5.795357274396958</v>
       </c>
       <c r="X7" t="n">
-        <v>19.21295589857257</v>
+        <v>22.90700718703047</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.563145341826035</v>
+        <v>9.019025975221625</v>
       </c>
       <c r="Z7" t="n">
-        <v>30.91372329861419</v>
+        <v>2.943417634980444</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.571045455203148</v>
+        <v>0.249086947356151</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.556861774098259</v>
+        <v>13.45119330338241</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.7613443829534773</v>
+        <v>10.4401412331302</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.444454741522752</v>
+        <v>16.13451378903963</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.519980530964441</v>
+        <v>7.975984122091786</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.745398682363573</v>
+        <v>2.968686644741458</v>
       </c>
       <c r="AG7" t="n">
-        <v>28.77483507056309</v>
+        <v>1.608141373498185</v>
       </c>
       <c r="AH7" t="n">
-        <v>51.43365964327612</v>
+        <v>1.265906754751023</v>
       </c>
       <c r="AI7" t="n">
-        <v>53.4160538328312</v>
+        <v>5.062117463182238</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.56860260391556</v>
+        <v>7.89845426838899</v>
       </c>
       <c r="AK7" t="n">
-        <v>3.381333468378285</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>2.935453499892839</v>
+        <v>3.739852730862231</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.4870187711732016</v>
+        <v>2.790800682505385</v>
       </c>
       <c r="AN7" t="n">
-        <v>17.76722867726526</v>
+        <v>6.257737219664045</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.607367664030525</v>
+        <v>1.951709747381629</v>
       </c>
       <c r="AP7" t="n">
-        <v>9.231781102834086</v>
+        <v>3.894581320429407</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.102385003817068</v>
+        <v>3.186625621338686</v>
       </c>
       <c r="AR7" t="n">
-        <v>3.280214950862578</v>
+        <v>1.437226143728441</v>
       </c>
       <c r="AS7" t="n">
-        <v>24.33656325749794</v>
+        <v>1.714492781063494</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.869490181365264</v>
+        <v>0.1834251294784854</v>
       </c>
       <c r="AU7" t="n">
-        <v>4.590282341314182</v>
+        <v>0</v>
       </c>
       <c r="AV7" t="n">
-        <v>3.614357645950662</v>
+        <v>1.690420635369303</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.1967065757869385</v>
+        <v>13.20582618288478</v>
       </c>
       <c r="AX7" t="n">
-        <v>2.549027822760281</v>
+        <v>2.974564684488604</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>18.17914087166584</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>21.71901300500139</v>
+        <v>19.66099551150493</v>
       </c>
       <c r="E8" t="n">
-        <v>34.80042274469762</v>
+        <v>13.27311667631519</v>
       </c>
       <c r="F8" t="n">
-        <v>48.25746923109955</v>
+        <v>0.9050498603540511</v>
       </c>
       <c r="G8" t="n">
-        <v>56.89339063645566</v>
+        <v>40.72354300492755</v>
       </c>
       <c r="H8" t="n">
-        <v>21.72488545226296</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>44.89766255742712</v>
+        <v>192.3148588022355</v>
       </c>
       <c r="J8" t="n">
-        <v>17.65148462802704</v>
+        <v>2.377258483534391</v>
       </c>
       <c r="K8" t="n">
-        <v>104.1434987686485</v>
+        <v>41.00864787531246</v>
       </c>
       <c r="L8" t="n">
-        <v>42.31535690753118</v>
+        <v>51.65740742468046</v>
       </c>
       <c r="M8" t="n">
-        <v>86.80328344230441</v>
+        <v>26.59781202124393</v>
       </c>
       <c r="N8" t="n">
-        <v>76.01067197077083</v>
+        <v>55.42810162584166</v>
       </c>
       <c r="O8" t="n">
-        <v>60.5880905546598</v>
+        <v>81.81434288093986</v>
       </c>
       <c r="P8" t="n">
-        <v>176.1479820677033</v>
+        <v>27.77611266115269</v>
       </c>
       <c r="Q8" t="n">
-        <v>62.00188819449775</v>
+        <v>57.1007081157738</v>
       </c>
       <c r="R8" t="n">
-        <v>56.53412690228568</v>
+        <v>7.75240480402727</v>
       </c>
       <c r="S8" t="n">
-        <v>80.53752698796625</v>
+        <v>151.6976701905804</v>
       </c>
       <c r="T8" t="n">
-        <v>50.38302009024548</v>
+        <v>86.52860294714793</v>
       </c>
       <c r="U8" t="n">
-        <v>24.26455964248421</v>
+        <v>54.34173246884152</v>
       </c>
       <c r="V8" t="n">
-        <v>59.2824159178652</v>
+        <v>15.27372826872921</v>
       </c>
       <c r="W8" t="n">
-        <v>64.56673313830466</v>
+        <v>47.13579874176305</v>
       </c>
       <c r="X8" t="n">
-        <v>89.1172656714018</v>
+        <v>85.67843777048105</v>
       </c>
       <c r="Y8" t="n">
-        <v>57.2975821788237</v>
+        <v>129.2336282477696</v>
       </c>
       <c r="Z8" t="n">
-        <v>99.58455975912392</v>
+        <v>42.93431015533605</v>
       </c>
       <c r="AA8" t="n">
-        <v>75.33653364199115</v>
+        <v>52.91791064249696</v>
       </c>
       <c r="AB8" t="n">
-        <v>252.5480665786478</v>
+        <v>110.3396942147581</v>
       </c>
       <c r="AC8" t="n">
-        <v>60.27387327749311</v>
+        <v>117.4200431855418</v>
       </c>
       <c r="AD8" t="n">
-        <v>112.8533656991672</v>
+        <v>164.7843739326622</v>
       </c>
       <c r="AE8" t="n">
-        <v>195.690135579151</v>
+        <v>142.1272222709873</v>
       </c>
       <c r="AF8" t="n">
-        <v>78.44319009418227</v>
+        <v>80.90636587794332</v>
       </c>
       <c r="AG8" t="n">
-        <v>144.3456483550339</v>
+        <v>106.2777452734816</v>
       </c>
       <c r="AH8" t="n">
-        <v>76.69892954506523</v>
+        <v>171.3874069145101</v>
       </c>
       <c r="AI8" t="n">
-        <v>92.93286810119953</v>
+        <v>58.86268102410575</v>
       </c>
       <c r="AJ8" t="n">
-        <v>138.0674918616183</v>
+        <v>42.10550890054124</v>
       </c>
       <c r="AK8" t="n">
-        <v>36.48574507048267</v>
+        <v>40.99169612318639</v>
       </c>
       <c r="AL8" t="n">
-        <v>42.74361418859062</v>
+        <v>31.46560332084305</v>
       </c>
       <c r="AM8" t="n">
-        <v>157.145969845923</v>
+        <v>30.87876381066641</v>
       </c>
       <c r="AN8" t="n">
-        <v>23.42135678700265</v>
+        <v>12.65469913297096</v>
       </c>
       <c r="AO8" t="n">
-        <v>26.79656955561902</v>
+        <v>26.32059179330636</v>
       </c>
       <c r="AP8" t="n">
-        <v>33.26589917748449</v>
+        <v>41.57828831220374</v>
       </c>
       <c r="AQ8" t="n">
-        <v>30.75185863054345</v>
+        <v>42.15599647320257</v>
       </c>
       <c r="AR8" t="n">
-        <v>25.60974468173666</v>
+        <v>26.82712304268565</v>
       </c>
       <c r="AS8" t="n">
-        <v>35.49523067222464</v>
+        <v>11.65965385035518</v>
       </c>
       <c r="AT8" t="n">
-        <v>15.22112280404969</v>
+        <v>23.98828996669631</v>
       </c>
       <c r="AU8" t="n">
-        <v>31.53497284602751</v>
+        <v>21.49938829510799</v>
       </c>
       <c r="AV8" t="n">
-        <v>22.98467238986036</v>
+        <v>16.17402627177711</v>
       </c>
       <c r="AW8" t="n">
-        <v>22.25179931755913</v>
+        <v>10.45652344573215</v>
       </c>
       <c r="AX8" t="n">
-        <v>30.33250549347199</v>
+        <v>16.82760058669257</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6761492763354906</v>
+        <v>2.491482172282137</v>
       </c>
       <c r="D9" t="n">
-        <v>1.007322872325759</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>5.326369801616898</v>
+        <v>2.980092114994675</v>
       </c>
       <c r="F9" t="n">
-        <v>1.645216647168877</v>
+        <v>1.125199374824018</v>
       </c>
       <c r="G9" t="n">
-        <v>15.041683018707</v>
+        <v>1.20805435486946</v>
       </c>
       <c r="H9" t="n">
-        <v>1.694825143784962</v>
+        <v>5.276743494114697</v>
       </c>
       <c r="I9" t="n">
-        <v>8.150072177448767</v>
+        <v>2.562081542479768</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6632122923369533</v>
+        <v>3.730215121053663</v>
       </c>
       <c r="K9" t="n">
-        <v>8.589533651887352</v>
+        <v>3.719588266378743</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6737754297070978</v>
+        <v>3.290904492654372</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4814830975057675</v>
+        <v>2.7429298377286</v>
       </c>
       <c r="N9" t="n">
-        <v>2.755339026122622</v>
+        <v>2.135170008158581</v>
       </c>
       <c r="O9" t="n">
-        <v>4.19356902347499</v>
+        <v>1.402382262106465</v>
       </c>
       <c r="P9" t="n">
-        <v>1.750318444831613</v>
+        <v>2.404627165743675</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.912233069631224</v>
+        <v>1.64217274563535</v>
       </c>
       <c r="R9" t="n">
-        <v>11.09304927425379</v>
+        <v>4.342362308419222</v>
       </c>
       <c r="S9" t="n">
-        <v>1.991571378143344</v>
+        <v>4.837353293656868</v>
       </c>
       <c r="T9" t="n">
-        <v>1.058558298014676</v>
+        <v>6.610097046258846</v>
       </c>
       <c r="U9" t="n">
-        <v>2.430801592388671</v>
+        <v>3.435815477904432</v>
       </c>
       <c r="V9" t="n">
-        <v>3.129905230709485</v>
+        <v>1.920205803558263</v>
       </c>
       <c r="W9" t="n">
-        <v>2.172950439955823</v>
+        <v>3.01667767589963</v>
       </c>
       <c r="X9" t="n">
-        <v>6.254483092969632</v>
+        <v>7.971718625750702</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.723918869648095</v>
+        <v>5.269322617807961</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.539747947841866</v>
+        <v>4.194157194126388</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.396152882919098</v>
+        <v>6.985576809049408</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.770125026112331</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.691218941986911</v>
+        <v>4.383419920071266</v>
       </c>
       <c r="AD9" t="n">
-        <v>4.999262952763</v>
+        <v>7.106195496926794</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.85891606439148</v>
+        <v>6.39089498682837</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.129907848256117</v>
+        <v>5.231911916522026</v>
       </c>
       <c r="AG9" t="n">
-        <v>4.59359403398302</v>
+        <v>3.628054303990996</v>
       </c>
       <c r="AH9" t="n">
-        <v>3.696431369152492</v>
+        <v>6.711170605077514</v>
       </c>
       <c r="AI9" t="n">
-        <v>7.917017754543543</v>
+        <v>6.312872721115568</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3.310461062747902</v>
+        <v>6.757106821140649</v>
       </c>
       <c r="AK9" t="n">
-        <v>4.663114782457706</v>
+        <v>7.997045909274591</v>
       </c>
       <c r="AL9" t="n">
-        <v>2.406841785640356</v>
+        <v>2.283685020081451</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.536473215204222</v>
+        <v>1.111767752731692</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.417213585323159</v>
+        <v>3.044235375149987</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.754427486762885</v>
+        <v>2.246626479022219</v>
       </c>
       <c r="AP9" t="n">
-        <v>5.739553095916687</v>
+        <v>2.433200137565075</v>
       </c>
       <c r="AQ9" t="n">
-        <v>4.217293069497355</v>
+        <v>3.494435831877683</v>
       </c>
       <c r="AR9" t="n">
-        <v>4.238881559580574</v>
+        <v>2.362625984729223</v>
       </c>
       <c r="AS9" t="n">
-        <v>4.532381278881367</v>
+        <v>5.63141581172164</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.710994793794051</v>
+        <v>3.113935148640863</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.23525301424786</v>
+        <v>0.459611165338606</v>
       </c>
       <c r="AV9" t="n">
-        <v>10.69344950007331</v>
+        <v>3.334348120985493</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.4054854761612746</v>
+        <v>5.250124215474575</v>
       </c>
       <c r="AX9" t="n">
-        <v>2.518731443054679</v>
+        <v>2.215929003610606</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>16.59529134832242</v>
+        <v>8.834844980798742</v>
       </c>
       <c r="D10" t="n">
-        <v>24.67492412548168</v>
+        <v>13.01207940003346</v>
       </c>
       <c r="E10" t="n">
-        <v>3.976474338669296</v>
+        <v>6.358632380815863</v>
       </c>
       <c r="F10" t="n">
-        <v>6.002219149939015</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>4.960339291464612</v>
+        <v>34.56853398800255</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28014045194444</v>
+        <v>13.26477591736398</v>
       </c>
       <c r="I10" t="n">
-        <v>24.03644875568544</v>
+        <v>24.81929317848208</v>
       </c>
       <c r="J10" t="n">
-        <v>14.18981308376894</v>
+        <v>32.33833938214048</v>
       </c>
       <c r="K10" t="n">
-        <v>42.51389800691415</v>
+        <v>33.71696605165219</v>
       </c>
       <c r="L10" t="n">
-        <v>59.48316562282704</v>
+        <v>52.06530135070262</v>
       </c>
       <c r="M10" t="n">
-        <v>37.80309989580235</v>
+        <v>114.7064562589599</v>
       </c>
       <c r="N10" t="n">
-        <v>45.87141294190015</v>
+        <v>199.8020906746488</v>
       </c>
       <c r="O10" t="n">
-        <v>61.65421959504692</v>
+        <v>101.8128776302315</v>
       </c>
       <c r="P10" t="n">
-        <v>26.9177301150614</v>
+        <v>57.06256475789122</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.64779789577676</v>
+        <v>68.47156148375373</v>
       </c>
       <c r="R10" t="n">
-        <v>107.7155218551183</v>
+        <v>19.5087174440074</v>
       </c>
       <c r="S10" t="n">
-        <v>100.0189423951285</v>
+        <v>89.20137519970113</v>
       </c>
       <c r="T10" t="n">
-        <v>49.5638332138013</v>
+        <v>41.45403941096845</v>
       </c>
       <c r="U10" t="n">
-        <v>79.88657169470459</v>
+        <v>94.12891637818879</v>
       </c>
       <c r="V10" t="n">
-        <v>101.1536099046334</v>
+        <v>15.70800689446493</v>
       </c>
       <c r="W10" t="n">
-        <v>61.08859646430492</v>
+        <v>42.27546163921932</v>
       </c>
       <c r="X10" t="n">
-        <v>32.79906650673195</v>
+        <v>37.3807585908207</v>
       </c>
       <c r="Y10" t="n">
-        <v>56.76733013380528</v>
+        <v>91.95131467763613</v>
       </c>
       <c r="Z10" t="n">
-        <v>109.4952865141238</v>
+        <v>88.84188344180366</v>
       </c>
       <c r="AA10" t="n">
-        <v>50.90132191417452</v>
+        <v>63.96631160516387</v>
       </c>
       <c r="AB10" t="n">
-        <v>25.45984297245437</v>
+        <v>78.98445815038205</v>
       </c>
       <c r="AC10" t="n">
-        <v>102.6025597985154</v>
+        <v>77.13367362998423</v>
       </c>
       <c r="AD10" t="n">
-        <v>112.9568483717433</v>
+        <v>183.0796817032102</v>
       </c>
       <c r="AE10" t="n">
-        <v>85.33037868799705</v>
+        <v>66.0753552125843</v>
       </c>
       <c r="AF10" t="n">
-        <v>72.76625498628574</v>
+        <v>70.21746703424594</v>
       </c>
       <c r="AG10" t="n">
-        <v>59.92970187387979</v>
+        <v>52.96795440253995</v>
       </c>
       <c r="AH10" t="n">
-        <v>31.22633988793604</v>
+        <v>53.69326347567544</v>
       </c>
       <c r="AI10" t="n">
-        <v>70.10811190701658</v>
+        <v>20.29028043569435</v>
       </c>
       <c r="AJ10" t="n">
-        <v>28.12583489403783</v>
+        <v>23.34532595621134</v>
       </c>
       <c r="AK10" t="n">
-        <v>22.49031199274064</v>
+        <v>16.43520369032211</v>
       </c>
       <c r="AL10" t="n">
-        <v>15.44172569275191</v>
+        <v>9.711820727654649</v>
       </c>
       <c r="AM10" t="n">
-        <v>56.12242448558567</v>
+        <v>45.78190613079536</v>
       </c>
       <c r="AN10" t="n">
-        <v>16.08775807495462</v>
+        <v>11.83801306754718</v>
       </c>
       <c r="AO10" t="n">
-        <v>25.17351231515535</v>
+        <v>17.38375651774206</v>
       </c>
       <c r="AP10" t="n">
-        <v>19.47004136120475</v>
+        <v>27.77765050373872</v>
       </c>
       <c r="AQ10" t="n">
-        <v>16.91553155545319</v>
+        <v>35.92937365201379</v>
       </c>
       <c r="AR10" t="n">
-        <v>18.62439483598386</v>
+        <v>12.52392980003503</v>
       </c>
       <c r="AS10" t="n">
-        <v>20.36720892488454</v>
+        <v>23.75773966742485</v>
       </c>
       <c r="AT10" t="n">
-        <v>24.35195711932409</v>
+        <v>20.90503456636337</v>
       </c>
       <c r="AU10" t="n">
-        <v>14.7578765389675</v>
+        <v>61.43504383896911</v>
       </c>
       <c r="AV10" t="n">
-        <v>10.66181988918638</v>
+        <v>8.950209907652226</v>
       </c>
       <c r="AW10" t="n">
-        <v>17.80595429003208</v>
+        <v>10.44392316602848</v>
       </c>
       <c r="AX10" t="n">
-        <v>5.388978836335768</v>
+        <v>8.505011236848015</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>22.55474937949254</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>31.08836579466396</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>23.98995553901163</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>16.89050147988963</v>
+        <v>13.20049475477665</v>
       </c>
       <c r="G11" t="n">
-        <v>19.87172299591686</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>32.83053701303224</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>123.1933763270623</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>17.51091566725654</v>
+        <v>37.28107774015979</v>
       </c>
       <c r="K11" t="n">
-        <v>11.8805788901132</v>
+        <v>11.12240832256967</v>
       </c>
       <c r="L11" t="n">
-        <v>50.11416791017113</v>
+        <v>11.10604443441237</v>
       </c>
       <c r="M11" t="n">
-        <v>17.98318282208299</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>27.8135688096287</v>
+        <v>59.55139136693144</v>
       </c>
       <c r="O11" t="n">
-        <v>52.68559282139532</v>
+        <v>8.594112299771488</v>
       </c>
       <c r="P11" t="n">
-        <v>68.70341354224358</v>
+        <v>33.83163120519706</v>
       </c>
       <c r="Q11" t="n">
-        <v>79.32353202075035</v>
+        <v>31.19362883151513</v>
       </c>
       <c r="R11" t="n">
-        <v>114.3365907105426</v>
+        <v>58.94033846327039</v>
       </c>
       <c r="S11" t="n">
-        <v>90.09425885322996</v>
+        <v>64.0234310483695</v>
       </c>
       <c r="T11" t="n">
-        <v>84.0800322055636</v>
+        <v>35.73733278558495</v>
       </c>
       <c r="U11" t="n">
-        <v>47.10734046526905</v>
+        <v>91.86894481180117</v>
       </c>
       <c r="V11" t="n">
-        <v>57.64287067346928</v>
+        <v>38.43278711215704</v>
       </c>
       <c r="W11" t="n">
-        <v>19.7043760465669</v>
+        <v>109.2665391820781</v>
       </c>
       <c r="X11" t="n">
-        <v>72.59214374488857</v>
+        <v>46.41507724805169</v>
       </c>
       <c r="Y11" t="n">
-        <v>24.87730363873566</v>
+        <v>54.96714108584471</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.54688936730581</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>70.83700543699177</v>
+        <v>27.91814492850897</v>
       </c>
       <c r="AB11" t="n">
-        <v>24.42542760790978</v>
+        <v>10.92864880037563</v>
       </c>
       <c r="AC11" t="n">
-        <v>21.06697591541012</v>
+        <v>40.39644213550694</v>
       </c>
       <c r="AD11" t="n">
-        <v>13.50294854663194</v>
+        <v>88.92929099063619</v>
       </c>
       <c r="AE11" t="n">
-        <v>24.31119713193142</v>
+        <v>50.48705660450092</v>
       </c>
       <c r="AF11" t="n">
-        <v>35.43477942541598</v>
+        <v>22.65417565762697</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.16687773720453</v>
+        <v>30.41871719199103</v>
       </c>
       <c r="AH11" t="n">
-        <v>93.71756202838823</v>
+        <v>9.475750605851921</v>
       </c>
       <c r="AI11" t="n">
-        <v>69.65645594908293</v>
+        <v>43.23851455277158</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23.92928338685076</v>
+        <v>24.89846560030034</v>
       </c>
       <c r="AK11" t="n">
-        <v>102.325332043483</v>
+        <v>15.13211295903602</v>
       </c>
       <c r="AL11" t="n">
-        <v>40.77708064611785</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.788661387674608</v>
+        <v>33.9793660065593</v>
       </c>
       <c r="AN11" t="n">
-        <v>16.0303392768469</v>
+        <v>24.24760581367131</v>
       </c>
       <c r="AO11" t="n">
-        <v>21.94704845275153</v>
+        <v>15.9782563585848</v>
       </c>
       <c r="AP11" t="n">
-        <v>17.16325315015905</v>
+        <v>28.14312498233618</v>
       </c>
       <c r="AQ11" t="n">
-        <v>21.73802299186436</v>
+        <v>30.78342416264064</v>
       </c>
       <c r="AR11" t="n">
-        <v>23.31105145146858</v>
+        <v>14.57444917717051</v>
       </c>
       <c r="AS11" t="n">
-        <v>24.63619427324288</v>
+        <v>22.64807149430429</v>
       </c>
       <c r="AT11" t="n">
-        <v>30.06878235453128</v>
+        <v>35.74908549013351</v>
       </c>
       <c r="AU11" t="n">
-        <v>22.02150114932962</v>
+        <v>0.1403257648136035</v>
       </c>
       <c r="AV11" t="n">
-        <v>47.21016454875505</v>
+        <v>15.03508046482131</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.981336251095576</v>
+        <v>10.38353866950115</v>
       </c>
       <c r="AX11" t="n">
-        <v>16.17952696089127</v>
+        <v>18.36814248578788</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>2.521534955681514</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.766662010061304</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2.292997869415113</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>7.595127137686204</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7443238967144733</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8799071153110286</v>
+        <v>8.878692530066221</v>
       </c>
       <c r="I12" t="n">
-        <v>9.526489880966549</v>
+        <v>61.39642990216741</v>
       </c>
       <c r="J12" t="n">
-        <v>19.83746285675105</v>
+        <v>66.03222626509834</v>
       </c>
       <c r="K12" t="n">
-        <v>17.25451010246644</v>
+        <v>62.27988652127518</v>
       </c>
       <c r="L12" t="n">
-        <v>48.48057672820117</v>
+        <v>48.38162067518676</v>
       </c>
       <c r="M12" t="n">
-        <v>25.74397183712446</v>
+        <v>67.67153261977515</v>
       </c>
       <c r="N12" t="n">
-        <v>44.51979281100915</v>
+        <v>9.745384258910871</v>
       </c>
       <c r="O12" t="n">
-        <v>45.15749903825166</v>
+        <v>14.22212541344501</v>
       </c>
       <c r="P12" t="n">
-        <v>12.3331205649631</v>
+        <v>57.44627208547679</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.2252871047832</v>
+        <v>31.755031245995</v>
       </c>
       <c r="R12" t="n">
-        <v>19.78400995982961</v>
+        <v>16.11130039926865</v>
       </c>
       <c r="S12" t="n">
-        <v>11.61421604043917</v>
+        <v>8.303859413467336</v>
       </c>
       <c r="T12" t="n">
-        <v>37.39944168527073</v>
+        <v>43.40162962611299</v>
       </c>
       <c r="U12" t="n">
-        <v>71.42227275808881</v>
+        <v>14.38426539126197</v>
       </c>
       <c r="V12" t="n">
-        <v>26.85574658414224</v>
+        <v>15.6055086930469</v>
       </c>
       <c r="W12" t="n">
-        <v>22.08691373045361</v>
+        <v>11.82314562164007</v>
       </c>
       <c r="X12" t="n">
-        <v>21.57973990154847</v>
+        <v>74.3001460882905</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.42674329863215</v>
+        <v>83.30762212294979</v>
       </c>
       <c r="Z12" t="n">
-        <v>15.89891251698934</v>
+        <v>37.9222090576137</v>
       </c>
       <c r="AA12" t="n">
-        <v>10.45973269599901</v>
+        <v>17.96733832781245</v>
       </c>
       <c r="AB12" t="n">
-        <v>17.62529713930571</v>
+        <v>15.50489322834793</v>
       </c>
       <c r="AC12" t="n">
-        <v>18.12354627037391</v>
+        <v>14.00363681946041</v>
       </c>
       <c r="AD12" t="n">
-        <v>20.5582771964002</v>
+        <v>21.48648471762144</v>
       </c>
       <c r="AE12" t="n">
-        <v>13.30347261289285</v>
+        <v>25.07551659962467</v>
       </c>
       <c r="AF12" t="n">
-        <v>29.00962557147448</v>
+        <v>8.609736813573454</v>
       </c>
       <c r="AG12" t="n">
-        <v>25.73104431159081</v>
+        <v>23.35063019332965</v>
       </c>
       <c r="AH12" t="n">
-        <v>17.41137728491577</v>
+        <v>26.53177429275438</v>
       </c>
       <c r="AI12" t="n">
-        <v>11.06312982056626</v>
+        <v>15.12484112226762</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3.701887428558134</v>
+        <v>17.24813430200034</v>
       </c>
       <c r="AK12" t="n">
-        <v>17.23595896868303</v>
+        <v>5.064291424577129</v>
       </c>
       <c r="AL12" t="n">
-        <v>2.091133173266291</v>
+        <v>1.939677842485672</v>
       </c>
       <c r="AM12" t="n">
-        <v>3.960873847195647</v>
+        <v>8.72294132902832</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.050266023264336</v>
+        <v>12.93781740335103</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.012055175269612</v>
+        <v>6.357192337072143</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.08277787403556</v>
+        <v>4.517977717015761</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.485672962401308</v>
+        <v>9.54076112168068</v>
       </c>
       <c r="AR12" t="n">
-        <v>5.84746653911145</v>
+        <v>5.22229804858199</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.096293737462232</v>
+        <v>5.389661924179058</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.4332201543687</v>
+        <v>3.758844424882749</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.4304278921736519</v>
+        <v>5.997574011830332</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.4387815596055145</v>
+        <v>2.54493145545127</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.1729333007337931</v>
+        <v>1.598122232335065</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.7182909630803418</v>
+        <v>5.660426666403926</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>2.641493478266114</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>17.63558270633755</v>
+        <v>0.09287683913991085</v>
       </c>
       <c r="E13" t="n">
-        <v>19.86377461533851</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>14.09902919107563</v>
+        <v>35.59618316874118</v>
       </c>
       <c r="G13" t="n">
-        <v>2.010474437757717</v>
+        <v>7.338868246751971</v>
       </c>
       <c r="H13" t="n">
-        <v>58.49691296669745</v>
+        <v>6.690523465961604</v>
       </c>
       <c r="I13" t="n">
-        <v>9.558616030090112</v>
+        <v>5.570231112092857</v>
       </c>
       <c r="J13" t="n">
-        <v>2.377840286807146</v>
+        <v>35.66973753886438</v>
       </c>
       <c r="K13" t="n">
-        <v>26.8764105085862</v>
+        <v>0.4074143721362402</v>
       </c>
       <c r="L13" t="n">
-        <v>80.99584832807648</v>
+        <v>57.01796835622964</v>
       </c>
       <c r="M13" t="n">
-        <v>30.92246359069645</v>
+        <v>30.74237843461959</v>
       </c>
       <c r="N13" t="n">
-        <v>3.0302835826118</v>
+        <v>2.722913991302772</v>
       </c>
       <c r="O13" t="n">
-        <v>86.56818480235785</v>
+        <v>29.58621486706141</v>
       </c>
       <c r="P13" t="n">
-        <v>6.397944654809958</v>
+        <v>39.068308346393</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.94243614735545</v>
+        <v>25.78808629307553</v>
       </c>
       <c r="R13" t="n">
-        <v>105.2135157245206</v>
+        <v>29.0786825017343</v>
       </c>
       <c r="S13" t="n">
-        <v>7.985612059404529</v>
+        <v>12.41123236099718</v>
       </c>
       <c r="T13" t="n">
-        <v>28.437459893376</v>
+        <v>53.28240335551757</v>
       </c>
       <c r="U13" t="n">
-        <v>15.5611245154618</v>
+        <v>5.931599522161471</v>
       </c>
       <c r="V13" t="n">
-        <v>8.237073505171912</v>
+        <v>35.94951250535146</v>
       </c>
       <c r="W13" t="n">
-        <v>13.93920470531489</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>15.92701874221177</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.646807188137753</v>
+        <v>15.63482931767084</v>
       </c>
       <c r="Z13" t="n">
-        <v>24.14298472290992</v>
+        <v>19.04054881962228</v>
       </c>
       <c r="AA13" t="n">
-        <v>4.375566715936051</v>
+        <v>5.776739413316467</v>
       </c>
       <c r="AB13" t="n">
-        <v>6.115843567225554</v>
+        <v>26.32291776758116</v>
       </c>
       <c r="AC13" t="n">
-        <v>11.46091946914015</v>
+        <v>68.91821100653654</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.453935867210339</v>
+        <v>51.02228271805409</v>
       </c>
       <c r="AE13" t="n">
-        <v>20.16747099919336</v>
+        <v>16.26361915105904</v>
       </c>
       <c r="AF13" t="n">
-        <v>26.5831732757466</v>
+        <v>6.565685047535485</v>
       </c>
       <c r="AG13" t="n">
-        <v>5.283531505483205</v>
+        <v>9.811083758669179</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.734400743303206</v>
+        <v>4.522745601693594</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.7504721342190617</v>
+        <v>3.094575688579494</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.5865080727983645</v>
+        <v>9.000331091544208</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.9802907181602828</v>
+        <v>43.52896279843218</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.6453241210894956</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>5.040368751993745</v>
+        <v>16.13481603381625</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.6116626588432403</v>
+        <v>1.098660309015919</v>
       </c>
       <c r="AO13" t="n">
-        <v>4.174460171608547</v>
+        <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.096703249896646</v>
+        <v>12.19674632814547</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.287945138320188</v>
+        <v>4.591930608732575</v>
       </c>
       <c r="AR13" t="n">
-        <v>10.53574950572564</v>
+        <v>12.24427932202481</v>
       </c>
       <c r="AS13" t="n">
-        <v>7.131468870034333</v>
+        <v>2.896805172544787</v>
       </c>
       <c r="AT13" t="n">
-        <v>7.917988195962637</v>
+        <v>23.11635921352374</v>
       </c>
       <c r="AU13" t="n">
-        <v>1.027343115866583</v>
+        <v>0</v>
       </c>
       <c r="AV13" t="n">
-        <v>8.267420097840537</v>
+        <v>3.326344703157913</v>
       </c>
       <c r="AW13" t="n">
-        <v>8.238411756650908</v>
+        <v>3.736310461294442</v>
       </c>
       <c r="AX13" t="n">
-        <v>2.842073130718741</v>
+        <v>4.153877557543829</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>25.356834194264</v>
+        <v>9.158131521846633</v>
       </c>
       <c r="D14" t="n">
-        <v>17.45736124900597</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>29.92813583800228</v>
+        <v>20.57603445690737</v>
       </c>
       <c r="F14" t="n">
-        <v>26.29334551906062</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>20.21622588413767</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>12.87045561519435</v>
+        <v>6.100820645476574</v>
       </c>
       <c r="I14" t="n">
-        <v>39.69465909943285</v>
+        <v>44.4473930229239</v>
       </c>
       <c r="J14" t="n">
-        <v>7.659266931327437</v>
+        <v>53.80651005242925</v>
       </c>
       <c r="K14" t="n">
-        <v>42.5866773130846</v>
+        <v>30.30940261465184</v>
       </c>
       <c r="L14" t="n">
-        <v>30.84989813408308</v>
+        <v>52.23903525368821</v>
       </c>
       <c r="M14" t="n">
-        <v>80.25848742354498</v>
+        <v>79.90500903610945</v>
       </c>
       <c r="N14" t="n">
-        <v>51.02928281169443</v>
+        <v>57.83544265026087</v>
       </c>
       <c r="O14" t="n">
-        <v>106.3281220252371</v>
+        <v>104.5133363913667</v>
       </c>
       <c r="P14" t="n">
-        <v>48.25504835271622</v>
+        <v>13.27201413921325</v>
       </c>
       <c r="Q14" t="n">
-        <v>31.68095125882783</v>
+        <v>5.355020109379474</v>
       </c>
       <c r="R14" t="n">
-        <v>32.36064934558711</v>
+        <v>26.70078757889495</v>
       </c>
       <c r="S14" t="n">
-        <v>82.24931221161866</v>
+        <v>40.67598412377586</v>
       </c>
       <c r="T14" t="n">
-        <v>211.7754646883881</v>
+        <v>6.839288991844793</v>
       </c>
       <c r="U14" t="n">
-        <v>87.64275928552691</v>
+        <v>50.30250702020714</v>
       </c>
       <c r="V14" t="n">
-        <v>102.7360791590148</v>
+        <v>46.93641674302237</v>
       </c>
       <c r="W14" t="n">
-        <v>72.93649050777893</v>
+        <v>61.18762639242128</v>
       </c>
       <c r="X14" t="n">
-        <v>36.96134458729936</v>
+        <v>83.33339572350279</v>
       </c>
       <c r="Y14" t="n">
-        <v>102.2283552825245</v>
+        <v>47.95197951482134</v>
       </c>
       <c r="Z14" t="n">
-        <v>53.08828867050084</v>
+        <v>59.78787362677737</v>
       </c>
       <c r="AA14" t="n">
-        <v>175.2190704079446</v>
+        <v>59.67896216906122</v>
       </c>
       <c r="AB14" t="n">
-        <v>65.22486717181846</v>
+        <v>51.28345935455019</v>
       </c>
       <c r="AC14" t="n">
-        <v>116.825246656445</v>
+        <v>103.353781970149</v>
       </c>
       <c r="AD14" t="n">
-        <v>46.96454945106856</v>
+        <v>104.230850227072</v>
       </c>
       <c r="AE14" t="n">
-        <v>108.5881025004321</v>
+        <v>113.8554534076651</v>
       </c>
       <c r="AF14" t="n">
-        <v>76.27519637907942</v>
+        <v>94.41941898068737</v>
       </c>
       <c r="AG14" t="n">
-        <v>110.5051869411369</v>
+        <v>194.4178868042648</v>
       </c>
       <c r="AH14" t="n">
-        <v>57.31466301928041</v>
+        <v>141.3149184089673</v>
       </c>
       <c r="AI14" t="n">
-        <v>52.57196995643417</v>
+        <v>185.1640264087518</v>
       </c>
       <c r="AJ14" t="n">
-        <v>56.58008465659967</v>
+        <v>68.03146279459891</v>
       </c>
       <c r="AK14" t="n">
-        <v>64.13633933928432</v>
+        <v>86.23193349598128</v>
       </c>
       <c r="AL14" t="n">
-        <v>32.05584356311206</v>
+        <v>30.06861802368745</v>
       </c>
       <c r="AM14" t="n">
-        <v>22.46687373043854</v>
+        <v>42.75877751162128</v>
       </c>
       <c r="AN14" t="n">
-        <v>26.27190213208062</v>
+        <v>41.5340398117882</v>
       </c>
       <c r="AO14" t="n">
-        <v>27.76907063628587</v>
+        <v>33.2641751299025</v>
       </c>
       <c r="AP14" t="n">
-        <v>35.84280036930989</v>
+        <v>20.70575545628852</v>
       </c>
       <c r="AQ14" t="n">
-        <v>22.82888040692709</v>
+        <v>23.60868371621609</v>
       </c>
       <c r="AR14" t="n">
-        <v>31.52091339875761</v>
+        <v>22.42159646023471</v>
       </c>
       <c r="AS14" t="n">
-        <v>26.77440678625767</v>
+        <v>19.76176477763812</v>
       </c>
       <c r="AT14" t="n">
-        <v>20.58592582736521</v>
+        <v>13.43135869706435</v>
       </c>
       <c r="AU14" t="n">
-        <v>11.16023560757382</v>
+        <v>32.78926730455843</v>
       </c>
       <c r="AV14" t="n">
-        <v>20.61201977506128</v>
+        <v>23.37950409626959</v>
       </c>
       <c r="AW14" t="n">
-        <v>29.29571403029073</v>
+        <v>7.234182598847398</v>
       </c>
       <c r="AX14" t="n">
-        <v>27.15284682545476</v>
+        <v>16.51761807240194</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5857908256465314</v>
+        <v>11.67763871306182</v>
       </c>
       <c r="D15" t="n">
-        <v>20.09805249734275</v>
+        <v>2.344427333023397</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3340513886429199</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.11205147144406</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.09102950897861</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3597727738288903</v>
+        <v>6.346938236552084</v>
       </c>
       <c r="I15" t="n">
-        <v>5.46622781917267</v>
+        <v>3.946043571658406</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1146492702485979</v>
+        <v>3.988898614735029</v>
       </c>
       <c r="K15" t="n">
-        <v>1.348770545717587</v>
+        <v>0.7021302355071082</v>
       </c>
       <c r="L15" t="n">
-        <v>1.499038783229615</v>
+        <v>7.656706262637876</v>
       </c>
       <c r="M15" t="n">
-        <v>6.055177946482464</v>
+        <v>5.305157455526468</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9899142373615719</v>
+        <v>5.447441531747241</v>
       </c>
       <c r="O15" t="n">
-        <v>2.255520854227718</v>
+        <v>3.656871063294783</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7636463700864058</v>
+        <v>7.590201644963942</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.098821952327524</v>
+        <v>2.079078917765925</v>
       </c>
       <c r="R15" t="n">
-        <v>5.632368683368299</v>
+        <v>5.053807390550569</v>
       </c>
       <c r="S15" t="n">
-        <v>4.256518013502743</v>
+        <v>6.920664177147719</v>
       </c>
       <c r="T15" t="n">
-        <v>7.926504667477236</v>
+        <v>2.872156513258473</v>
       </c>
       <c r="U15" t="n">
-        <v>5.425036718662471</v>
+        <v>2.592099423519723</v>
       </c>
       <c r="V15" t="n">
-        <v>2.751587445255405</v>
+        <v>6.480211970257479</v>
       </c>
       <c r="W15" t="n">
-        <v>1.78285127759257</v>
+        <v>6.060437938984958</v>
       </c>
       <c r="X15" t="n">
-        <v>11.20535363215457</v>
+        <v>4.22143126484977</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.173863231679388</v>
+        <v>3.752839521328282</v>
       </c>
       <c r="Z15" t="n">
-        <v>11.66916085341932</v>
+        <v>6.123844514139376</v>
       </c>
       <c r="AA15" t="n">
-        <v>3.677853968519693</v>
+        <v>4.655148426774927</v>
       </c>
       <c r="AB15" t="n">
-        <v>5.633836836025778</v>
+        <v>4.655885033346766</v>
       </c>
       <c r="AC15" t="n">
-        <v>5.291895737712307</v>
+        <v>6.175814933353704</v>
       </c>
       <c r="AD15" t="n">
-        <v>10.47872839121117</v>
+        <v>5.421257812194908</v>
       </c>
       <c r="AE15" t="n">
-        <v>5.147829008153322</v>
+        <v>8.281337022035526</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.226584969984136</v>
+        <v>5.488944884282111</v>
       </c>
       <c r="AG15" t="n">
-        <v>4.924663791365726</v>
+        <v>6.387987902368151</v>
       </c>
       <c r="AH15" t="n">
-        <v>4.900596112190423</v>
+        <v>7.302429125743863</v>
       </c>
       <c r="AI15" t="n">
-        <v>7.931880229672745</v>
+        <v>7.601268262830193</v>
       </c>
       <c r="AJ15" t="n">
-        <v>5.502701144872996</v>
+        <v>5.732732954138622</v>
       </c>
       <c r="AK15" t="n">
-        <v>5.441679171334903</v>
+        <v>3.168286290527459</v>
       </c>
       <c r="AL15" t="n">
-        <v>3.317822706110648</v>
+        <v>2.13592883257848</v>
       </c>
       <c r="AM15" t="n">
-        <v>6.722452188215783</v>
+        <v>2.03037335769802</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.081473978001087</v>
+        <v>3.646370408715835</v>
       </c>
       <c r="AO15" t="n">
-        <v>4.946495662665942</v>
+        <v>4.0463546885557</v>
       </c>
       <c r="AP15" t="n">
-        <v>4.077938807683411</v>
+        <v>3.411922453385294</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.091753816259537</v>
+        <v>3.98984278118566</v>
       </c>
       <c r="AR15" t="n">
-        <v>6.193278134279764</v>
+        <v>4.631272582032536</v>
       </c>
       <c r="AS15" t="n">
-        <v>6.536307703239514</v>
+        <v>3.445553741158274</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.306379103053029</v>
+        <v>3.840113194783402</v>
       </c>
       <c r="AU15" t="n">
-        <v>1.839002964607308</v>
+        <v>1.254838353234088</v>
       </c>
       <c r="AV15" t="n">
-        <v>13.88489847588182</v>
+        <v>0.5811408724952157</v>
       </c>
       <c r="AW15" t="n">
-        <v>1.91089510000452</v>
+        <v>3.0240770580633</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.1722228039956671</v>
+        <v>3.059957316054632</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>5.50852364394617</v>
+        <v>5.840592929068151</v>
       </c>
       <c r="D16" t="n">
-        <v>16.54838367469597</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>12.21340046662981</v>
+        <v>18.80421428307951</v>
       </c>
       <c r="F16" t="n">
-        <v>18.77044579632955</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>19.83030791602264</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>15.69714997741057</v>
+        <v>144.0456772487276</v>
       </c>
       <c r="I16" t="n">
-        <v>28.55337283490338</v>
+        <v>27.66219136810547</v>
       </c>
       <c r="J16" t="n">
-        <v>31.90850691660043</v>
+        <v>36.28363242641154</v>
       </c>
       <c r="K16" t="n">
-        <v>53.24771602171</v>
+        <v>38.97058439227767</v>
       </c>
       <c r="L16" t="n">
-        <v>23.58390177570845</v>
+        <v>5.983147423091417</v>
       </c>
       <c r="M16" t="n">
-        <v>40.28543640920283</v>
+        <v>265.3374235452916</v>
       </c>
       <c r="N16" t="n">
-        <v>26.3997745738002</v>
+        <v>81.61497494098211</v>
       </c>
       <c r="O16" t="n">
-        <v>93.69014898682403</v>
+        <v>22.7423753782789</v>
       </c>
       <c r="P16" t="n">
-        <v>33.75474918877423</v>
+        <v>73.04699308367253</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.69607010329509</v>
+        <v>0.4400841090978709</v>
       </c>
       <c r="R16" t="n">
-        <v>89.22321057253764</v>
+        <v>55.57570514002605</v>
       </c>
       <c r="S16" t="n">
-        <v>74.15320282146763</v>
+        <v>37.8619215491933</v>
       </c>
       <c r="T16" t="n">
-        <v>22.06907359134231</v>
+        <v>63.06675476722928</v>
       </c>
       <c r="U16" t="n">
-        <v>78.58943573624978</v>
+        <v>32.54150589370307</v>
       </c>
       <c r="V16" t="n">
-        <v>63.80051432228868</v>
+        <v>58.86370486050693</v>
       </c>
       <c r="W16" t="n">
-        <v>64.15163752385679</v>
+        <v>88.68476421740344</v>
       </c>
       <c r="X16" t="n">
-        <v>122.0072726638675</v>
+        <v>169.1085705212204</v>
       </c>
       <c r="Y16" t="n">
-        <v>60.11333755746275</v>
+        <v>74.051012942246</v>
       </c>
       <c r="Z16" t="n">
-        <v>81.01366095265588</v>
+        <v>63.35746715400352</v>
       </c>
       <c r="AA16" t="n">
-        <v>81.61619566974309</v>
+        <v>71.68267675853846</v>
       </c>
       <c r="AB16" t="n">
-        <v>54.55117969053313</v>
+        <v>139.9072968677278</v>
       </c>
       <c r="AC16" t="n">
-        <v>64.25833383967833</v>
+        <v>75.21389956995854</v>
       </c>
       <c r="AD16" t="n">
-        <v>54.46722721435933</v>
+        <v>72.22707538193055</v>
       </c>
       <c r="AE16" t="n">
-        <v>81.23759259875116</v>
+        <v>46.69965945263653</v>
       </c>
       <c r="AF16" t="n">
-        <v>82.23480943621668</v>
+        <v>87.22368140880749</v>
       </c>
       <c r="AG16" t="n">
-        <v>67.7138219961947</v>
+        <v>31.41687832283919</v>
       </c>
       <c r="AH16" t="n">
-        <v>78.15051638163116</v>
+        <v>55.9400384568732</v>
       </c>
       <c r="AI16" t="n">
-        <v>69.88547294100128</v>
+        <v>50.63260414995707</v>
       </c>
       <c r="AJ16" t="n">
-        <v>34.51781951385008</v>
+        <v>22.74525139481928</v>
       </c>
       <c r="AK16" t="n">
-        <v>34.97125222288817</v>
+        <v>131.3210388196604</v>
       </c>
       <c r="AL16" t="n">
-        <v>35.44854732959172</v>
+        <v>16.31761760248175</v>
       </c>
       <c r="AM16" t="n">
-        <v>20.63264783535005</v>
+        <v>14.06262672475943</v>
       </c>
       <c r="AN16" t="n">
-        <v>26.90662979285149</v>
+        <v>23.74871661371237</v>
       </c>
       <c r="AO16" t="n">
-        <v>26.2368392703067</v>
+        <v>14.75605796840248</v>
       </c>
       <c r="AP16" t="n">
-        <v>22.11762913420649</v>
+        <v>19.64691823474198</v>
       </c>
       <c r="AQ16" t="n">
-        <v>9.047060001169976</v>
+        <v>15.20728904657133</v>
       </c>
       <c r="AR16" t="n">
-        <v>11.17740614898266</v>
+        <v>10.85518835797846</v>
       </c>
       <c r="AS16" t="n">
-        <v>23.73582170005327</v>
+        <v>23.22533986304185</v>
       </c>
       <c r="AT16" t="n">
-        <v>12.86728762600593</v>
+        <v>11.22414135578117</v>
       </c>
       <c r="AU16" t="n">
-        <v>15.16794510794739</v>
+        <v>8.011344912814875</v>
       </c>
       <c r="AV16" t="n">
-        <v>15.6191251823526</v>
+        <v>6.530189511920373</v>
       </c>
       <c r="AW16" t="n">
-        <v>7.723675990464203</v>
+        <v>9.15814302367952</v>
       </c>
       <c r="AX16" t="n">
-        <v>5.645968851349882</v>
+        <v>7.554436536358291</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>5.649031036050663</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>9.756441262519857</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>27.00485386457113</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.610130743352546</v>
+        <v>14.12027948860944</v>
       </c>
       <c r="G17" t="n">
-        <v>2.179491115443823</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>10.86731832422405</v>
+        <v>8.754552561899615</v>
       </c>
       <c r="I17" t="n">
-        <v>9.806396013207227</v>
+        <v>112.9827235866763</v>
       </c>
       <c r="J17" t="n">
-        <v>6.842921396844019</v>
+        <v>33.08962490432367</v>
       </c>
       <c r="K17" t="n">
-        <v>72.44954568956709</v>
+        <v>59.05845151215665</v>
       </c>
       <c r="L17" t="n">
-        <v>39.42230978874552</v>
+        <v>51.81048609957856</v>
       </c>
       <c r="M17" t="n">
-        <v>137.2741336542656</v>
+        <v>14.98181072754543</v>
       </c>
       <c r="N17" t="n">
-        <v>34.11470456268582</v>
+        <v>55.35794679925311</v>
       </c>
       <c r="O17" t="n">
-        <v>39.80071102995541</v>
+        <v>6.557311079573505</v>
       </c>
       <c r="P17" t="n">
-        <v>64.34782762099186</v>
+        <v>104.081677797219</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.04505412233453</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>90.42662019388861</v>
+        <v>16.54384156481081</v>
       </c>
       <c r="S17" t="n">
-        <v>136.5137465868795</v>
+        <v>42.85366311748908</v>
       </c>
       <c r="T17" t="n">
-        <v>6.734442969898537</v>
+        <v>45.81913307150288</v>
       </c>
       <c r="U17" t="n">
-        <v>64.64139064497252</v>
+        <v>66.85308932102916</v>
       </c>
       <c r="V17" t="n">
-        <v>14.89126844857246</v>
+        <v>42.85482522085903</v>
       </c>
       <c r="W17" t="n">
-        <v>61.93947798938051</v>
+        <v>34.90389344823787</v>
       </c>
       <c r="X17" t="n">
-        <v>75.66360680235444</v>
+        <v>39.63446893187681</v>
       </c>
       <c r="Y17" t="n">
-        <v>43.59855897947345</v>
+        <v>52.11587693865545</v>
       </c>
       <c r="Z17" t="n">
-        <v>89.85144334414218</v>
+        <v>48.09106846582227</v>
       </c>
       <c r="AA17" t="n">
-        <v>10.27611974582462</v>
+        <v>22.79355995141297</v>
       </c>
       <c r="AB17" t="n">
-        <v>29.78187512223636</v>
+        <v>25.82401621922605</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.400711953498199</v>
+        <v>10.32980913323219</v>
       </c>
       <c r="AD17" t="n">
-        <v>14.68159661814149</v>
+        <v>17.43523376559708</v>
       </c>
       <c r="AE17" t="n">
-        <v>18.11325150298161</v>
+        <v>25.94400580330916</v>
       </c>
       <c r="AF17" t="n">
-        <v>19.36274633778954</v>
+        <v>14.40841025479792</v>
       </c>
       <c r="AG17" t="n">
-        <v>15.49164710668089</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>41.6218349663621</v>
+        <v>11.83835161211135</v>
       </c>
       <c r="AI17" t="n">
-        <v>132.2248947965286</v>
+        <v>9.530800710780666</v>
       </c>
       <c r="AJ17" t="n">
-        <v>4.833802456403363</v>
+        <v>14.84041033640386</v>
       </c>
       <c r="AK17" t="n">
-        <v>56.99000333213776</v>
+        <v>15.40683118594165</v>
       </c>
       <c r="AL17" t="n">
-        <v>48.15853741234542</v>
+        <v>64.53399150277703</v>
       </c>
       <c r="AM17" t="n">
-        <v>62.72444563258872</v>
+        <v>39.17802720320859</v>
       </c>
       <c r="AN17" t="n">
-        <v>17.57692051552776</v>
+        <v>37.7775262477089</v>
       </c>
       <c r="AO17" t="n">
-        <v>15.36049898359914</v>
+        <v>68.01839926724577</v>
       </c>
       <c r="AP17" t="n">
-        <v>19.17448509504696</v>
+        <v>34.80226091870389</v>
       </c>
       <c r="AQ17" t="n">
-        <v>3.21514927451544</v>
+        <v>22.24507856836778</v>
       </c>
       <c r="AR17" t="n">
-        <v>13.91030598133124</v>
+        <v>14.52552296216615</v>
       </c>
       <c r="AS17" t="n">
-        <v>24.90842062938403</v>
+        <v>21.09540885953099</v>
       </c>
       <c r="AT17" t="n">
-        <v>7.5789441464481</v>
+        <v>40.85044772753309</v>
       </c>
       <c r="AU17" t="n">
-        <v>40.91453802303307</v>
+        <v>34.12107674474427</v>
       </c>
       <c r="AV17" t="n">
-        <v>13.05962067856781</v>
+        <v>26.30440105065694</v>
       </c>
       <c r="AW17" t="n">
-        <v>8.984488423584166</v>
+        <v>19.63298205393338</v>
       </c>
       <c r="AX17" t="n">
-        <v>27.05040247814058</v>
+        <v>16.26233389594925</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>2.319960774308235</v>
+        <v>6.010444542327343</v>
       </c>
       <c r="D18" t="n">
-        <v>1.372806911055709</v>
+        <v>2.692786153114747</v>
       </c>
       <c r="E18" t="n">
-        <v>1.383994907871909</v>
+        <v>12.87899580388977</v>
       </c>
       <c r="F18" t="n">
-        <v>7.936365590790777</v>
+        <v>8.837901834563883</v>
       </c>
       <c r="G18" t="n">
-        <v>10.67253528012038</v>
+        <v>8.766599898430645</v>
       </c>
       <c r="H18" t="n">
-        <v>7.113149649550431</v>
+        <v>43.43142903438415</v>
       </c>
       <c r="I18" t="n">
-        <v>103.4068476154519</v>
+        <v>5.659350221893353</v>
       </c>
       <c r="J18" t="n">
-        <v>3.828680861032897</v>
+        <v>79.08325940818658</v>
       </c>
       <c r="K18" t="n">
-        <v>14.84932260742717</v>
+        <v>33.30984989383114</v>
       </c>
       <c r="L18" t="n">
-        <v>27.76596135263956</v>
+        <v>9.419050660091164</v>
       </c>
       <c r="M18" t="n">
-        <v>13.08042081250749</v>
+        <v>17.05013173893143</v>
       </c>
       <c r="N18" t="n">
-        <v>24.36950640393867</v>
+        <v>11.29201512764982</v>
       </c>
       <c r="O18" t="n">
-        <v>40.51424000916109</v>
+        <v>72.48952638384058</v>
       </c>
       <c r="P18" t="n">
-        <v>44.4073120092713</v>
+        <v>14.24790597559027</v>
       </c>
       <c r="Q18" t="n">
-        <v>11.127128606344</v>
+        <v>48.38813069176305</v>
       </c>
       <c r="R18" t="n">
-        <v>23.85478325051638</v>
+        <v>39.26371292739214</v>
       </c>
       <c r="S18" t="n">
-        <v>11.57288765536093</v>
+        <v>16.39942585961114</v>
       </c>
       <c r="T18" t="n">
-        <v>16.58511591653649</v>
+        <v>16.54534762220652</v>
       </c>
       <c r="U18" t="n">
-        <v>13.92797570601496</v>
+        <v>27.36221706156783</v>
       </c>
       <c r="V18" t="n">
-        <v>23.17323483569989</v>
+        <v>44.16254981939609</v>
       </c>
       <c r="W18" t="n">
-        <v>11.40469740214238</v>
+        <v>39.67975610313258</v>
       </c>
       <c r="X18" t="n">
-        <v>39.11382919192884</v>
+        <v>21.51352931284454</v>
       </c>
       <c r="Y18" t="n">
-        <v>48.90018366965264</v>
+        <v>9.773077152291446</v>
       </c>
       <c r="Z18" t="n">
-        <v>23.0722487277635</v>
+        <v>14.78793816181776</v>
       </c>
       <c r="AA18" t="n">
-        <v>11.55750495613209</v>
+        <v>11.08422857255996</v>
       </c>
       <c r="AB18" t="n">
-        <v>20.91909218210234</v>
+        <v>17.22291255655434</v>
       </c>
       <c r="AC18" t="n">
-        <v>23.62606135076582</v>
+        <v>21.89327293781205</v>
       </c>
       <c r="AD18" t="n">
-        <v>15.84179677882437</v>
+        <v>17.89078023830313</v>
       </c>
       <c r="AE18" t="n">
-        <v>15.72839405156817</v>
+        <v>17.98636499265124</v>
       </c>
       <c r="AF18" t="n">
-        <v>11.6832642973528</v>
+        <v>7.497522932973947</v>
       </c>
       <c r="AG18" t="n">
-        <v>31.78657029606006</v>
+        <v>13.98708367340473</v>
       </c>
       <c r="AH18" t="n">
-        <v>11.43437855471135</v>
+        <v>4.125178526357024</v>
       </c>
       <c r="AI18" t="n">
-        <v>13.24536506831144</v>
+        <v>8.530679765567772</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11.55561953118286</v>
+        <v>9.805565507084182</v>
       </c>
       <c r="AK18" t="n">
-        <v>2.190326634380244</v>
+        <v>4.042862279336044</v>
       </c>
       <c r="AL18" t="n">
-        <v>6.132952911009521</v>
+        <v>7.301786791209707</v>
       </c>
       <c r="AM18" t="n">
-        <v>5.651960086777098</v>
+        <v>3.299640261615638</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.214126200431902</v>
+        <v>8.219761106797396</v>
       </c>
       <c r="AO18" t="n">
-        <v>3.247250918914857</v>
+        <v>11.38873126059112</v>
       </c>
       <c r="AP18" t="n">
-        <v>4.741857126239077</v>
+        <v>0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>5.145487329217191</v>
+        <v>0.9719996234758226</v>
       </c>
       <c r="AR18" t="n">
-        <v>7.66258438510186</v>
+        <v>1.20540101576821</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.098398167802874</v>
+        <v>6.028456427603</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.472740723610511</v>
+        <v>2.230652817540122</v>
       </c>
       <c r="AU18" t="n">
-        <v>1.246665829652882</v>
+        <v>5.462534434477162</v>
       </c>
       <c r="AV18" t="n">
-        <v>1.422484027327276</v>
+        <v>2.835160000522114</v>
       </c>
       <c r="AW18" t="n">
-        <v>59.11087241812802</v>
+        <v>0.6854080073953035</v>
       </c>
       <c r="AX18" t="n">
-        <v>2.140967688676943</v>
+        <v>0.6612618760835355</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7749496878882989</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.62800282526913</v>
+        <v>14.73755491580741</v>
       </c>
       <c r="E19" t="n">
-        <v>5.937287836745078</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>23.17572691655762</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.827027906010986</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>5.929807724735955</v>
+        <v>28.72335017766602</v>
       </c>
       <c r="I19" t="n">
-        <v>4.667481678489934</v>
+        <v>14.93932200173195</v>
       </c>
       <c r="J19" t="n">
-        <v>3.389227546069606</v>
+        <v>24.12151555156244</v>
       </c>
       <c r="K19" t="n">
-        <v>384.7357361912466</v>
+        <v>108.9565910565971</v>
       </c>
       <c r="L19" t="n">
-        <v>26.87279579539576</v>
+        <v>44.65314994181099</v>
       </c>
       <c r="M19" t="n">
-        <v>134.7616811579821</v>
+        <v>114.0553029998301</v>
       </c>
       <c r="N19" t="n">
-        <v>33.16397178762916</v>
+        <v>34.14623158362912</v>
       </c>
       <c r="O19" t="n">
-        <v>97.27803543632285</v>
+        <v>15.06494213789906</v>
       </c>
       <c r="P19" t="n">
-        <v>10.75548446312281</v>
+        <v>31.6940397870092</v>
       </c>
       <c r="Q19" t="n">
-        <v>134.1410679587796</v>
+        <v>18.93571446926768</v>
       </c>
       <c r="R19" t="n">
-        <v>20.43191841457007</v>
+        <v>48.61129164956395</v>
       </c>
       <c r="S19" t="n">
-        <v>185.7500912839612</v>
+        <v>34.84023953230866</v>
       </c>
       <c r="T19" t="n">
-        <v>4.370200804423353</v>
+        <v>42.25204933398813</v>
       </c>
       <c r="U19" t="n">
-        <v>1.974093494790544</v>
+        <v>29.24172681547883</v>
       </c>
       <c r="V19" t="n">
-        <v>25.26193796082156</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>48.76828072437818</v>
+        <v>8.833249791462906</v>
       </c>
       <c r="X19" t="n">
-        <v>13.62578117558177</v>
+        <v>117.3006826366765</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.691359577266283</v>
+        <v>11.46790460166836</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.45441927745224</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>8.717286476507249</v>
+        <v>21.63257103766471</v>
       </c>
       <c r="AB19" t="n">
-        <v>31.08318473180415</v>
+        <v>36.981558501903</v>
       </c>
       <c r="AC19" t="n">
-        <v>19.82485719484526</v>
+        <v>25.33045574103226</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.142309249893942</v>
+        <v>13.92457261127759</v>
       </c>
       <c r="AE19" t="n">
-        <v>8.627978702816966</v>
+        <v>15.09924282013503</v>
       </c>
       <c r="AF19" t="n">
-        <v>13.30182334248185</v>
+        <v>20.5724080611925</v>
       </c>
       <c r="AG19" t="n">
-        <v>4.408089928803852</v>
+        <v>25.12104143657647</v>
       </c>
       <c r="AH19" t="n">
-        <v>17.62874524841409</v>
+        <v>18.27139219877092</v>
       </c>
       <c r="AI19" t="n">
-        <v>4.883195445730442</v>
+        <v>11.40222144988088</v>
       </c>
       <c r="AJ19" t="n">
-        <v>26.83777454660371</v>
+        <v>10.26146077144452</v>
       </c>
       <c r="AK19" t="n">
-        <v>4.268707150074045</v>
+        <v>5.177428959754199</v>
       </c>
       <c r="AL19" t="n">
-        <v>8.195021541896361</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>4.692373151433674</v>
+        <v>6.050308089047013</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.373667650658313</v>
+        <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>2.837809462731573</v>
+        <v>4.112760011548653</v>
       </c>
       <c r="AP19" t="n">
-        <v>4.35072352529996</v>
+        <v>17.15173925275443</v>
       </c>
       <c r="AQ19" t="n">
-        <v>4.549548809332027</v>
+        <v>6.867474133143894</v>
       </c>
       <c r="AR19" t="n">
-        <v>7.060532458736932</v>
+        <v>8.930340239259627</v>
       </c>
       <c r="AS19" t="n">
-        <v>3.144152288919277</v>
+        <v>0.8490600872931059</v>
       </c>
       <c r="AT19" t="n">
-        <v>9.448541131276768</v>
+        <v>0</v>
       </c>
       <c r="AU19" t="n">
-        <v>18.19114102260859</v>
+        <v>7.153606952912929</v>
       </c>
       <c r="AV19" t="n">
-        <v>26.94838055780998</v>
+        <v>17.09327255659772</v>
       </c>
       <c r="AW19" t="n">
-        <v>2.170890339095749</v>
+        <v>15.06858252103613</v>
       </c>
       <c r="AX19" t="n">
-        <v>3.094437974241697</v>
+        <v>1.441128287961789</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>21.9415387352099</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>41.04991108487535</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>14.5344521869839</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>35.86315379616236</v>
+        <v>16.06533500345147</v>
       </c>
       <c r="G20" t="n">
-        <v>27.18142244628964</v>
+        <v>16.75873349210633</v>
       </c>
       <c r="H20" t="n">
-        <v>71.68351482221789</v>
+        <v>4.842065521582011</v>
       </c>
       <c r="I20" t="n">
-        <v>125.2569317572182</v>
+        <v>59.99710313570937</v>
       </c>
       <c r="J20" t="n">
-        <v>15.83870473646272</v>
+        <v>39.28354888688973</v>
       </c>
       <c r="K20" t="n">
-        <v>38.94857540815368</v>
+        <v>123.2807877487365</v>
       </c>
       <c r="L20" t="n">
-        <v>118.2782077912439</v>
+        <v>52.35782912830103</v>
       </c>
       <c r="M20" t="n">
-        <v>34.00713035979211</v>
+        <v>75.40768446141601</v>
       </c>
       <c r="N20" t="n">
-        <v>51.85642708862405</v>
+        <v>55.42259961284896</v>
       </c>
       <c r="O20" t="n">
-        <v>105.3228436777318</v>
+        <v>41.1828696770187</v>
       </c>
       <c r="P20" t="n">
-        <v>86.80809488796277</v>
+        <v>24.74283980089091</v>
       </c>
       <c r="Q20" t="n">
-        <v>204.1008378695887</v>
+        <v>75.12847056414789</v>
       </c>
       <c r="R20" t="n">
-        <v>42.70651688607549</v>
+        <v>33.78803994153594</v>
       </c>
       <c r="S20" t="n">
-        <v>56.84766882100436</v>
+        <v>104.2932748364197</v>
       </c>
       <c r="T20" t="n">
-        <v>77.07858688688036</v>
+        <v>20.3518434127746</v>
       </c>
       <c r="U20" t="n">
-        <v>167.8417285475526</v>
+        <v>21.40043036171834</v>
       </c>
       <c r="V20" t="n">
-        <v>204.8549221895246</v>
+        <v>59.49986027722398</v>
       </c>
       <c r="W20" t="n">
-        <v>69.14127563993124</v>
+        <v>62.78780132672721</v>
       </c>
       <c r="X20" t="n">
-        <v>55.49566273120247</v>
+        <v>208.857635805795</v>
       </c>
       <c r="Y20" t="n">
-        <v>45.75738117310455</v>
+        <v>125.7377747449773</v>
       </c>
       <c r="Z20" t="n">
-        <v>82.26811060283899</v>
+        <v>92.33099445629058</v>
       </c>
       <c r="AA20" t="n">
-        <v>137.2657622240335</v>
+        <v>93.32837402058675</v>
       </c>
       <c r="AB20" t="n">
-        <v>90.64665711230754</v>
+        <v>100.1836308424546</v>
       </c>
       <c r="AC20" t="n">
-        <v>75.66968326831471</v>
+        <v>115.2157191633089</v>
       </c>
       <c r="AD20" t="n">
-        <v>48.09498581994995</v>
+        <v>146.3604018620379</v>
       </c>
       <c r="AE20" t="n">
-        <v>182.8679882674359</v>
+        <v>37.65659195586964</v>
       </c>
       <c r="AF20" t="n">
-        <v>49.94339720497086</v>
+        <v>44.28529063671716</v>
       </c>
       <c r="AG20" t="n">
-        <v>261.2438732068086</v>
+        <v>15.48088973655826</v>
       </c>
       <c r="AH20" t="n">
-        <v>128.9308084607944</v>
+        <v>13.0826682299291</v>
       </c>
       <c r="AI20" t="n">
-        <v>133.0217723498521</v>
+        <v>55.1133807222033</v>
       </c>
       <c r="AJ20" t="n">
-        <v>129.0871245719477</v>
+        <v>191.6847662566515</v>
       </c>
       <c r="AK20" t="n">
-        <v>26.85085940080218</v>
+        <v>42.6362616835796</v>
       </c>
       <c r="AL20" t="n">
-        <v>71.4236465811381</v>
+        <v>31.42729317894734</v>
       </c>
       <c r="AM20" t="n">
-        <v>23.25334954335762</v>
+        <v>54.07398586786063</v>
       </c>
       <c r="AN20" t="n">
-        <v>46.57324607007371</v>
+        <v>28.02705866640708</v>
       </c>
       <c r="AO20" t="n">
-        <v>45.69170747027695</v>
+        <v>12.71402994561328</v>
       </c>
       <c r="AP20" t="n">
-        <v>44.35209424634541</v>
+        <v>30.68342278605754</v>
       </c>
       <c r="AQ20" t="n">
-        <v>22.76958092621832</v>
+        <v>20.08746282986564</v>
       </c>
       <c r="AR20" t="n">
-        <v>8.426440843664013</v>
+        <v>23.2302742960992</v>
       </c>
       <c r="AS20" t="n">
-        <v>23.72859953635744</v>
+        <v>21.58461428220624</v>
       </c>
       <c r="AT20" t="n">
-        <v>17.29077469112052</v>
+        <v>12.6752546320874</v>
       </c>
       <c r="AU20" t="n">
-        <v>29.08393435083726</v>
+        <v>11.15016550313874</v>
       </c>
       <c r="AV20" t="n">
-        <v>22.32021704170371</v>
+        <v>21.70157243522358</v>
       </c>
       <c r="AW20" t="n">
-        <v>15.97079729400269</v>
+        <v>24.57671337136093</v>
       </c>
       <c r="AX20" t="n">
-        <v>23.41903338813986</v>
+        <v>21.78127339866835</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>8.039993991280689</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>3.59147560960632</v>
+        <v>10.68131317464293</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1582248292775469</v>
+        <v>3.877014745700593</v>
       </c>
       <c r="F21" t="n">
-        <v>22.78710192046026</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7424029202105747</v>
+        <v>3.115777607576318</v>
       </c>
       <c r="H21" t="n">
-        <v>2.619601903027405</v>
+        <v>4.916096184081634</v>
       </c>
       <c r="I21" t="n">
-        <v>4.451007032399305</v>
+        <v>1.561941480735956</v>
       </c>
       <c r="J21" t="n">
-        <v>16.73158968062301</v>
+        <v>1.757054798547848</v>
       </c>
       <c r="K21" t="n">
-        <v>1.385208326431175</v>
+        <v>4.475459147086731</v>
       </c>
       <c r="L21" t="n">
-        <v>4.222278505682816</v>
+        <v>4.590036471988357</v>
       </c>
       <c r="M21" t="n">
-        <v>1.893446648619016</v>
+        <v>3.166994136546941</v>
       </c>
       <c r="N21" t="n">
-        <v>22.04831732115356</v>
+        <v>4.053865494489617</v>
       </c>
       <c r="O21" t="n">
-        <v>4.515501119264386</v>
+        <v>5.878100652952758</v>
       </c>
       <c r="P21" t="n">
-        <v>1.551000329840492</v>
+        <v>3.857356980833959</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.601997705021771</v>
+        <v>4.889297826395752</v>
       </c>
       <c r="R21" t="n">
-        <v>11.13939012757917</v>
+        <v>3.163689184433134</v>
       </c>
       <c r="S21" t="n">
-        <v>3.6154474913722</v>
+        <v>0.2695272605819945</v>
       </c>
       <c r="T21" t="n">
-        <v>3.573031110831081</v>
+        <v>2.453435997749616</v>
       </c>
       <c r="U21" t="n">
-        <v>6.500780011839346</v>
+        <v>6.286970010331845</v>
       </c>
       <c r="V21" t="n">
-        <v>2.593886150288129</v>
+        <v>10.50601287438755</v>
       </c>
       <c r="W21" t="n">
-        <v>3.391514107952545</v>
+        <v>6.397954179054235</v>
       </c>
       <c r="X21" t="n">
-        <v>6.787332323176181</v>
+        <v>1.454976875929059</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.918467229819729</v>
+        <v>2.535965267314495</v>
       </c>
       <c r="Z21" t="n">
-        <v>9.320606194766667</v>
+        <v>6.194263685702775</v>
       </c>
       <c r="AA21" t="n">
-        <v>3.310103993708622</v>
+        <v>4.057478608489143</v>
       </c>
       <c r="AB21" t="n">
-        <v>6.796919939430436</v>
+        <v>6.700358657198577</v>
       </c>
       <c r="AC21" t="n">
-        <v>6.463039600841668</v>
+        <v>3.705252943656598</v>
       </c>
       <c r="AD21" t="n">
-        <v>7.518966883341266</v>
+        <v>8.837383339549842</v>
       </c>
       <c r="AE21" t="n">
-        <v>5.130298063824054</v>
+        <v>5.275024491063902</v>
       </c>
       <c r="AF21" t="n">
-        <v>4.163596264642024</v>
+        <v>6.538337841081527</v>
       </c>
       <c r="AG21" t="n">
-        <v>4.95236757394499</v>
+        <v>10.53171864741996</v>
       </c>
       <c r="AH21" t="n">
-        <v>6.074937491526148</v>
+        <v>8.415020591059946</v>
       </c>
       <c r="AI21" t="n">
-        <v>3.726287597194538</v>
+        <v>6.342175018849675</v>
       </c>
       <c r="AJ21" t="n">
-        <v>5.975723176299495</v>
+        <v>4.068591757930018</v>
       </c>
       <c r="AK21" t="n">
-        <v>2.887201499547649</v>
+        <v>6.540115448232935</v>
       </c>
       <c r="AL21" t="n">
-        <v>4.693122673262855</v>
+        <v>6.150602568562114</v>
       </c>
       <c r="AM21" t="n">
-        <v>5.921012137608317</v>
+        <v>3.212945658514738</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.21674769526229</v>
+        <v>2.475345504058969</v>
       </c>
       <c r="AO21" t="n">
-        <v>5.488261700685503</v>
+        <v>4.14516436533809</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.869132628619417</v>
+        <v>1.393112135768412</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.56634911300224</v>
+        <v>5.698561533503537</v>
       </c>
       <c r="AR21" t="n">
-        <v>5.046791293380737</v>
+        <v>2.932256722838206</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.268534074508596</v>
+        <v>3.757792582624866</v>
       </c>
       <c r="AT21" t="n">
-        <v>5.842284312866579</v>
+        <v>4.947589515114227</v>
       </c>
       <c r="AU21" t="n">
-        <v>2.011839787155473</v>
+        <v>3.538704459115778</v>
       </c>
       <c r="AV21" t="n">
-        <v>15.86558486395695</v>
+        <v>2.829001317221392</v>
       </c>
       <c r="AW21" t="n">
-        <v>35.41617667102229</v>
+        <v>2.584460876259807</v>
       </c>
       <c r="AX21" t="n">
-        <v>4.474511905277618</v>
+        <v>2.786054061662796</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>6.13251053703949</v>
+        <v>13.17554636990403</v>
       </c>
       <c r="D22" t="n">
-        <v>5.966465543534167</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>10.21208832422106</v>
+        <v>25.71926917468755</v>
       </c>
       <c r="F22" t="n">
-        <v>20.82340005467913</v>
+        <v>14.43374521802458</v>
       </c>
       <c r="G22" t="n">
-        <v>12.78459550823685</v>
+        <v>5.041760790007468</v>
       </c>
       <c r="H22" t="n">
-        <v>6.191332896974793</v>
+        <v>73.29153819483832</v>
       </c>
       <c r="I22" t="n">
-        <v>32.39934627676156</v>
+        <v>45.17600367465484</v>
       </c>
       <c r="J22" t="n">
-        <v>162.6670632445642</v>
+        <v>23.79435554980051</v>
       </c>
       <c r="K22" t="n">
-        <v>10.20864079999068</v>
+        <v>17.29180122962663</v>
       </c>
       <c r="L22" t="n">
-        <v>71.35807288047872</v>
+        <v>111.3687323256047</v>
       </c>
       <c r="M22" t="n">
-        <v>68.86647703599053</v>
+        <v>254.0591016376469</v>
       </c>
       <c r="N22" t="n">
-        <v>85.99750572186484</v>
+        <v>150.7635422584238</v>
       </c>
       <c r="O22" t="n">
-        <v>31.84659096365649</v>
+        <v>60.45463321894298</v>
       </c>
       <c r="P22" t="n">
-        <v>41.20654905156218</v>
+        <v>64.0056806025772</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.47555306694765</v>
+        <v>117.3183771941528</v>
       </c>
       <c r="R22" t="n">
-        <v>84.59113146407852</v>
+        <v>5.267756187417117</v>
       </c>
       <c r="S22" t="n">
-        <v>28.91586516439014</v>
+        <v>27.48433602813539</v>
       </c>
       <c r="T22" t="n">
-        <v>28.03011697403718</v>
+        <v>70.63524760196867</v>
       </c>
       <c r="U22" t="n">
-        <v>55.73214583935435</v>
+        <v>46.11726492747093</v>
       </c>
       <c r="V22" t="n">
-        <v>125.9787633833253</v>
+        <v>128.2754826579497</v>
       </c>
       <c r="W22" t="n">
-        <v>59.27486502955978</v>
+        <v>55.4641338308511</v>
       </c>
       <c r="X22" t="n">
-        <v>18.3538145729101</v>
+        <v>67.28297293335785</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.1894011860455</v>
+        <v>34.25580003235068</v>
       </c>
       <c r="Z22" t="n">
-        <v>43.67554464467771</v>
+        <v>127.6050906569654</v>
       </c>
       <c r="AA22" t="n">
-        <v>58.36735620593226</v>
+        <v>67.02794830397862</v>
       </c>
       <c r="AB22" t="n">
-        <v>89.66195522865321</v>
+        <v>106.1022089127811</v>
       </c>
       <c r="AC22" t="n">
-        <v>45.65003778958169</v>
+        <v>14.90820148262821</v>
       </c>
       <c r="AD22" t="n">
-        <v>81.28974391703795</v>
+        <v>90.57600671608824</v>
       </c>
       <c r="AE22" t="n">
-        <v>110.8547926856678</v>
+        <v>107.0906363886503</v>
       </c>
       <c r="AF22" t="n">
-        <v>37.35373551462735</v>
+        <v>54.34461529842893</v>
       </c>
       <c r="AG22" t="n">
-        <v>43.13366449781979</v>
+        <v>17.94773608296166</v>
       </c>
       <c r="AH22" t="n">
-        <v>24.04123066475589</v>
+        <v>78.18772504467969</v>
       </c>
       <c r="AI22" t="n">
-        <v>31.4107951246387</v>
+        <v>98.84813710511958</v>
       </c>
       <c r="AJ22" t="n">
-        <v>90.17185867548025</v>
+        <v>43.97219837651598</v>
       </c>
       <c r="AK22" t="n">
-        <v>12.35188657897052</v>
+        <v>28.60730245418676</v>
       </c>
       <c r="AL22" t="n">
-        <v>24.3333982360601</v>
+        <v>55.3067321152018</v>
       </c>
       <c r="AM22" t="n">
-        <v>39.40788789394817</v>
+        <v>35.721875069372</v>
       </c>
       <c r="AN22" t="n">
-        <v>18.91015150261379</v>
+        <v>15.67997135338264</v>
       </c>
       <c r="AO22" t="n">
-        <v>16.80242600721941</v>
+        <v>27.44561035290183</v>
       </c>
       <c r="AP22" t="n">
-        <v>16.69378789873272</v>
+        <v>14.5352765282132</v>
       </c>
       <c r="AQ22" t="n">
-        <v>6.737257285185438</v>
+        <v>24.67857699850182</v>
       </c>
       <c r="AR22" t="n">
-        <v>16.41889896469521</v>
+        <v>14.35480426812467</v>
       </c>
       <c r="AS22" t="n">
-        <v>14.25056418835358</v>
+        <v>7.520706235514533</v>
       </c>
       <c r="AT22" t="n">
-        <v>7.438145775087605</v>
+        <v>8.300753267887307</v>
       </c>
       <c r="AU22" t="n">
-        <v>22.4940105883578</v>
+        <v>11.21098649696023</v>
       </c>
       <c r="AV22" t="n">
-        <v>8.921637728107992</v>
+        <v>16.76765047304816</v>
       </c>
       <c r="AW22" t="n">
-        <v>8.401390498709215</v>
+        <v>12.4078385669128</v>
       </c>
       <c r="AX22" t="n">
-        <v>10.04758564757054</v>
+        <v>12.0405079193816</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>5.913529790617534</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>13.73586346772255</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>13.86269597533681</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>13.54575969212716</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>14.97391820038526</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>29.95608350732932</v>
+        <v>12.44923275810295</v>
       </c>
       <c r="I23" t="n">
-        <v>114.8098077468612</v>
+        <v>122.7647626839025</v>
       </c>
       <c r="J23" t="n">
-        <v>72.985642290909</v>
+        <v>49.68275764942362</v>
       </c>
       <c r="K23" t="n">
-        <v>31.63321732504187</v>
+        <v>47.64569774710019</v>
       </c>
       <c r="L23" t="n">
-        <v>6.817983043464423</v>
+        <v>56.54641766140126</v>
       </c>
       <c r="M23" t="n">
-        <v>38.89382159919753</v>
+        <v>13.84765205901475</v>
       </c>
       <c r="N23" t="n">
-        <v>16.23003269467016</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>45.26732842274829</v>
+        <v>16.89566250343437</v>
       </c>
       <c r="P23" t="n">
-        <v>10.80069889006377</v>
+        <v>130.4813507855351</v>
       </c>
       <c r="Q23" t="n">
-        <v>29.64401806881148</v>
+        <v>119.2356322393101</v>
       </c>
       <c r="R23" t="n">
-        <v>133.9186431634063</v>
+        <v>125.7689749770663</v>
       </c>
       <c r="S23" t="n">
-        <v>16.88159576504924</v>
+        <v>87.89184467263489</v>
       </c>
       <c r="T23" t="n">
-        <v>177.3277760667173</v>
+        <v>42.90712962392873</v>
       </c>
       <c r="U23" t="n">
-        <v>12.89822074836211</v>
+        <v>126.6145259651612</v>
       </c>
       <c r="V23" t="n">
-        <v>49.1310618904678</v>
+        <v>23.10612640796885</v>
       </c>
       <c r="W23" t="n">
-        <v>80.70378465974967</v>
+        <v>18.38059640478054</v>
       </c>
       <c r="X23" t="n">
-        <v>31.06118185115499</v>
+        <v>12.7803122561653</v>
       </c>
       <c r="Y23" t="n">
-        <v>106.13229422534</v>
+        <v>41.58340627237378</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.38898211176399</v>
+        <v>33.26112714551559</v>
       </c>
       <c r="AA23" t="n">
-        <v>12.18012634059777</v>
+        <v>59.76889433836362</v>
       </c>
       <c r="AB23" t="n">
-        <v>64.77072396879534</v>
+        <v>55.46420642115152</v>
       </c>
       <c r="AC23" t="n">
-        <v>36.00968865270978</v>
+        <v>3.948784703109624</v>
       </c>
       <c r="AD23" t="n">
-        <v>51.50119742708354</v>
+        <v>31.73016320714509</v>
       </c>
       <c r="AE23" t="n">
-        <v>63.29085646565746</v>
+        <v>18.42906110337841</v>
       </c>
       <c r="AF23" t="n">
-        <v>8.893259463413262</v>
+        <v>30.94963600378903</v>
       </c>
       <c r="AG23" t="n">
-        <v>7.305716013649403</v>
+        <v>24.41231157189603</v>
       </c>
       <c r="AH23" t="n">
-        <v>16.3674253260188</v>
+        <v>20.64607574143307</v>
       </c>
       <c r="AI23" t="n">
-        <v>54.58427557665362</v>
+        <v>3.849783117081246</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13.41579109137571</v>
+        <v>8.008434852391161</v>
       </c>
       <c r="AK23" t="n">
-        <v>31.47213353129005</v>
+        <v>6.662435521918646</v>
       </c>
       <c r="AL23" t="n">
-        <v>3.946055475082412</v>
+        <v>53.12400445731603</v>
       </c>
       <c r="AM23" t="n">
-        <v>6.924175539186465</v>
+        <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>17.29545429023499</v>
+        <v>36.04437310323393</v>
       </c>
       <c r="AO23" t="n">
-        <v>25.1774100036763</v>
+        <v>23.05484539140587</v>
       </c>
       <c r="AP23" t="n">
-        <v>24.3225386047584</v>
+        <v>45.79902616554982</v>
       </c>
       <c r="AQ23" t="n">
-        <v>16.51939123155756</v>
+        <v>19.03578987261978</v>
       </c>
       <c r="AR23" t="n">
-        <v>10.92277422356821</v>
+        <v>20.30152582184131</v>
       </c>
       <c r="AS23" t="n">
-        <v>10.87645812695535</v>
+        <v>23.03479589540395</v>
       </c>
       <c r="AT23" t="n">
-        <v>15.75529728359565</v>
+        <v>30.70958245131578</v>
       </c>
       <c r="AU23" t="n">
-        <v>30.18052531575298</v>
+        <v>24.98085272601707</v>
       </c>
       <c r="AV23" t="n">
-        <v>3.624200143055035</v>
+        <v>37.1691095686605</v>
       </c>
       <c r="AW23" t="n">
-        <v>6.77395933780678</v>
+        <v>10.07480841179737</v>
       </c>
       <c r="AX23" t="n">
-        <v>26.56690655735966</v>
+        <v>12.56809946755012</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>3.090560389678416</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>10.40387871550749</v>
+        <v>18.45374848502501</v>
       </c>
       <c r="E24" t="n">
-        <v>6.924098525681305</v>
+        <v>13.29616654203618</v>
       </c>
       <c r="F24" t="n">
-        <v>3.70480223537767</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>6.764287717759461</v>
+        <v>12.50239693755316</v>
       </c>
       <c r="H24" t="n">
-        <v>35.16961881103839</v>
+        <v>2.757747187504239</v>
       </c>
       <c r="I24" t="n">
-        <v>22.06777892479789</v>
+        <v>41.10346012135074</v>
       </c>
       <c r="J24" t="n">
-        <v>32.88486287892282</v>
+        <v>18.81939245577249</v>
       </c>
       <c r="K24" t="n">
-        <v>16.03703094490853</v>
+        <v>17.37421119091516</v>
       </c>
       <c r="L24" t="n">
-        <v>8.938497316841744</v>
+        <v>48.80801987334584</v>
       </c>
       <c r="M24" t="n">
-        <v>12.23672338495049</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>25.56430850751022</v>
+        <v>7.183673949166852</v>
       </c>
       <c r="O24" t="n">
-        <v>102.7891703424156</v>
+        <v>0.2076824762566805</v>
       </c>
       <c r="P24" t="n">
-        <v>13.11985347713523</v>
+        <v>22.65275584808888</v>
       </c>
       <c r="Q24" t="n">
-        <v>39.26167905603688</v>
+        <v>6.53728272782797</v>
       </c>
       <c r="R24" t="n">
-        <v>17.48350317398327</v>
+        <v>28.00280727304346</v>
       </c>
       <c r="S24" t="n">
-        <v>17.1528496669392</v>
+        <v>51.87533410786761</v>
       </c>
       <c r="T24" t="n">
-        <v>17.78143484718882</v>
+        <v>57.2368197185716</v>
       </c>
       <c r="U24" t="n">
-        <v>38.7263531154903</v>
+        <v>7.780777119911073</v>
       </c>
       <c r="V24" t="n">
-        <v>4.58154897541495</v>
+        <v>8.589907834747974</v>
       </c>
       <c r="W24" t="n">
-        <v>14.31503725672565</v>
+        <v>28.33199886006744</v>
       </c>
       <c r="X24" t="n">
-        <v>24.71323385094374</v>
+        <v>16.40143223538625</v>
       </c>
       <c r="Y24" t="n">
-        <v>13.81769420292013</v>
+        <v>15.66307318179137</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.98982315815201</v>
+        <v>14.96644040126746</v>
       </c>
       <c r="AA24" t="n">
-        <v>13.30648967046244</v>
+        <v>26.06963161389288</v>
       </c>
       <c r="AB24" t="n">
-        <v>18.0426081602116</v>
+        <v>35.60540097790405</v>
       </c>
       <c r="AC24" t="n">
-        <v>10.93274520297051</v>
+        <v>24.48333858620874</v>
       </c>
       <c r="AD24" t="n">
-        <v>17.53184169779904</v>
+        <v>16.44565011429673</v>
       </c>
       <c r="AE24" t="n">
-        <v>8.562783977132931</v>
+        <v>28.55336904190958</v>
       </c>
       <c r="AF24" t="n">
-        <v>14.76505406775774</v>
+        <v>14.95716819678206</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.97523878621229</v>
+        <v>12.29820150342135</v>
       </c>
       <c r="AH24" t="n">
-        <v>25.25548363335403</v>
+        <v>8.867086096266785</v>
       </c>
       <c r="AI24" t="n">
-        <v>9.80497034942448</v>
+        <v>3.50497771819993</v>
       </c>
       <c r="AJ24" t="n">
-        <v>4.119713232013091</v>
+        <v>22.9893467639986</v>
       </c>
       <c r="AK24" t="n">
-        <v>3.117549546731666</v>
+        <v>7.068906354791703</v>
       </c>
       <c r="AL24" t="n">
-        <v>9.801546442286323</v>
+        <v>4.227550990584678</v>
       </c>
       <c r="AM24" t="n">
-        <v>4.345081272193864</v>
+        <v>6.417330155130375</v>
       </c>
       <c r="AN24" t="n">
-        <v>9.79862775952688</v>
+        <v>6.386970402756729</v>
       </c>
       <c r="AO24" t="n">
-        <v>3.476697910761955</v>
+        <v>3.36941685110143</v>
       </c>
       <c r="AP24" t="n">
-        <v>4.006323699665131</v>
+        <v>4.930476905356308</v>
       </c>
       <c r="AQ24" t="n">
-        <v>11.00115382370851</v>
+        <v>5.824120455121666</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.284437874483104</v>
+        <v>1.498007064373399</v>
       </c>
       <c r="AS24" t="n">
-        <v>3.557030854230491</v>
+        <v>3.293515610918796</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.9791199565228453</v>
+        <v>3.315827360667511</v>
       </c>
       <c r="AU24" t="n">
-        <v>2.092460042329525</v>
+        <v>5.247604671014667</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.9486689599030289</v>
+        <v>3.87268085268065</v>
       </c>
       <c r="AW24" t="n">
-        <v>2.327983145642928</v>
+        <v>1.859101342081884</v>
       </c>
       <c r="AX24" t="n">
-        <v>3.009867081446217</v>
+        <v>4.12962708828604</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.250894343377607</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>14.3060087309357</v>
+        <v>10.81406292234903</v>
       </c>
       <c r="E25" t="n">
-        <v>40.71715570983891</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>14.14012107216753</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>213.7773737146791</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>26.98859776167783</v>
+        <v>179.5120859388449</v>
       </c>
       <c r="I25" t="n">
-        <v>5.487259006486904</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>16.58163687095036</v>
+        <v>32.22884347735049</v>
       </c>
       <c r="K25" t="n">
-        <v>32.12230863065366</v>
+        <v>68.42873559582392</v>
       </c>
       <c r="L25" t="n">
-        <v>57.31767429944203</v>
+        <v>38.04842039740817</v>
       </c>
       <c r="M25" t="n">
-        <v>35.2428267119278</v>
+        <v>91.2575295293539</v>
       </c>
       <c r="N25" t="n">
-        <v>115.5577796105766</v>
+        <v>31.26752025704685</v>
       </c>
       <c r="O25" t="n">
-        <v>119.7912333516013</v>
+        <v>19.31540747374618</v>
       </c>
       <c r="P25" t="n">
-        <v>69.31443876007209</v>
+        <v>62.5907758608034</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.84741744726615</v>
+        <v>16.23455258257634</v>
       </c>
       <c r="R25" t="n">
-        <v>14.76141241877743</v>
+        <v>40.21865943791506</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9001791115954</v>
+        <v>35.04882940675279</v>
       </c>
       <c r="T25" t="n">
-        <v>22.90884572646491</v>
+        <v>76.51611334078912</v>
       </c>
       <c r="U25" t="n">
-        <v>7.096624472160058</v>
+        <v>96.02488579904985</v>
       </c>
       <c r="V25" t="n">
-        <v>62.82166333897566</v>
+        <v>55.89511189289742</v>
       </c>
       <c r="W25" t="n">
-        <v>3.885679608905203</v>
+        <v>7.688580721344612</v>
       </c>
       <c r="X25" t="n">
-        <v>26.01631772215525</v>
+        <v>5.392426491865372</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.7815525542524</v>
+        <v>20.70714032979581</v>
       </c>
       <c r="Z25" t="n">
-        <v>8.807979721822235</v>
+        <v>23.56730853509067</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.6883431935869</v>
+        <v>7.533803038271141</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.7110172123540618</v>
+        <v>9.429267124577809</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.171187407859282</v>
+        <v>26.15073291219078</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.563025353244635</v>
+        <v>33.74333463629172</v>
       </c>
       <c r="AE25" t="n">
-        <v>2.045737448211995</v>
+        <v>5.730169616463895</v>
       </c>
       <c r="AF25" t="n">
-        <v>5.771913129470125</v>
+        <v>14.19802972850525</v>
       </c>
       <c r="AG25" t="n">
-        <v>4.627380426492273</v>
+        <v>49.42114671333142</v>
       </c>
       <c r="AH25" t="n">
-        <v>14.14915654659506</v>
+        <v>2.506540390950528</v>
       </c>
       <c r="AI25" t="n">
-        <v>2.908346410116111</v>
+        <v>7.630429031402542</v>
       </c>
       <c r="AJ25" t="n">
-        <v>10.15618783135194</v>
+        <v>0.6306540861796309</v>
       </c>
       <c r="AK25" t="n">
-        <v>6.48528836043169</v>
+        <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.4298673499170876</v>
+        <v>0</v>
       </c>
       <c r="AM25" t="n">
-        <v>7.871674804026799</v>
+        <v>9.911966212313397</v>
       </c>
       <c r="AN25" t="n">
-        <v>60.25247493260979</v>
+        <v>3.204079794927382</v>
       </c>
       <c r="AO25" t="n">
-        <v>1.03707269240454</v>
+        <v>18.4984879272141</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.572818374357955</v>
+        <v>10.63859706783619</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2.99663355646345</v>
+        <v>6.132553414251509</v>
       </c>
       <c r="AR25" t="n">
-        <v>13.67042344509951</v>
+        <v>13.64555970532925</v>
       </c>
       <c r="AS25" t="n">
-        <v>5.556026696722816</v>
+        <v>15.7830414883077</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.497299168298018</v>
+        <v>8.182265509665314</v>
       </c>
       <c r="AU25" t="n">
-        <v>9.959287804462321</v>
+        <v>2.068754201889083</v>
       </c>
       <c r="AV25" t="n">
-        <v>6.872321690624112</v>
+        <v>12.16442220274316</v>
       </c>
       <c r="AW25" t="n">
-        <v>5.14250350457532</v>
+        <v>1.431949886325426</v>
       </c>
       <c r="AX25" t="n">
-        <v>12.12438983995036</v>
+        <v>19.10601667378106</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>23.69852432379929</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>22.03163831738077</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>18.60197097188303</v>
+        <v>13.53392150042961</v>
       </c>
       <c r="F26" t="n">
-        <v>17.3982541966215</v>
+        <v>7.211485998123769</v>
       </c>
       <c r="G26" t="n">
-        <v>10.84226600291156</v>
+        <v>12.36611082274323</v>
       </c>
       <c r="H26" t="n">
-        <v>15.11265911386204</v>
+        <v>28.35180766518632</v>
       </c>
       <c r="I26" t="n">
-        <v>6.500172844826428</v>
+        <v>45.4576842755766</v>
       </c>
       <c r="J26" t="n">
-        <v>49.94687891083289</v>
+        <v>53.77251690200367</v>
       </c>
       <c r="K26" t="n">
-        <v>39.08863052139341</v>
+        <v>32.12341412050466</v>
       </c>
       <c r="L26" t="n">
-        <v>36.41595106451479</v>
+        <v>88.5285263409704</v>
       </c>
       <c r="M26" t="n">
-        <v>109.3196592492738</v>
+        <v>27.80025814709503</v>
       </c>
       <c r="N26" t="n">
-        <v>59.29378869982624</v>
+        <v>30.54606118143696</v>
       </c>
       <c r="O26" t="n">
-        <v>49.29509987453478</v>
+        <v>20.1481251058338</v>
       </c>
       <c r="P26" t="n">
-        <v>15.52133990557592</v>
+        <v>49.72095917368701</v>
       </c>
       <c r="Q26" t="n">
-        <v>84.52938382301539</v>
+        <v>13.39452331937382</v>
       </c>
       <c r="R26" t="n">
-        <v>66.49640990138536</v>
+        <v>15.37703027773502</v>
       </c>
       <c r="S26" t="n">
-        <v>21.82777164720763</v>
+        <v>130.5562178093955</v>
       </c>
       <c r="T26" t="n">
-        <v>50.45035366340116</v>
+        <v>180.4037749242075</v>
       </c>
       <c r="U26" t="n">
-        <v>23.55928220178083</v>
+        <v>67.4566396784129</v>
       </c>
       <c r="V26" t="n">
-        <v>77.9510567469796</v>
+        <v>128.4602466483901</v>
       </c>
       <c r="W26" t="n">
-        <v>101.8107538058836</v>
+        <v>48.11219964759341</v>
       </c>
       <c r="X26" t="n">
-        <v>47.70413775044084</v>
+        <v>46.57901593647399</v>
       </c>
       <c r="Y26" t="n">
-        <v>32.54068153619819</v>
+        <v>98.7209814781321</v>
       </c>
       <c r="Z26" t="n">
-        <v>65.89806149296801</v>
+        <v>56.22219073926352</v>
       </c>
       <c r="AA26" t="n">
-        <v>73.56485271950818</v>
+        <v>71.22354933516651</v>
       </c>
       <c r="AB26" t="n">
-        <v>92.93255525853124</v>
+        <v>57.85572224815999</v>
       </c>
       <c r="AC26" t="n">
-        <v>154.2834111753153</v>
+        <v>107.6213340982709</v>
       </c>
       <c r="AD26" t="n">
-        <v>79.82280577721738</v>
+        <v>116.2363714481251</v>
       </c>
       <c r="AE26" t="n">
-        <v>95.10073100103281</v>
+        <v>95.81725674760901</v>
       </c>
       <c r="AF26" t="n">
-        <v>121.4843150040434</v>
+        <v>121.6734302675044</v>
       </c>
       <c r="AG26" t="n">
-        <v>108.4824762034634</v>
+        <v>122.282947473414</v>
       </c>
       <c r="AH26" t="n">
-        <v>86.23075027290592</v>
+        <v>121.618615735983</v>
       </c>
       <c r="AI26" t="n">
-        <v>50.56798044778529</v>
+        <v>170.1574616707885</v>
       </c>
       <c r="AJ26" t="n">
-        <v>86.00906343960571</v>
+        <v>89.08058065292914</v>
       </c>
       <c r="AK26" t="n">
-        <v>143.22742463772</v>
+        <v>71.54929609731289</v>
       </c>
       <c r="AL26" t="n">
-        <v>133.1736168909622</v>
+        <v>15.10310289404048</v>
       </c>
       <c r="AM26" t="n">
-        <v>27.92084869921977</v>
+        <v>23.3655265727734</v>
       </c>
       <c r="AN26" t="n">
-        <v>21.43633669095131</v>
+        <v>27.85331925324941</v>
       </c>
       <c r="AO26" t="n">
-        <v>22.15467659453922</v>
+        <v>29.97709433464593</v>
       </c>
       <c r="AP26" t="n">
-        <v>32.01854447902498</v>
+        <v>27.07123717926923</v>
       </c>
       <c r="AQ26" t="n">
-        <v>13.39924928490436</v>
+        <v>22.64969528344114</v>
       </c>
       <c r="AR26" t="n">
-        <v>23.29015480258085</v>
+        <v>27.19920373012411</v>
       </c>
       <c r="AS26" t="n">
-        <v>19.20095403066201</v>
+        <v>30.01385270858465</v>
       </c>
       <c r="AT26" t="n">
-        <v>48.76190811134456</v>
+        <v>18.65585369441822</v>
       </c>
       <c r="AU26" t="n">
-        <v>22.08681124426568</v>
+        <v>14.32536140659475</v>
       </c>
       <c r="AV26" t="n">
-        <v>11.36275782501414</v>
+        <v>18.68933841180307</v>
       </c>
       <c r="AW26" t="n">
-        <v>19.17759807652842</v>
+        <v>17.31733475258285</v>
       </c>
       <c r="AX26" t="n">
-        <v>21.64865973703755</v>
+        <v>8.341336642126176</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>7.354303421566379</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>5.958124268389996</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>5.849009446303837</v>
+        <v>2.681747771286401</v>
       </c>
       <c r="F27" t="n">
-        <v>1.780344572284121</v>
+        <v>2.224304815191608</v>
       </c>
       <c r="G27" t="n">
-        <v>4.880208369860894</v>
+        <v>3.871792782525446</v>
       </c>
       <c r="H27" t="n">
-        <v>2.243959917757341</v>
+        <v>3.099419259731865</v>
       </c>
       <c r="I27" t="n">
-        <v>2.416555393617454</v>
+        <v>2.631186408378328</v>
       </c>
       <c r="J27" t="n">
-        <v>8.372896432074677</v>
+        <v>3.492678443865809</v>
       </c>
       <c r="K27" t="n">
-        <v>1.201689163654594</v>
+        <v>2.405900453544354</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9766520966822722</v>
+        <v>3.198090406127013</v>
       </c>
       <c r="M27" t="n">
-        <v>1.308207614780393</v>
+        <v>6.087724902355901</v>
       </c>
       <c r="N27" t="n">
-        <v>0.4872468520967214</v>
+        <v>8.095179706734241</v>
       </c>
       <c r="O27" t="n">
-        <v>2.217442570704233</v>
+        <v>2.079985030185685</v>
       </c>
       <c r="P27" t="n">
-        <v>4.821133737010912</v>
+        <v>7.572268866675014</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.838549498961744</v>
+        <v>2.110438160143869</v>
       </c>
       <c r="R27" t="n">
-        <v>6.133030471012019</v>
+        <v>7.747472958484028</v>
       </c>
       <c r="S27" t="n">
-        <v>3.542468873675359</v>
+        <v>8.23923447680524</v>
       </c>
       <c r="T27" t="n">
-        <v>1.560039781035103</v>
+        <v>2.81659687862683</v>
       </c>
       <c r="U27" t="n">
-        <v>7.028976645010954</v>
+        <v>11.484759281643</v>
       </c>
       <c r="V27" t="n">
-        <v>3.983826439494403</v>
+        <v>7.641297062846767</v>
       </c>
       <c r="W27" t="n">
-        <v>2.770644275218536</v>
+        <v>0.3048187920105987</v>
       </c>
       <c r="X27" t="n">
-        <v>2.393840594642072</v>
+        <v>4.942369043262953</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.888964291574113</v>
+        <v>4.50343036156248</v>
       </c>
       <c r="Z27" t="n">
-        <v>4.093246549576009</v>
+        <v>4.26791542331372</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.820466538280962</v>
+        <v>2.983398805433117</v>
       </c>
       <c r="AB27" t="n">
-        <v>6.107567358894321</v>
+        <v>5.923553602562716</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.041939351522176</v>
+        <v>7.984128189363215</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.808719076282334</v>
+        <v>1.800797511346519</v>
       </c>
       <c r="AE27" t="n">
-        <v>2.952747458846225</v>
+        <v>5.788382108776641</v>
       </c>
       <c r="AF27" t="n">
-        <v>4.492935026534703</v>
+        <v>4.100388202672701</v>
       </c>
       <c r="AG27" t="n">
-        <v>2.975271785560304</v>
+        <v>6.470176720304304</v>
       </c>
       <c r="AH27" t="n">
-        <v>11.97125060386715</v>
+        <v>4.099136705065968</v>
       </c>
       <c r="AI27" t="n">
-        <v>6.930427895114571</v>
+        <v>4.017192385975494</v>
       </c>
       <c r="AJ27" t="n">
-        <v>6.379104721399898</v>
+        <v>3.624894627119606</v>
       </c>
       <c r="AK27" t="n">
-        <v>4.658343902833789</v>
+        <v>5.651938707965571</v>
       </c>
       <c r="AL27" t="n">
-        <v>5.054032935238671</v>
+        <v>6.927906276260202</v>
       </c>
       <c r="AM27" t="n">
-        <v>7.394233543076324</v>
+        <v>7.54057679560524</v>
       </c>
       <c r="AN27" t="n">
-        <v>10.52782163849682</v>
+        <v>4.987323095181671</v>
       </c>
       <c r="AO27" t="n">
-        <v>3.739556741059503</v>
+        <v>6.05071594228709</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.529828354252207</v>
+        <v>4.670112358490666</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5.871242118932837</v>
+        <v>4.551586136724108</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.619614881132751</v>
+        <v>4.218793571437807</v>
       </c>
       <c r="AS27" t="n">
-        <v>4.320793419367154</v>
+        <v>2.125174551743754</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.850472323818323</v>
+        <v>2.228060839067492</v>
       </c>
       <c r="AU27" t="n">
-        <v>1.474015054624956</v>
+        <v>3.692233986323077</v>
       </c>
       <c r="AV27" t="n">
-        <v>7.804201175171781</v>
+        <v>1.800672422927059</v>
       </c>
       <c r="AW27" t="n">
-        <v>1.40296601365077</v>
+        <v>6.238139752915527</v>
       </c>
       <c r="AX27" t="n">
-        <v>8.26983229964284</v>
+        <v>1.633958501569432</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>11.22602683008584</v>
+        <v>2.76020500617299</v>
       </c>
       <c r="D28" t="n">
-        <v>13.05554611108257</v>
+        <v>8.330279832260633</v>
       </c>
       <c r="E28" t="n">
-        <v>8.397725310514513</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>30.49755158673382</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>152.1811803528823</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>30.24105372458026</v>
+        <v>68.58043734645879</v>
       </c>
       <c r="I28" t="n">
-        <v>4.590317514277809</v>
+        <v>211.6344529095789</v>
       </c>
       <c r="J28" t="n">
-        <v>286.078750353963</v>
+        <v>7.255450911551797</v>
       </c>
       <c r="K28" t="n">
-        <v>87.03743597066115</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>101.6628140847515</v>
+        <v>101.1750593700449</v>
       </c>
       <c r="M28" t="n">
-        <v>59.86030071567293</v>
+        <v>59.67804608737484</v>
       </c>
       <c r="N28" t="n">
-        <v>45.96518914438661</v>
+        <v>86.23176135729122</v>
       </c>
       <c r="O28" t="n">
-        <v>67.31376344783584</v>
+        <v>51.90758860508397</v>
       </c>
       <c r="P28" t="n">
-        <v>127.2009185788698</v>
+        <v>110.9573387041329</v>
       </c>
       <c r="Q28" t="n">
-        <v>42.88418922994502</v>
+        <v>29.08268878214263</v>
       </c>
       <c r="R28" t="n">
-        <v>28.44355837726788</v>
+        <v>38.93580327517392</v>
       </c>
       <c r="S28" t="n">
-        <v>94.38435983264397</v>
+        <v>38.07366637891834</v>
       </c>
       <c r="T28" t="n">
-        <v>69.94395780822944</v>
+        <v>83.70735002656386</v>
       </c>
       <c r="U28" t="n">
-        <v>47.29149491944032</v>
+        <v>16.8938720893434</v>
       </c>
       <c r="V28" t="n">
-        <v>56.35248891072261</v>
+        <v>50.66706112345537</v>
       </c>
       <c r="W28" t="n">
-        <v>105.136751305801</v>
+        <v>23.44563227930645</v>
       </c>
       <c r="X28" t="n">
-        <v>160.3357552694607</v>
+        <v>61.55684169942761</v>
       </c>
       <c r="Y28" t="n">
-        <v>61.72238872330186</v>
+        <v>60.51399202086104</v>
       </c>
       <c r="Z28" t="n">
-        <v>86.97108543478166</v>
+        <v>79.29807158194214</v>
       </c>
       <c r="AA28" t="n">
-        <v>57.06138437679837</v>
+        <v>74.36631740463453</v>
       </c>
       <c r="AB28" t="n">
-        <v>66.76935978441927</v>
+        <v>84.13249384259149</v>
       </c>
       <c r="AC28" t="n">
-        <v>162.5068487736146</v>
+        <v>32.18369185964163</v>
       </c>
       <c r="AD28" t="n">
-        <v>51.35800900006219</v>
+        <v>50.24204245583687</v>
       </c>
       <c r="AE28" t="n">
-        <v>67.5271629402621</v>
+        <v>64.47079389256426</v>
       </c>
       <c r="AF28" t="n">
-        <v>50.6805250096672</v>
+        <v>64.45657786205295</v>
       </c>
       <c r="AG28" t="n">
-        <v>65.74394089213995</v>
+        <v>118.7459364169657</v>
       </c>
       <c r="AH28" t="n">
-        <v>62.05381159030155</v>
+        <v>115.7687341492793</v>
       </c>
       <c r="AI28" t="n">
-        <v>121.982975939676</v>
+        <v>46.00771084545186</v>
       </c>
       <c r="AJ28" t="n">
-        <v>121.7993114774884</v>
+        <v>15.57030042174752</v>
       </c>
       <c r="AK28" t="n">
-        <v>38.02014199813873</v>
+        <v>53.82030217387825</v>
       </c>
       <c r="AL28" t="n">
-        <v>79.12368340682106</v>
+        <v>37.89081577664204</v>
       </c>
       <c r="AM28" t="n">
-        <v>30.82952881891858</v>
+        <v>17.11774489191244</v>
       </c>
       <c r="AN28" t="n">
-        <v>16.85410950693947</v>
+        <v>25.55256012304175</v>
       </c>
       <c r="AO28" t="n">
-        <v>18.35747965940036</v>
+        <v>10.80803399264425</v>
       </c>
       <c r="AP28" t="n">
-        <v>12.13240959752818</v>
+        <v>26.69475965102329</v>
       </c>
       <c r="AQ28" t="n">
-        <v>18.92541222049474</v>
+        <v>13.40607359838778</v>
       </c>
       <c r="AR28" t="n">
-        <v>13.22312473958071</v>
+        <v>13.97021064068615</v>
       </c>
       <c r="AS28" t="n">
-        <v>19.38679718051774</v>
+        <v>11.75943006938588</v>
       </c>
       <c r="AT28" t="n">
-        <v>5.800583453682295</v>
+        <v>5.445069298531486</v>
       </c>
       <c r="AU28" t="n">
-        <v>6.072892717022254</v>
+        <v>7.816119262209162</v>
       </c>
       <c r="AV28" t="n">
-        <v>7.315034815824382</v>
+        <v>11.68432899689723</v>
       </c>
       <c r="AW28" t="n">
-        <v>14.18535829358752</v>
+        <v>7.050127069039475</v>
       </c>
       <c r="AX28" t="n">
-        <v>12.38874878560373</v>
+        <v>16.75504155782512</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>77.59372814760067</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>16.63836957564196</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>34.89970127916236</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>3.502401014545582</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.476441400759525</v>
+        <v>14.76409109138861</v>
       </c>
       <c r="H29" t="n">
-        <v>31.29447791142388</v>
+        <v>1.48521789093979</v>
       </c>
       <c r="I29" t="n">
-        <v>17.16628721457205</v>
+        <v>25.84626301204722</v>
       </c>
       <c r="J29" t="n">
-        <v>3.635523920694805</v>
+        <v>81.78179589861138</v>
       </c>
       <c r="K29" t="n">
-        <v>40.67977171797099</v>
+        <v>70.42433835726948</v>
       </c>
       <c r="L29" t="n">
-        <v>11.76727918296801</v>
+        <v>90.48693964628656</v>
       </c>
       <c r="M29" t="n">
-        <v>17.55731266742938</v>
+        <v>45.40485102743015</v>
       </c>
       <c r="N29" t="n">
-        <v>20.77010650128116</v>
+        <v>31.81595228659628</v>
       </c>
       <c r="O29" t="n">
-        <v>43.49157163494947</v>
+        <v>23.24464768825933</v>
       </c>
       <c r="P29" t="n">
-        <v>38.67720219677727</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.78969999312498</v>
+        <v>101.2404428100171</v>
       </c>
       <c r="R29" t="n">
-        <v>180.7720202814103</v>
+        <v>32.85672257174541</v>
       </c>
       <c r="S29" t="n">
-        <v>42.79220185776445</v>
+        <v>46.09587069273405</v>
       </c>
       <c r="T29" t="n">
-        <v>39.63485996522713</v>
+        <v>14.30782344800786</v>
       </c>
       <c r="U29" t="n">
-        <v>39.11291523867781</v>
+        <v>57.53508272522792</v>
       </c>
       <c r="V29" t="n">
-        <v>26.4648964190795</v>
+        <v>91.06077701884715</v>
       </c>
       <c r="W29" t="n">
-        <v>138.3722503835404</v>
+        <v>36.86678445537492</v>
       </c>
       <c r="X29" t="n">
-        <v>25.12010684837413</v>
+        <v>100.1585259831531</v>
       </c>
       <c r="Y29" t="n">
-        <v>87.25754184741993</v>
+        <v>26.77836970930615</v>
       </c>
       <c r="Z29" t="n">
-        <v>33.36097163635873</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>66.42109467876449</v>
+        <v>16.75951350415815</v>
       </c>
       <c r="AB29" t="n">
-        <v>39.15270295073618</v>
+        <v>40.01769403873154</v>
       </c>
       <c r="AC29" t="n">
-        <v>28.25786716501602</v>
+        <v>36.81133112954834</v>
       </c>
       <c r="AD29" t="n">
-        <v>64.01695206016193</v>
+        <v>14.90344125059241</v>
       </c>
       <c r="AE29" t="n">
-        <v>33.60894889405257</v>
+        <v>60.7771081643295</v>
       </c>
       <c r="AF29" t="n">
-        <v>10.36893424349232</v>
+        <v>51.02785117325269</v>
       </c>
       <c r="AG29" t="n">
-        <v>6.711790850375826</v>
+        <v>57.86848262126219</v>
       </c>
       <c r="AH29" t="n">
-        <v>58.16517115283447</v>
+        <v>7.167604737047963</v>
       </c>
       <c r="AI29" t="n">
-        <v>27.16256055660307</v>
+        <v>6.859716722376815</v>
       </c>
       <c r="AJ29" t="n">
-        <v>10.37947545729785</v>
+        <v>39.49991086594471</v>
       </c>
       <c r="AK29" t="n">
-        <v>43.50413858203406</v>
+        <v>37.85707541851423</v>
       </c>
       <c r="AL29" t="n">
-        <v>41.98349015284703</v>
+        <v>109.3445468847392</v>
       </c>
       <c r="AM29" t="n">
-        <v>9.115247057671127</v>
+        <v>26.04898433013967</v>
       </c>
       <c r="AN29" t="n">
-        <v>25.92562268351459</v>
+        <v>32.97677862460049</v>
       </c>
       <c r="AO29" t="n">
-        <v>24.63106061784795</v>
+        <v>30.78475281818087</v>
       </c>
       <c r="AP29" t="n">
-        <v>36.57529759685664</v>
+        <v>32.37712972278577</v>
       </c>
       <c r="AQ29" t="n">
-        <v>44.18336792057899</v>
+        <v>33.88712865076234</v>
       </c>
       <c r="AR29" t="n">
-        <v>41.6901592410189</v>
+        <v>23.80265667623732</v>
       </c>
       <c r="AS29" t="n">
-        <v>22.3352974761516</v>
+        <v>17.28046622090118</v>
       </c>
       <c r="AT29" t="n">
-        <v>16.81596144027038</v>
+        <v>0.0786242849084946</v>
       </c>
       <c r="AU29" t="n">
-        <v>30.03433563489764</v>
+        <v>13.89073711690503</v>
       </c>
       <c r="AV29" t="n">
-        <v>14.90152511605102</v>
+        <v>13.40296095246586</v>
       </c>
       <c r="AW29" t="n">
-        <v>35.23747592533766</v>
+        <v>21.25996353682774</v>
       </c>
       <c r="AX29" t="n">
-        <v>54.95546542734714</v>
+        <v>40.98487397628834</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>16.48403013267026</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1.759920769391092</v>
+        <v>6.193344525794615</v>
       </c>
       <c r="E30" t="n">
-        <v>2.391592414430031</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>9.04614713759206</v>
+        <v>6.36614452476171</v>
       </c>
       <c r="G30" t="n">
-        <v>3.519077924030388</v>
+        <v>11.25349919541802</v>
       </c>
       <c r="H30" t="n">
-        <v>5.879677966716567</v>
+        <v>0.2817925131728503</v>
       </c>
       <c r="I30" t="n">
-        <v>3.561487145699012</v>
+        <v>15.1306104810413</v>
       </c>
       <c r="J30" t="n">
-        <v>5.078760613484348</v>
+        <v>4.089535181328511</v>
       </c>
       <c r="K30" t="n">
-        <v>7.773279142733624</v>
+        <v>14.74110834784424</v>
       </c>
       <c r="L30" t="n">
-        <v>3.992486668578984</v>
+        <v>12.71847476282939</v>
       </c>
       <c r="M30" t="n">
-        <v>13.56930361569612</v>
+        <v>36.3551193671128</v>
       </c>
       <c r="N30" t="n">
-        <v>20.51285654862803</v>
+        <v>45.9017317033984</v>
       </c>
       <c r="O30" t="n">
-        <v>36.87166102890319</v>
+        <v>14.09325647019252</v>
       </c>
       <c r="P30" t="n">
-        <v>40.23102542378348</v>
+        <v>23.20833249055189</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.876748446732705</v>
+        <v>34.15643224916026</v>
       </c>
       <c r="R30" t="n">
-        <v>17.2292903242869</v>
+        <v>3.886360243395518</v>
       </c>
       <c r="S30" t="n">
-        <v>16.75309933137591</v>
+        <v>29.99715221318418</v>
       </c>
       <c r="T30" t="n">
-        <v>8.731721384135041</v>
+        <v>13.03133721646746</v>
       </c>
       <c r="U30" t="n">
-        <v>19.78338270827406</v>
+        <v>26.96054413100286</v>
       </c>
       <c r="V30" t="n">
-        <v>12.58883790584066</v>
+        <v>11.29809859348582</v>
       </c>
       <c r="W30" t="n">
-        <v>26.07253949219304</v>
+        <v>17.36566622073668</v>
       </c>
       <c r="X30" t="n">
-        <v>24.05682461237164</v>
+        <v>16.66047682819839</v>
       </c>
       <c r="Y30" t="n">
-        <v>33.56972794566606</v>
+        <v>87.16770520549123</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.66512279336343</v>
+        <v>13.55086597920006</v>
       </c>
       <c r="AA30" t="n">
-        <v>15.01476605841944</v>
+        <v>32.69241698315285</v>
       </c>
       <c r="AB30" t="n">
-        <v>10.49192879510339</v>
+        <v>13.1216202999776</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.258752451224421</v>
+        <v>13.65499609192246</v>
       </c>
       <c r="AD30" t="n">
-        <v>26.57080022288359</v>
+        <v>45.52817687975063</v>
       </c>
       <c r="AE30" t="n">
-        <v>14.11670248591031</v>
+        <v>10.96979517705032</v>
       </c>
       <c r="AF30" t="n">
-        <v>20.6969872121671</v>
+        <v>6.353315236862548</v>
       </c>
       <c r="AG30" t="n">
-        <v>9.068853258034117</v>
+        <v>25.12836103923012</v>
       </c>
       <c r="AH30" t="n">
-        <v>23.7284334503249</v>
+        <v>13.08737702527209</v>
       </c>
       <c r="AI30" t="n">
-        <v>4.499023378379881</v>
+        <v>11.47836192928237</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9.605972481303086</v>
+        <v>20.96322992702857</v>
       </c>
       <c r="AK30" t="n">
-        <v>4.281605815344554</v>
+        <v>3.591295020338663</v>
       </c>
       <c r="AL30" t="n">
-        <v>11.53706247212938</v>
+        <v>10.31294867413855</v>
       </c>
       <c r="AM30" t="n">
-        <v>7.313555168673495</v>
+        <v>8.080469354895063</v>
       </c>
       <c r="AN30" t="n">
-        <v>2.515459206973704</v>
+        <v>5.185225565029684</v>
       </c>
       <c r="AO30" t="n">
-        <v>3.581071198913773</v>
+        <v>2.275617913227071</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.027437229707369</v>
+        <v>2.346244994915431</v>
       </c>
       <c r="AQ30" t="n">
-        <v>3.099037145768645</v>
+        <v>4.017790694257688</v>
       </c>
       <c r="AR30" t="n">
-        <v>1.799319197558025</v>
+        <v>3.417240562076534</v>
       </c>
       <c r="AS30" t="n">
-        <v>3.942162333840695</v>
+        <v>2.969140912530402</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.56784801949261</v>
+        <v>2.558185602303534</v>
       </c>
       <c r="AU30" t="n">
-        <v>6.412173472914305</v>
+        <v>3.327066114662952</v>
       </c>
       <c r="AV30" t="n">
-        <v>3.377407744083008</v>
+        <v>3.790503479224721</v>
       </c>
       <c r="AW30" t="n">
-        <v>2.217870014773717</v>
+        <v>4.1929587703689</v>
       </c>
       <c r="AX30" t="n">
-        <v>4.027161603326716</v>
+        <v>1.029006784070807</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>4.843854730900414</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.918114233896754</v>
+        <v>7.487587476545203</v>
       </c>
       <c r="E31" t="n">
-        <v>50.55683456932073</v>
+        <v>10.45919402398818</v>
       </c>
       <c r="F31" t="n">
-        <v>12.76159805459093</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>20.14453684623393</v>
+        <v>10.80764685955957</v>
       </c>
       <c r="H31" t="n">
-        <v>15.18147243237275</v>
+        <v>25.82863791523116</v>
       </c>
       <c r="I31" t="n">
-        <v>5.73684738430187</v>
+        <v>45.58250537080857</v>
       </c>
       <c r="J31" t="n">
-        <v>12.25741261992374</v>
+        <v>7.030379471244821</v>
       </c>
       <c r="K31" t="n">
-        <v>19.00182115912475</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>42.55642942247277</v>
+        <v>70.04639790579907</v>
       </c>
       <c r="M31" t="n">
-        <v>10.44784786058472</v>
+        <v>33.41613876483304</v>
       </c>
       <c r="N31" t="n">
-        <v>6.889160721494835</v>
+        <v>77.39364038493504</v>
       </c>
       <c r="O31" t="n">
-        <v>3.713850447989352</v>
+        <v>112.59154635681</v>
       </c>
       <c r="P31" t="n">
-        <v>35.14990705361053</v>
+        <v>1.61599394549398</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.4909774481809</v>
+        <v>100.3958061210979</v>
       </c>
       <c r="R31" t="n">
-        <v>57.65722148492631</v>
+        <v>38.16726390191252</v>
       </c>
       <c r="S31" t="n">
-        <v>38.52627748877507</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>22.6080466859191</v>
+        <v>84.28671897339362</v>
       </c>
       <c r="U31" t="n">
-        <v>53.07082362290227</v>
+        <v>22.63666221760283</v>
       </c>
       <c r="V31" t="n">
-        <v>12.54993912124455</v>
+        <v>17.99883834887064</v>
       </c>
       <c r="W31" t="n">
-        <v>4.661172336173208</v>
+        <v>10.22117972461951</v>
       </c>
       <c r="X31" t="n">
-        <v>5.570261272526668</v>
+        <v>88.73734409812903</v>
       </c>
       <c r="Y31" t="n">
-        <v>52.53008106236484</v>
+        <v>89.08185833294527</v>
       </c>
       <c r="Z31" t="n">
-        <v>5.686825050805361</v>
+        <v>25.94648220898966</v>
       </c>
       <c r="AA31" t="n">
-        <v>10.91389988884131</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>6.203008208395034</v>
+        <v>14.41193818528651</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.48254329248164</v>
+        <v>6.522748251333949</v>
       </c>
       <c r="AD31" t="n">
-        <v>5.96683159743553</v>
+        <v>25.43757505768107</v>
       </c>
       <c r="AE31" t="n">
-        <v>3.300178398267854</v>
+        <v>0.4803421280427458</v>
       </c>
       <c r="AF31" t="n">
-        <v>35.8936581636283</v>
+        <v>2.227649075196708</v>
       </c>
       <c r="AG31" t="n">
-        <v>2.553193264440167</v>
+        <v>4.37085782100419</v>
       </c>
       <c r="AH31" t="n">
-        <v>4.130575292948133</v>
+        <v>22.04551878241848</v>
       </c>
       <c r="AI31" t="n">
-        <v>18.22415220431012</v>
+        <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1.430437949851013</v>
+        <v>1.961659808363392</v>
       </c>
       <c r="AK31" t="n">
-        <v>3.448218405933181</v>
+        <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>5.498566589612762</v>
+        <v>2.907677186766364</v>
       </c>
       <c r="AM31" t="n">
-        <v>14.05690994486869</v>
+        <v>4.435605336241839</v>
       </c>
       <c r="AN31" t="n">
-        <v>5.47593814958503</v>
+        <v>2.574177160182576</v>
       </c>
       <c r="AO31" t="n">
-        <v>13.92533230057953</v>
+        <v>3.305208729896156</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.8152906281114467</v>
+        <v>3.886252795859454</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.774738086307851</v>
+        <v>2.350165932229387</v>
       </c>
       <c r="AR31" t="n">
-        <v>3.878386943504427</v>
+        <v>13.89122550808233</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.495908850072414</v>
+        <v>12.96232409174445</v>
       </c>
       <c r="AT31" t="n">
-        <v>74.44099387067544</v>
+        <v>4.195630433849793</v>
       </c>
       <c r="AU31" t="n">
-        <v>6.857654548175692</v>
+        <v>0</v>
       </c>
       <c r="AV31" t="n">
-        <v>1.371548423996221</v>
+        <v>4.578732270871378</v>
       </c>
       <c r="AW31" t="n">
-        <v>2.578543014400406</v>
+        <v>10.6334702391275</v>
       </c>
       <c r="AX31" t="n">
-        <v>10.01980383021349</v>
+        <v>2.480388277859327</v>
       </c>
     </row>
   </sheetData>
